--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111475407</v>
+        <v>111477156</v>
       </c>
       <c r="B2" t="n">
-        <v>96368</v>
+        <v>78611</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>6463</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526761.6737779978</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R2" t="n">
-        <v>7126659.581915028</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111475402</v>
+        <v>111475427</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526628.5804176665</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R3" t="n">
-        <v>7126900.974891847</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111477261</v>
+        <v>111478259</v>
       </c>
       <c r="B4" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526719.7991456056</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R4" t="n">
-        <v>7126870.904059933</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111481777</v>
+        <v>111477267</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,42 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526576.6359760575</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R5" t="n">
-        <v>7127372.958205946</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1124,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111475395</v>
+        <v>111477261</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,45 +1144,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526541.4140344799</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R6" t="n">
-        <v>7127319.634518873</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1244,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477249</v>
+        <v>111477276</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526737.8549399736</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R7" t="n">
-        <v>7126796.298664714</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1368,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477246</v>
+        <v>111477287</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526794.8191702637</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R8" t="n">
-        <v>7126802.009519467</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1480,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481787</v>
+        <v>111477249</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1520,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526745.1073277664</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R9" t="n">
-        <v>7126863.299787878</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1580,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481797</v>
+        <v>111477246</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1632,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526724.4788811355</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R10" t="n">
-        <v>7126833.129197065</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1692,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111478260</v>
+        <v>111481791</v>
       </c>
       <c r="B11" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1744,13 +1728,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526746.6216685539</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R11" t="n">
-        <v>7126889.392351454</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1804,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481785</v>
+        <v>111477263</v>
       </c>
       <c r="B12" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526629.4958394679</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R12" t="n">
-        <v>7126895.766960836</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1916,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111475396</v>
+        <v>111475419</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,42 +1928,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526760.8615308162</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R13" t="n">
-        <v>7126552.639882971</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2048,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111475406</v>
+        <v>111475401</v>
       </c>
       <c r="B14" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2088,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526628.8057909949</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R14" t="n">
-        <v>7126874.89753825</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477224</v>
+        <v>111477241</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2200,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526874.3871010491</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R15" t="n">
-        <v>7126760.97409881</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2272,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111477228</v>
+        <v>111475411</v>
       </c>
       <c r="B16" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2288,37 +2264,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526734.8568705021</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R16" t="n">
-        <v>7126891.028866394</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2372,19 +2348,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477234</v>
+        <v>111475398</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2418,19 +2394,27 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526638.6946075994</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R17" t="n">
-        <v>7126888.892006672</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2484,22 +2468,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111475400</v>
+        <v>111477271</v>
       </c>
       <c r="B18" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2508,41 +2492,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526334.1646390257</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R18" t="n">
-        <v>7127180.955839636</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2596,22 +2580,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111477156</v>
+        <v>111481789</v>
       </c>
       <c r="B19" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,41 +2604,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526783.9659439438</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R19" t="n">
-        <v>7126798.872483394</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2708,22 +2692,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481794</v>
+        <v>111475409</v>
       </c>
       <c r="B20" t="n">
-        <v>78612</v>
+        <v>96368</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2736,37 +2720,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526759.9373603656</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R20" t="n">
-        <v>7126859.516619125</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2820,22 +2804,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111477197</v>
+        <v>111475430</v>
       </c>
       <c r="B21" t="n">
-        <v>76513</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2848,37 +2832,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526618.6342781226</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R21" t="n">
-        <v>7127447.634256044</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2932,22 +2916,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111481781</v>
+        <v>111477270</v>
       </c>
       <c r="B22" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,25 +2940,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2968,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526703.4301487049</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R22" t="n">
-        <v>7126901.622689946</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3044,22 +3028,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481796</v>
+        <v>111481795</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3072,21 +3056,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3096,10 +3080,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526608.5136703107</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R23" t="n">
-        <v>7126906.452016207</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3168,10 +3152,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481780</v>
+        <v>111481785</v>
       </c>
       <c r="B24" t="n">
-        <v>78605</v>
+        <v>78579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3180,25 +3164,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3280,10 +3264,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111475423</v>
+        <v>111481784</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3296,37 +3280,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526627.7975810008</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R25" t="n">
-        <v>7127444.671415905</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3380,22 +3364,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111475419</v>
+        <v>111477149</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,34 +3392,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526750.3609286405</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R26" t="n">
-        <v>7126759.460191521</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3486,28 +3473,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111475429</v>
+        <v>111477150</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,34 +3508,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526801.3654488353</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R27" t="n">
-        <v>7126749.905904328</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3604,19 +3592,19 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481788</v>
+        <v>111481790</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3656,10 +3644,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526710.6246283256</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R28" t="n">
-        <v>7126824.750457344</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3728,10 +3716,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111477220</v>
+        <v>111475396</v>
       </c>
       <c r="B29" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3744,37 +3732,45 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526733.557377478</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R29" t="n">
-        <v>7126840.16255208</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3828,22 +3824,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477264</v>
+        <v>111475418</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3856,37 +3852,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526756.4007905088</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R30" t="n">
-        <v>7126765.59805485</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3940,22 +3936,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477268</v>
+        <v>111475421</v>
       </c>
       <c r="B31" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3968,37 +3964,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526783.5980437086</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R31" t="n">
-        <v>7126741.057903775</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4052,22 +4048,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477250</v>
+        <v>111477278</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4076,25 +4072,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4104,10 +4100,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526770.2400840909</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R32" t="n">
-        <v>7126775.715713345</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4176,10 +4172,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111481795</v>
+        <v>111481792</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4192,21 +4188,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4216,10 +4212,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526578.1343758366</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R33" t="n">
-        <v>7126947.046857893</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4288,10 +4284,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475411</v>
+        <v>111475428</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4304,21 +4300,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4328,10 +4324,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526633.8626035146</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R34" t="n">
-        <v>7126894.066088703</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4400,10 +4396,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111478259</v>
+        <v>111475429</v>
       </c>
       <c r="B35" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4412,38 +4408,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526622.093687591</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R35" t="n">
-        <v>7126946.557083774</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4500,19 +4496,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477278</v>
+        <v>111475408</v>
       </c>
       <c r="B36" t="n">
         <v>96368</v>
@@ -4548,17 +4544,17 @@
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526711.8604537799</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R36" t="n">
-        <v>7126883.005616191</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4612,22 +4608,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477277</v>
+        <v>111477197</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4640,21 +4636,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4664,10 +4660,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526643.3394980798</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R37" t="n">
-        <v>7126855.0288987</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4736,7 +4732,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111477271</v>
+        <v>111477217</v>
       </c>
       <c r="B38" t="n">
         <v>73696</v>
@@ -4776,10 +4772,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526709.7900707464</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R38" t="n">
-        <v>7126870.817277474</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4848,7 +4844,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475417</v>
+        <v>111477152</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -4884,14 +4880,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526628.5804176665</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R39" t="n">
-        <v>7126900.974891847</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4948,19 +4944,19 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475415</v>
+        <v>111475420</v>
       </c>
       <c r="B40" t="n">
         <v>78578</v>
@@ -5000,10 +4996,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526334.1646390257</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R40" t="n">
-        <v>7127180.955839636</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5072,7 +5068,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111475408</v>
+        <v>111475405</v>
       </c>
       <c r="B41" t="n">
         <v>96368</v>
@@ -5112,10 +5108,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526807.9596872492</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R41" t="n">
-        <v>7126492.190286946</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5184,10 +5180,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111477282</v>
+        <v>111481777</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5200,34 +5196,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526753.3544461714</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R42" t="n">
-        <v>7126765.571603379</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5284,22 +5288,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111477226</v>
+        <v>111475407</v>
       </c>
       <c r="B43" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5308,41 +5312,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526776.5518203602</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R43" t="n">
-        <v>7126750.55952362</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5396,22 +5400,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111477247</v>
+        <v>111478258</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5420,25 +5424,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5448,13 +5452,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526791.4164464728</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R44" t="n">
-        <v>7126742.86457725</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5508,22 +5512,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481792</v>
+        <v>111477247</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5536,21 +5540,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5560,10 +5564,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526807.5942992838</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R45" t="n">
-        <v>7126734.31175267</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5620,22 +5624,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481778</v>
+        <v>111481796</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5648,42 +5652,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526632.5946496209</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R46" t="n">
-        <v>7126889.708583741</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5752,10 +5748,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111475425</v>
+        <v>111481779</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5768,37 +5764,45 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526350.4355532593</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R47" t="n">
-        <v>7127161.102700913</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5852,19 +5856,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111475418</v>
+        <v>111481787</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5900,17 +5904,17 @@
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526641.5754754087</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R48" t="n">
-        <v>7126908.041672549</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5964,22 +5968,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111475401</v>
+        <v>111481797</v>
       </c>
       <c r="B49" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5988,41 +5992,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526359.6403407991</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R49" t="n">
-        <v>7127153.358349039</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6076,22 +6080,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477153</v>
+        <v>111477228</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6104,37 +6108,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526793.9223398847</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R50" t="n">
-        <v>7126805.044392107</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6188,22 +6192,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111477203</v>
+        <v>111477268</v>
       </c>
       <c r="B51" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6216,21 +6220,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6240,10 +6244,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526589.7304216913</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R51" t="n">
-        <v>7127368.290746101</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6312,10 +6316,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111475422</v>
+        <v>111475399</v>
       </c>
       <c r="B52" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6328,34 +6332,42 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526830.8338072833</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R52" t="n">
-        <v>7126714.5188105</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6424,10 +6436,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111477241</v>
+        <v>111481781</v>
       </c>
       <c r="B53" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6436,25 +6448,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6464,10 +6476,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526633.8889021962</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R53" t="n">
-        <v>7126891.023735311</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6524,22 +6536,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111475427</v>
+        <v>111475400</v>
       </c>
       <c r="B54" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6548,25 +6560,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6576,10 +6588,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526432.8127084307</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R54" t="n">
-        <v>7127044.459845332</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6648,10 +6660,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111475412</v>
+        <v>111475423</v>
       </c>
       <c r="B55" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6664,21 +6676,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6688,10 +6700,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526788.4021154585</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R55" t="n">
-        <v>7126588.959279429</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6760,7 +6772,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111475398</v>
+        <v>111475395</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -6808,10 +6820,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526795.3655874674</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R56" t="n">
-        <v>7126589.019822755</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6880,10 +6892,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111477232</v>
+        <v>111475404</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6892,41 +6904,41 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526843.7421112995</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R57" t="n">
-        <v>7126731.583709671</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6980,22 +6992,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111477148</v>
+        <v>111477273</v>
       </c>
       <c r="B58" t="n">
-        <v>103273</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7004,41 +7016,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221725</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526681.1812848106</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R58" t="n">
-        <v>7126857.529652008</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7092,19 +7104,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111481790</v>
+        <v>111477282</v>
       </c>
       <c r="B59" t="n">
         <v>78578</v>
@@ -7144,10 +7156,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526748.151006726</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R59" t="n">
-        <v>7126763.35306516</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7204,19 +7216,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111481793</v>
+        <v>111481794</v>
       </c>
       <c r="B60" t="n">
         <v>78612</v>
@@ -7256,10 +7268,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526742.0271302022</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R60" t="n">
-        <v>7126867.184979456</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7328,7 +7340,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475428</v>
+        <v>111475424</v>
       </c>
       <c r="B61" t="n">
         <v>77515</v>
@@ -7368,10 +7380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526818.0723325044</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R61" t="n">
-        <v>7126530.532625454</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7440,10 +7452,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111475424</v>
+        <v>111477153</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7456,34 +7468,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526562.7125770835</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R62" t="n">
-        <v>7127372.838116477</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7540,22 +7552,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475405</v>
+        <v>111477262</v>
       </c>
       <c r="B63" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7564,41 +7576,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526402.8306512056</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R63" t="n">
-        <v>7127140.689653471</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7652,22 +7664,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111475399</v>
+        <v>111475412</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7680,42 +7692,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526448.7861015323</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R64" t="n">
-        <v>7127211.491299792</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7784,10 +7788,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111477149</v>
+        <v>111475415</v>
       </c>
       <c r="B65" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7800,37 +7804,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526773.3997162007</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R65" t="n">
-        <v>7126762.703002418</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7881,29 +7882,28 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111478257</v>
+        <v>111477203</v>
       </c>
       <c r="B66" t="n">
-        <v>96368</v>
+        <v>76513</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7912,25 +7912,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>221952</v>
+        <v>314</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7940,13 +7940,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526504.6649119424</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R66" t="n">
-        <v>7127291.938577281</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8000,22 +8000,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111477151</v>
+        <v>111475402</v>
       </c>
       <c r="B67" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8024,38 +8024,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526778.943100647</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R67" t="n">
-        <v>7126725.803744309</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8112,19 +8112,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111477152</v>
+        <v>111475417</v>
       </c>
       <c r="B68" t="n">
         <v>78578</v>
@@ -8160,14 +8160,14 @@
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526790.9213834098</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R68" t="n">
-        <v>7126799.80228779</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8224,22 +8224,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111477230</v>
+        <v>111475422</v>
       </c>
       <c r="B69" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8252,37 +8252,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526743.0583307605</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R69" t="n">
-        <v>7126798.517162403</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8336,22 +8336,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111475409</v>
+        <v>111477236</v>
       </c>
       <c r="B70" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8360,41 +8360,41 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526801.3654488353</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R70" t="n">
-        <v>7126749.905904328</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8448,22 +8448,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475430</v>
+        <v>111481780</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8472,41 +8472,41 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526904.464734747</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R71" t="n">
-        <v>7126755.585814431</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8560,22 +8560,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111475404</v>
+        <v>111477155</v>
       </c>
       <c r="B72" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8584,38 +8584,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526536.8261819695</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R72" t="n">
-        <v>7127296.56142472</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8672,22 +8672,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111475420</v>
+        <v>111477154</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8696,38 +8696,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526782.4503789117</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R73" t="n">
-        <v>7126672.803025675</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8784,22 +8784,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111478258</v>
+        <v>111477148</v>
       </c>
       <c r="B74" t="n">
-        <v>96368</v>
+        <v>103273</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8812,34 +8812,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221952</v>
+        <v>221725</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526486.4442992809</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R74" t="n">
-        <v>7127234.849028585</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8896,22 +8896,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111477150</v>
+        <v>111478260</v>
       </c>
       <c r="B75" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8920,38 +8920,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526575.9457110572</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R75" t="n">
-        <v>7127352.092021598</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9008,22 +9008,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111481779</v>
+        <v>111478257</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9032,49 +9032,41 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526741.1907235509</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R76" t="n">
-        <v>7126863.265793501</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9128,22 +9120,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475421</v>
+        <v>111481793</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9152,41 +9144,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526790.5782004726</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R77" t="n">
-        <v>7126588.978197531</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9240,22 +9232,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111481791</v>
+        <v>111475425</v>
       </c>
       <c r="B78" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9268,37 +9260,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526766.8104247742</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R78" t="n">
-        <v>7126719.612825709</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9352,22 +9344,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111481784</v>
+        <v>111477151</v>
       </c>
       <c r="B79" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9380,37 +9372,37 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526513.0667874835</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R79" t="n">
-        <v>7127276.365312753</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9464,22 +9456,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111477154</v>
+        <v>111475406</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9488,38 +9480,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526784.7834235848</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R80" t="n">
-        <v>7126804.964935203</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9576,22 +9568,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111477155</v>
+        <v>111481778</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9604,37 +9596,45 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526757.7867624827</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R81" t="n">
-        <v>7126806.469043032</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480332</v>
+        <v>111492248</v>
       </c>
       <c r="B82" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9716,21 +9716,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526894.459077736</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R82" t="n">
-        <v>7126755.063791552</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111480503</v>
+        <v>111492243</v>
       </c>
       <c r="B83" t="n">
-        <v>78611</v>
+        <v>89423</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9824,25 +9824,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526894.459077736</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R83" t="n">
-        <v>7126755.063791552</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9912,22 +9912,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480527</v>
+        <v>111480390</v>
       </c>
       <c r="B84" t="n">
-        <v>76918</v>
+        <v>89401</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9940,21 +9940,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6437</v>
+        <v>1108</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526547.1610996595</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R84" t="n">
-        <v>7126854.633392128</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492243</v>
+        <v>111480503</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10048,25 +10048,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526790.3722218492</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R85" t="n">
-        <v>7126762.850523639</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10136,22 +10136,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492247</v>
+        <v>111480378</v>
       </c>
       <c r="B86" t="n">
-        <v>78467</v>
+        <v>96348</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,25 +10160,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6457</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10188,10 +10188,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526777.8204396158</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R86" t="n">
-        <v>7126804.904414805</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10248,22 +10248,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480505</v>
+        <v>111492222</v>
       </c>
       <c r="B87" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10272,25 +10272,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526660.4581602761</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R87" t="n">
-        <v>7126838.225198075</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10360,22 +10360,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492238</v>
+        <v>111492247</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>78467</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10384,25 +10384,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526774.8534470783</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R88" t="n">
-        <v>7126795.750608556</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10484,10 +10484,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480329</v>
+        <v>111492240</v>
       </c>
       <c r="B89" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10496,38 +10496,50 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526797.7359805232</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R89" t="n">
-        <v>7126716.838867592</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10585,22 +10597,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480482</v>
+        <v>111492231</v>
       </c>
       <c r="B90" t="n">
-        <v>88899</v>
+        <v>78605</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10609,25 +10621,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3286</v>
+        <v>6462</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10637,10 +10649,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526688.4566125805</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R90" t="n">
-        <v>7126821.515715363</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10697,22 +10709,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492236</v>
+        <v>111480422</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10725,21 +10737,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10749,10 +10761,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526602.6161355394</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R91" t="n">
-        <v>7126984.637523879</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10809,22 +10821,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492245</v>
+        <v>111492221</v>
       </c>
       <c r="B92" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10837,21 +10849,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10861,10 +10873,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526603.415572185</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R92" t="n">
-        <v>7126841.644113425</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10926,17 +10938,17 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480506</v>
+        <v>111480286</v>
       </c>
       <c r="B93" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10945,25 +10957,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10973,10 +10985,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526737.8241366684</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R93" t="n">
-        <v>7126649.377048474</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11045,10 +11057,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480495</v>
+        <v>111480506</v>
       </c>
       <c r="B94" t="n">
-        <v>85715</v>
+        <v>78611</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11057,25 +11069,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>510</v>
+        <v>6463</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11085,10 +11097,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526532.2429613075</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R94" t="n">
-        <v>7127323.466861598</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11157,10 +11169,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480378</v>
+        <v>111492228</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11169,25 +11181,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11197,10 +11209,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526749.2830160656</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R95" t="n">
-        <v>7126783.357779803</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11257,22 +11269,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480422</v>
+        <v>111492235</v>
       </c>
       <c r="B96" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11285,21 +11297,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11309,10 +11321,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526825.2556783153</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R96" t="n">
-        <v>7126705.341951311</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11369,22 +11381,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480521</v>
+        <v>111480329</v>
       </c>
       <c r="B97" t="n">
-        <v>76495</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11397,21 +11409,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6487</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11421,10 +11433,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526547.1610996595</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R97" t="n">
-        <v>7126854.633392128</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11475,6 +11487,7 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11493,10 +11506,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480259</v>
+        <v>111492226</v>
       </c>
       <c r="B98" t="n">
-        <v>95538</v>
+        <v>73696</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11505,25 +11518,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11533,10 +11546,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526443.6441876995</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R98" t="n">
-        <v>7127151.470534382</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11593,22 +11606,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480285</v>
+        <v>111492242</v>
       </c>
       <c r="B99" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11621,21 +11634,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11645,10 +11658,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526736.9537197551</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R99" t="n">
-        <v>7126649.369495919</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11705,22 +11718,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480333</v>
+        <v>111492249</v>
       </c>
       <c r="B100" t="n">
-        <v>78612</v>
+        <v>89793</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11733,21 +11746,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6464</v>
+        <v>4217</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11757,10 +11770,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526734.811617541</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R100" t="n">
-        <v>7126645.438707692</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11817,22 +11830,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480389</v>
+        <v>111492239</v>
       </c>
       <c r="B101" t="n">
-        <v>89401</v>
+        <v>96348</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11841,38 +11854,50 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526658.5471790246</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R101" t="n">
-        <v>7126908.188469252</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11923,28 +11948,29 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
+      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111492233</v>
+        <v>111480440</v>
       </c>
       <c r="B102" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11953,25 +11979,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11981,10 +12007,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526789.6416554189</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R102" t="n">
-        <v>7126746.761226696</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12041,22 +12067,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111492249</v>
+        <v>111480260</v>
       </c>
       <c r="B103" t="n">
-        <v>89793</v>
+        <v>95538</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12069,21 +12095,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4217</v>
+        <v>221941</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12093,10 +12119,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526847.6058643057</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R103" t="n">
-        <v>7126737.702852693</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12153,22 +12179,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111492230</v>
+        <v>111480288</v>
       </c>
       <c r="B104" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12177,25 +12203,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12205,10 +12231,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526575.169212656</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R104" t="n">
-        <v>7127341.220564325</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12265,22 +12291,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492239</v>
+        <v>111492241</v>
       </c>
       <c r="B105" t="n">
-        <v>96348</v>
+        <v>89401</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12289,50 +12315,38 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>220787</v>
+        <v>1108</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526801.7821608522</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R105" t="n">
-        <v>7126802.070078265</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12383,7 +12397,6 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
-      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
@@ -12395,17 +12408,17 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492246</v>
+        <v>111492233</v>
       </c>
       <c r="B106" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12414,25 +12427,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12455,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526721.4037833994</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R106" t="n">
-        <v>7126986.969393951</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12514,10 +12527,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480379</v>
+        <v>111480334</v>
       </c>
       <c r="B107" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12526,25 +12539,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12567,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526799.075599193</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R107" t="n">
-        <v>7126712.93839974</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12626,10 +12639,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492231</v>
+        <v>111480333</v>
       </c>
       <c r="B108" t="n">
-        <v>78605</v>
+        <v>78612</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12642,21 +12655,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12666,10 +12679,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526761.6090650371</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R108" t="n">
-        <v>7126817.368890626</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12726,19 +12739,19 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111492248</v>
+        <v>111480504</v>
       </c>
       <c r="B109" t="n">
         <v>78611</v>
@@ -12778,10 +12791,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526777.8204396158</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R109" t="n">
-        <v>7126804.904414805</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12838,22 +12851,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492225</v>
+        <v>111492245</v>
       </c>
       <c r="B110" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12866,21 +12879,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12890,10 +12903,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526609.6312623346</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R110" t="n">
-        <v>7126978.613118013</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12962,10 +12975,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111480441</v>
+        <v>111480522</v>
       </c>
       <c r="B111" t="n">
-        <v>77515</v>
+        <v>76495</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12978,21 +12991,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13002,10 +13015,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526594.1567224554</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R111" t="n">
-        <v>7126855.473320428</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13074,10 +13087,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111492242</v>
+        <v>111480527</v>
       </c>
       <c r="B112" t="n">
-        <v>89423</v>
+        <v>76918</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13090,21 +13103,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5432</v>
+        <v>6437</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13114,10 +13127,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526774.0510519799</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R112" t="n">
-        <v>7126787.919595245</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13174,22 +13187,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111492232</v>
+        <v>111480495</v>
       </c>
       <c r="B113" t="n">
-        <v>78579</v>
+        <v>85715</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13202,21 +13215,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2081</v>
+        <v>510</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13226,10 +13239,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526602.6161355394</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R113" t="n">
-        <v>7126984.637523879</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13286,22 +13299,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111492240</v>
+        <v>111492232</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13310,50 +13323,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526812.9225573848</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R114" t="n">
-        <v>7126722.187129569</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13404,7 +13405,6 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13416,17 +13416,17 @@
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111492237</v>
+        <v>111492246</v>
       </c>
       <c r="B115" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13439,21 +13439,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13463,10 +13463,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526801.6271560494</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R115" t="n">
-        <v>7126819.89004916</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492234</v>
+        <v>111492238</v>
       </c>
       <c r="B116" t="n">
         <v>78578</v>
@@ -13575,10 +13575,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526575.169212656</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R116" t="n">
-        <v>7127341.220564325</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111480500</v>
+        <v>111480505</v>
       </c>
       <c r="B117" t="n">
         <v>78611</v>
@@ -13687,10 +13687,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526549.4044071162</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R117" t="n">
-        <v>7126846.828840361</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13759,10 +13759,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111492224</v>
+        <v>111480483</v>
       </c>
       <c r="B118" t="n">
-        <v>73696</v>
+        <v>88899</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13775,21 +13775,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6440</v>
+        <v>3286</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13799,10 +13799,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526596.6363403485</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R118" t="n">
-        <v>7127072.382200824</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13859,22 +13859,22 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492235</v>
+        <v>111480382</v>
       </c>
       <c r="B119" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13883,25 +13883,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13911,10 +13911,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526385.5844560881</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R119" t="n">
-        <v>7127223.552981463</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13971,22 +13971,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492228</v>
+        <v>111492237</v>
       </c>
       <c r="B120" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13999,21 +13999,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14023,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526910.4891168335</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R120" t="n">
-        <v>7126763.462551801</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14095,10 +14095,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492241</v>
+        <v>111492225</v>
       </c>
       <c r="B121" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14111,21 +14111,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14135,10 +14135,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526475.7192807253</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R121" t="n">
-        <v>7127216.937948915</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111480286</v>
+        <v>111492234</v>
       </c>
       <c r="B122" t="n">
         <v>78578</v>
@@ -14247,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526772.4066721974</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R122" t="n">
-        <v>7126676.627914459</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14307,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111492222</v>
+        <v>111492236</v>
       </c>
       <c r="B123" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14335,21 +14335,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526598.1368079525</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R123" t="n">
-        <v>7127100.211284383</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14424,14 +14424,14 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492226</v>
+        <v>111492224</v>
       </c>
       <c r="B124" t="n">
         <v>73696</v>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526770.3722498151</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R124" t="n">
-        <v>7126760.503332262</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492221</v>
+        <v>111492218</v>
       </c>
       <c r="B125" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14559,21 +14559,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526603.5760295368</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R125" t="n">
-        <v>7127125.466399673</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492218</v>
+        <v>111492230</v>
       </c>
       <c r="B126" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14667,25 +14667,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526596.6363403485</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R126" t="n">
-        <v>7127072.382200824</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14760,17 +14760,17 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480025</v>
+        <v>111480113</v>
       </c>
       <c r="B127" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14783,34 +14783,42 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526450.6922041279</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R127" t="n">
-        <v>7127141.534820292</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14879,10 +14887,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480105</v>
+        <v>111480181</v>
       </c>
       <c r="B128" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14895,42 +14903,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526531.3727349282</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R128" t="n">
-        <v>7127323.459366731</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14999,10 +14999,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480206</v>
+        <v>111480180</v>
       </c>
       <c r="B129" t="n">
-        <v>78512</v>
+        <v>78579</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15011,25 +15011,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15039,10 +15039,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526454.4890384678</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R129" t="n">
-        <v>7127155.475193184</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15111,10 +15111,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480117</v>
+        <v>111480130</v>
       </c>
       <c r="B130" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15127,42 +15127,34 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526664.107749017</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R130" t="n">
-        <v>7126869.117634357</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15231,10 +15223,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480170</v>
+        <v>111480061</v>
       </c>
       <c r="B131" t="n">
-        <v>78579</v>
+        <v>78107</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15247,21 +15239,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2081</v>
+        <v>6453</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15271,10 +15263,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526494.5189215972</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R131" t="n">
-        <v>7127307.931379622</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15336,17 +15328,17 @@
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480067</v>
+        <v>111480032</v>
       </c>
       <c r="B132" t="n">
-        <v>89405</v>
+        <v>76513</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15359,21 +15351,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1202</v>
+        <v>314</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15383,10 +15375,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526618.0915837138</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R132" t="n">
-        <v>7126855.679999291</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15455,7 +15447,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480116</v>
+        <v>111480106</v>
       </c>
       <c r="B133" t="n">
         <v>56398</v>
@@ -15503,10 +15495,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526641.1372953646</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R133" t="n">
-        <v>7126858.052473077</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15575,10 +15567,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480209</v>
+        <v>111480115</v>
       </c>
       <c r="B134" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15587,38 +15579,46 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526894.4742524296</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R134" t="n">
-        <v>7126753.32522574</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15687,10 +15687,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480180</v>
+        <v>111480067</v>
       </c>
       <c r="B135" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15703,21 +15703,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -15727,10 +15727,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526736.9612626054</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R135" t="n">
-        <v>7126648.50018348</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480175</v>
+        <v>111480172</v>
       </c>
       <c r="B136" t="n">
         <v>78579</v>
@@ -15839,10 +15839,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526533.0795019253</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R136" t="n">
-        <v>7127327.385405498</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15911,10 +15911,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480106</v>
+        <v>111480176</v>
       </c>
       <c r="B137" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15927,42 +15927,34 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526452.5306142806</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R137" t="n">
-        <v>7127231.515399783</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16031,7 +16023,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480118</v>
+        <v>111480116</v>
       </c>
       <c r="B138" t="n">
         <v>56398</v>
@@ -16079,10 +16071,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526775.4342201974</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R138" t="n">
-        <v>7126678.827645465</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16151,10 +16143,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480130</v>
+        <v>111480117</v>
       </c>
       <c r="B139" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16167,34 +16159,42 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526894.4666650819</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R139" t="n">
-        <v>7126754.194508768</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480181</v>
+        <v>111480177</v>
       </c>
       <c r="B140" t="n">
         <v>78579</v>
@@ -16303,10 +16303,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526762.5781673936</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R140" t="n">
-        <v>7126655.677579562</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480115</v>
+        <v>111480118</v>
       </c>
       <c r="B141" t="n">
         <v>56398</v>
@@ -16423,10 +16423,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526582.5118723252</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R141" t="n">
-        <v>7126843.202344363</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16495,10 +16495,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480061</v>
+        <v>111480169</v>
       </c>
       <c r="B142" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16511,21 +16511,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16535,10 +16535,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526549.2920565202</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R142" t="n">
-        <v>7126859.867662492</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16600,17 +16600,17 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480177</v>
+        <v>111480209</v>
       </c>
       <c r="B143" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16619,25 +16619,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16647,10 +16647,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526546.2907408345</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R143" t="n">
-        <v>7126854.625893313</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16719,10 +16719,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480172</v>
+        <v>111480208</v>
       </c>
       <c r="B144" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16731,25 +16731,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -16759,10 +16759,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526660.4581602761</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R144" t="n">
-        <v>7126838.225198075</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111477156</v>
+        <v>111475411</v>
       </c>
       <c r="B2" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526783.9659439438</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R2" t="n">
-        <v>7126798.872483394</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111475427</v>
+        <v>111477267</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526432.8127084307</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R3" t="n">
-        <v>7127044.459845332</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111478259</v>
+        <v>111477263</v>
       </c>
       <c r="B4" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526622.093687591</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R4" t="n">
-        <v>7126946.557083774</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477267</v>
+        <v>111477236</v>
       </c>
       <c r="B5" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526776.5518203602</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R5" t="n">
-        <v>7126750.55952362</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477261</v>
+        <v>111475405</v>
       </c>
       <c r="B6" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526719.7991456056</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R6" t="n">
-        <v>7126870.904059933</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477276</v>
+        <v>111475396</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1274,19 +1274,27 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526638.6946075994</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R7" t="n">
-        <v>7126888.892006672</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1340,22 +1348,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477287</v>
+        <v>111477154</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,41 +1372,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526770.2400840909</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R8" t="n">
-        <v>7126775.715713345</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1460,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111477249</v>
+        <v>111481777</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1488,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526737.8549399736</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R9" t="n">
-        <v>7126796.298664714</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1564,22 +1580,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111477246</v>
+        <v>111481791</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1608,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1632,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526794.8191702637</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R10" t="n">
-        <v>7126802.009519467</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1676,19 +1692,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111481791</v>
+        <v>111481792</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1728,10 +1744,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526766.8104247742</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R11" t="n">
-        <v>7126719.612825709</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,7 +1816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111477263</v>
+        <v>111477264</v>
       </c>
       <c r="B12" t="n">
         <v>73696</v>
@@ -1840,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526733.557377478</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R12" t="n">
-        <v>7126840.16255208</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1912,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111475419</v>
+        <v>111475400</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1940,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526750.3609286405</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R13" t="n">
-        <v>7126759.460191521</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111475401</v>
+        <v>111475424</v>
       </c>
       <c r="B14" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2052,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526359.6403407991</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R14" t="n">
-        <v>7127153.358349039</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477241</v>
+        <v>111475423</v>
       </c>
       <c r="B15" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,37 +2168,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526633.8889021962</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R15" t="n">
-        <v>7126891.023735311</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2236,22 +2252,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111475411</v>
+        <v>111481778</v>
       </c>
       <c r="B16" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,37 +2280,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526633.8626035146</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R16" t="n">
-        <v>7126894.066088703</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2348,22 +2372,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111475398</v>
+        <v>111481788</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,45 +2400,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526795.3655874674</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R17" t="n">
-        <v>7126589.019822755</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2468,22 +2484,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111477271</v>
+        <v>111477250</v>
       </c>
       <c r="B18" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2496,21 +2512,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2536,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526709.7900707464</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R18" t="n">
-        <v>7126870.817277474</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2592,10 +2608,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481789</v>
+        <v>111475402</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2604,41 +2620,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526710.6246283256</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R19" t="n">
-        <v>7126824.750457344</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2692,22 +2708,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111475409</v>
+        <v>111475412</v>
       </c>
       <c r="B20" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2716,25 +2732,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2744,10 +2760,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526801.3654488353</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R20" t="n">
-        <v>7126749.905904328</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2816,10 +2832,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111475430</v>
+        <v>111481780</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2828,41 +2844,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526904.464734747</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R21" t="n">
-        <v>7126755.585814431</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2916,22 +2932,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111477270</v>
+        <v>111481779</v>
       </c>
       <c r="B22" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2944,34 +2960,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526743.0583307605</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R22" t="n">
-        <v>7126798.517162403</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3028,22 +3052,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481795</v>
+        <v>111475429</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3056,37 +3080,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526578.1343758366</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R23" t="n">
-        <v>7126947.046857893</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3140,22 +3164,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481785</v>
+        <v>111477284</v>
       </c>
       <c r="B24" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3168,21 +3192,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3192,10 +3216,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526629.4958394679</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R24" t="n">
-        <v>7126895.766960836</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3252,22 +3276,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111481784</v>
+        <v>111477215</v>
       </c>
       <c r="B25" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3280,21 +3304,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3304,10 +3328,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526513.0667874835</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R25" t="n">
-        <v>7127276.365312753</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3364,22 +3388,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111477149</v>
+        <v>111477246</v>
       </c>
       <c r="B26" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3392,40 +3416,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526773.3997162007</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R26" t="n">
-        <v>7126762.703002418</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3473,29 +3494,28 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477150</v>
+        <v>111477155</v>
       </c>
       <c r="B27" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3508,21 +3528,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526575.9457110572</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R27" t="n">
-        <v>7127352.092021598</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3604,10 +3624,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481790</v>
+        <v>111477148</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>103273</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3616,41 +3636,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>221725</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526748.151006726</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R28" t="n">
-        <v>7126763.35306516</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3704,22 +3724,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111475396</v>
+        <v>111481793</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>78612</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3728,49 +3748,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526760.8615308162</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R29" t="n">
-        <v>7126552.639882971</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3824,22 +3836,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111475418</v>
+        <v>111481781</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3848,41 +3860,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526641.5754754087</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R30" t="n">
-        <v>7126908.041672549</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3936,19 +3948,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111475421</v>
+        <v>111477282</v>
       </c>
       <c r="B31" t="n">
         <v>78578</v>
@@ -3984,17 +3996,17 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526790.5782004726</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R31" t="n">
-        <v>7126588.978197531</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4048,19 +4060,19 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477278</v>
+        <v>111477238</v>
       </c>
       <c r="B32" t="n">
         <v>96368</v>
@@ -4172,10 +4184,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111481792</v>
+        <v>111477261</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>76513</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4188,21 +4200,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>314</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4212,10 +4224,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526807.5942992838</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R33" t="n">
-        <v>7126734.31175267</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4272,19 +4284,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475428</v>
+        <v>111477247</v>
       </c>
       <c r="B34" t="n">
         <v>77515</v>
@@ -4320,17 +4332,17 @@
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526818.0723325044</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R34" t="n">
-        <v>7126530.532625454</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4384,22 +4396,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111475429</v>
+        <v>111478260</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,38 +4420,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526801.3654488353</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R35" t="n">
-        <v>7126749.905904328</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4496,22 +4508,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111475408</v>
+        <v>111477234</v>
       </c>
       <c r="B36" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4520,41 +4532,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526807.9596872492</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R36" t="n">
-        <v>7126492.190286946</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4608,22 +4620,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477197</v>
+        <v>111477262</v>
       </c>
       <c r="B37" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4636,21 +4648,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4660,10 +4672,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526618.6342781226</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R37" t="n">
-        <v>7127447.634256044</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4732,10 +4744,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111477217</v>
+        <v>111475407</v>
       </c>
       <c r="B38" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4744,41 +4756,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526756.4007905088</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R38" t="n">
-        <v>7126765.59805485</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4832,19 +4844,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111477152</v>
+        <v>111475418</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -4880,14 +4892,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526790.9213834098</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R39" t="n">
-        <v>7126799.80228779</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4944,22 +4956,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475420</v>
+        <v>111475404</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4968,25 +4980,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4996,10 +5008,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526782.4503789117</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R40" t="n">
-        <v>7126672.803025675</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5068,10 +5080,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111475405</v>
+        <v>111481795</v>
       </c>
       <c r="B41" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5080,41 +5092,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526402.8306512056</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R41" t="n">
-        <v>7127140.689653471</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5168,22 +5180,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481777</v>
+        <v>111477151</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5196,45 +5208,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526576.6359760575</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R42" t="n">
-        <v>7127372.958205946</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5288,22 +5292,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111475407</v>
+        <v>111477203</v>
       </c>
       <c r="B43" t="n">
-        <v>96368</v>
+        <v>76513</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5312,41 +5316,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221952</v>
+        <v>314</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526761.6737779978</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R43" t="n">
-        <v>7126659.581915028</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5400,22 +5404,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111478258</v>
+        <v>111475422</v>
       </c>
       <c r="B44" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5424,38 +5428,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526486.4442992809</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R44" t="n">
-        <v>7127234.849028585</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5512,22 +5516,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111477247</v>
+        <v>111475415</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5540,37 +5544,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526791.4164464728</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R45" t="n">
-        <v>7126742.86457725</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5624,22 +5628,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481796</v>
+        <v>111481790</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5652,21 +5656,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5676,10 +5680,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526608.5136703107</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R46" t="n">
-        <v>7126906.452016207</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5748,10 +5752,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111481779</v>
+        <v>111477153</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5764,45 +5768,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526741.1907235509</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R47" t="n">
-        <v>7126863.265793501</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5856,19 +5852,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111481787</v>
+        <v>111477152</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5904,17 +5900,17 @@
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526745.1073277664</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R48" t="n">
-        <v>7126863.299787878</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5968,22 +5964,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111481797</v>
+        <v>111477269</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5996,21 +5992,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6020,10 +6016,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526724.4788811355</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R49" t="n">
-        <v>7126833.129197065</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6080,22 +6076,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477228</v>
+        <v>111477256</v>
       </c>
       <c r="B50" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6108,21 +6104,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6132,10 +6128,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526734.8568705021</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R50" t="n">
-        <v>7126891.028866394</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6204,10 +6200,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111477268</v>
+        <v>111475419</v>
       </c>
       <c r="B51" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6220,37 +6216,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526783.5980437086</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R51" t="n">
-        <v>7126741.057903775</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6304,19 +6300,19 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111475399</v>
+        <v>111475398</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6364,10 +6360,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526448.7861015323</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R52" t="n">
-        <v>7127211.491299792</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6436,10 +6432,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111481781</v>
+        <v>111475420</v>
       </c>
       <c r="B53" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6448,41 +6444,41 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526703.4301487049</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R53" t="n">
-        <v>7126901.622689946</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6536,22 +6532,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111475400</v>
+        <v>111481794</v>
       </c>
       <c r="B54" t="n">
-        <v>78605</v>
+        <v>78612</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6564,37 +6560,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526334.1646390257</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R54" t="n">
-        <v>7127180.955839636</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6648,22 +6644,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111475423</v>
+        <v>111477232</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6676,37 +6672,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526627.7975810008</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R55" t="n">
-        <v>7127444.671415905</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6760,22 +6756,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111475395</v>
+        <v>111477271</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6788,45 +6784,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526541.4140344799</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R56" t="n">
-        <v>7127319.634518873</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6880,22 +6868,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111475404</v>
+        <v>111475417</v>
       </c>
       <c r="B57" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6904,25 +6892,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6932,10 +6920,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526536.8261819695</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R57" t="n">
-        <v>7127296.56142472</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7004,10 +6992,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111477273</v>
+        <v>111475409</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7016,41 +7004,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526843.7421112995</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R58" t="n">
-        <v>7126731.583709671</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7104,22 +7092,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111477282</v>
+        <v>111475401</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7128,41 +7116,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526753.3544461714</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R59" t="n">
-        <v>7126765.571603379</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7216,22 +7204,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111481794</v>
+        <v>111475421</v>
       </c>
       <c r="B60" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7240,41 +7228,41 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526759.9373603656</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R60" t="n">
-        <v>7126859.516619125</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7328,22 +7316,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475424</v>
+        <v>111478257</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7352,38 +7340,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526562.7125770835</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R61" t="n">
-        <v>7127372.838116477</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7440,22 +7428,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111477153</v>
+        <v>111477149</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7468,34 +7456,37 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526793.9223398847</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R62" t="n">
-        <v>7126805.044392107</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7546,6 +7537,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7564,10 +7556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111477262</v>
+        <v>111481785</v>
       </c>
       <c r="B63" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7580,21 +7572,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7604,10 +7596,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526874.3871010491</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R63" t="n">
-        <v>7126760.97409881</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7664,22 +7656,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111475412</v>
+        <v>111481787</v>
       </c>
       <c r="B64" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7692,37 +7684,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526788.4021154585</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R64" t="n">
-        <v>7126588.959279429</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7776,22 +7768,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111475415</v>
+        <v>111477230</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7804,37 +7796,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526334.1646390257</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R65" t="n">
-        <v>7127180.955839636</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7888,22 +7880,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111477203</v>
+        <v>111477279</v>
       </c>
       <c r="B66" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7916,21 +7908,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7940,10 +7932,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526589.7304216913</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R66" t="n">
-        <v>7127368.290746101</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -8012,10 +8004,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111475402</v>
+        <v>111475425</v>
       </c>
       <c r="B67" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8024,25 +8016,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8052,10 +8044,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526628.5804176665</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R67" t="n">
-        <v>7126900.974891847</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8124,10 +8116,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111475417</v>
+        <v>111475395</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8140,34 +8132,42 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526628.5804176665</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R68" t="n">
-        <v>7126900.974891847</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8236,10 +8236,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111475422</v>
+        <v>111475428</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8252,21 +8252,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8276,10 +8276,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526830.8338072833</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R69" t="n">
-        <v>7126714.5188105</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111477236</v>
+        <v>111478259</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8360,25 +8360,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8388,13 +8388,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526643.3394980798</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R70" t="n">
-        <v>7126855.0288987</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S70" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8448,22 +8448,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111481780</v>
+        <v>111475430</v>
       </c>
       <c r="B71" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8472,41 +8472,41 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526629.4958394679</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R71" t="n">
-        <v>7126895.766960836</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8560,22 +8560,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111477155</v>
+        <v>111475399</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8588,34 +8588,42 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526757.7867624827</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R72" t="n">
-        <v>7126806.469043032</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8672,22 +8680,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111477154</v>
+        <v>111478258</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8696,38 +8704,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526784.7834235848</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R73" t="n">
-        <v>7126804.964935203</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8784,22 +8792,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111477148</v>
+        <v>111477150</v>
       </c>
       <c r="B74" t="n">
-        <v>103273</v>
+        <v>73696</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8808,25 +8816,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221725</v>
+        <v>6440</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8836,10 +8844,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526681.1812848106</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R74" t="n">
-        <v>7126857.529652008</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8908,10 +8916,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111478260</v>
+        <v>111481797</v>
       </c>
       <c r="B75" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8920,25 +8928,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8948,13 +8956,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526746.6216685539</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R75" t="n">
-        <v>7126889.392351454</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9008,22 +9016,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111478257</v>
+        <v>111481784</v>
       </c>
       <c r="B76" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9032,25 +9040,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9060,13 +9068,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526504.6649119424</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R76" t="n">
-        <v>7127291.938577281</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9120,22 +9128,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111481793</v>
+        <v>111475406</v>
       </c>
       <c r="B77" t="n">
-        <v>78612</v>
+        <v>96368</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9148,37 +9156,37 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526742.0271302022</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R77" t="n">
-        <v>7126867.184979456</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S77" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9232,19 +9240,19 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111475425</v>
+        <v>111481796</v>
       </c>
       <c r="B78" t="n">
         <v>77515</v>
@@ -9280,17 +9288,17 @@
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526350.4355532593</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R78" t="n">
-        <v>7127161.102700913</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9344,22 +9352,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111477151</v>
+        <v>111477156</v>
       </c>
       <c r="B79" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9368,25 +9376,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9396,10 +9404,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526778.943100647</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R79" t="n">
-        <v>7126725.803744309</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9468,10 +9476,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111475406</v>
+        <v>111475427</v>
       </c>
       <c r="B80" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9480,25 +9488,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9508,10 +9516,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526628.8057909949</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R80" t="n">
-        <v>7126874.89753825</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9580,10 +9588,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111481778</v>
+        <v>111475408</v>
       </c>
       <c r="B81" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9592,49 +9600,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526632.5946496209</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R81" t="n">
-        <v>7126889.708583741</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,19 +9688,19 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492248</v>
+        <v>111480504</v>
       </c>
       <c r="B82" t="n">
         <v>78611</v>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526777.8204396158</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R82" t="n">
-        <v>7126804.904414805</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492243</v>
+        <v>111480328</v>
       </c>
       <c r="B83" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9828,21 +9828,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526790.3722218492</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R83" t="n">
-        <v>7126762.850523639</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9906,28 +9906,29 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480390</v>
+        <v>111480482</v>
       </c>
       <c r="B84" t="n">
-        <v>89401</v>
+        <v>88899</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9940,21 +9941,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1108</v>
+        <v>3286</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9964,10 +9965,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526658.5471790246</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R84" t="n">
-        <v>7126908.188469252</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10037,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480503</v>
+        <v>111480379</v>
       </c>
       <c r="B85" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10048,25 +10049,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10077,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526894.459077736</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R85" t="n">
-        <v>7126755.063791552</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10148,10 +10149,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480378</v>
+        <v>111480420</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,25 +10161,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10188,10 +10189,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526749.2830160656</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R86" t="n">
-        <v>7126783.357779803</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10260,10 +10261,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492222</v>
+        <v>111492237</v>
       </c>
       <c r="B87" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10276,21 +10277,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10301,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526598.1368079525</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R87" t="n">
-        <v>7127100.211284383</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10365,17 +10366,17 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492247</v>
+        <v>111480440</v>
       </c>
       <c r="B88" t="n">
-        <v>78467</v>
+        <v>77515</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10384,25 +10385,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6457</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10413,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526777.8204396158</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R88" t="n">
-        <v>7126804.904414805</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10472,22 +10473,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492240</v>
+        <v>111492247</v>
       </c>
       <c r="B89" t="n">
-        <v>96348</v>
+        <v>78467</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10496,50 +10497,38 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>220787</v>
+        <v>6457</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+          <t>(Wallr.) Otálora et al.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526812.9225573848</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R89" t="n">
-        <v>7126722.187129569</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10590,7 +10579,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10602,17 +10590,17 @@
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492231</v>
+        <v>111492218</v>
       </c>
       <c r="B90" t="n">
-        <v>78605</v>
+        <v>76513</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10621,25 +10609,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6462</v>
+        <v>314</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10649,10 +10637,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526761.6090650371</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R90" t="n">
-        <v>7126817.368890626</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10714,17 +10702,17 @@
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480422</v>
+        <v>111492240</v>
       </c>
       <c r="B91" t="n">
-        <v>89423</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10733,38 +10721,50 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526825.2556783153</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R91" t="n">
-        <v>7126705.341951311</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10815,28 +10815,29 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492221</v>
+        <v>111492243</v>
       </c>
       <c r="B92" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10849,21 +10850,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10873,10 +10874,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526603.5760295368</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R92" t="n">
-        <v>7127125.466399673</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10938,17 +10939,17 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480286</v>
+        <v>111480494</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10961,21 +10962,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10985,10 +10986,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526772.4066721974</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R93" t="n">
-        <v>7126676.627914459</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11057,7 +11058,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480506</v>
+        <v>111480503</v>
       </c>
       <c r="B94" t="n">
         <v>78611</v>
@@ -11097,10 +11098,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526737.8241366684</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R94" t="n">
-        <v>7126649.377048474</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11169,10 +11170,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111492228</v>
+        <v>111492230</v>
       </c>
       <c r="B95" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11181,25 +11182,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11209,10 +11210,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526910.4891168335</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R95" t="n">
-        <v>7126763.462551801</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11281,10 +11282,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111492235</v>
+        <v>111480389</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11297,21 +11298,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11321,10 +11322,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526385.5844560881</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R96" t="n">
-        <v>7127223.552981463</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11381,19 +11382,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480329</v>
+        <v>111480288</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11433,10 +11434,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526797.7359805232</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R97" t="n">
-        <v>7126716.838867592</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11487,7 +11488,6 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111492226</v>
+        <v>111492225</v>
       </c>
       <c r="B98" t="n">
         <v>73696</v>
@@ -11546,10 +11546,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526770.3722498151</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R98" t="n">
-        <v>7126760.503332262</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11730,10 +11730,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492249</v>
+        <v>111492236</v>
       </c>
       <c r="B100" t="n">
-        <v>89793</v>
+        <v>78578</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11742,25 +11742,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4217</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526847.6058643057</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R100" t="n">
-        <v>7126737.702852693</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492239</v>
+        <v>111480334</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11854,50 +11854,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526801.7821608522</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R101" t="n">
-        <v>7126802.070078265</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11948,29 +11936,28 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
-      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480440</v>
+        <v>111480331</v>
       </c>
       <c r="B102" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11979,25 +11966,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12007,10 +11994,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526594.1567224554</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R102" t="n">
-        <v>7126855.473320428</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12079,10 +12066,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480260</v>
+        <v>111492235</v>
       </c>
       <c r="B103" t="n">
-        <v>95538</v>
+        <v>78578</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12091,25 +12078,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>221941</v>
+        <v>6458</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12119,10 +12106,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526443.6441876995</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R103" t="n">
-        <v>7127151.470534382</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12179,22 +12166,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480288</v>
+        <v>111492224</v>
       </c>
       <c r="B104" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12207,21 +12194,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12231,10 +12218,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526736.9537197551</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R104" t="n">
-        <v>7126649.369495919</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12291,22 +12278,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492241</v>
+        <v>111480289</v>
       </c>
       <c r="B105" t="n">
-        <v>89401</v>
+        <v>78578</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12319,21 +12306,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12343,10 +12330,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526475.7192807253</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R105" t="n">
-        <v>7127216.937948915</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12403,22 +12390,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492233</v>
+        <v>111480380</v>
       </c>
       <c r="B106" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12427,25 +12414,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12455,10 +12442,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526789.6416554189</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R106" t="n">
-        <v>7126746.761226696</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12515,22 +12502,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480334</v>
+        <v>111492234</v>
       </c>
       <c r="B107" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12539,25 +12526,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12567,10 +12554,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526894.459077736</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R107" t="n">
-        <v>7126755.063791552</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12627,22 +12614,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111480333</v>
+        <v>111492233</v>
       </c>
       <c r="B108" t="n">
-        <v>78612</v>
+        <v>78512</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12655,21 +12642,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6464</v>
+        <v>6456</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12679,10 +12666,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526734.811617541</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R108" t="n">
-        <v>7126645.438707692</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12739,19 +12726,19 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111480504</v>
+        <v>111480506</v>
       </c>
       <c r="B109" t="n">
         <v>78611</v>
@@ -12791,10 +12778,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526549.4044071162</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R109" t="n">
-        <v>7126846.828840361</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12863,10 +12850,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492245</v>
+        <v>111480527</v>
       </c>
       <c r="B110" t="n">
-        <v>77515</v>
+        <v>76918</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12879,21 +12866,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12903,10 +12890,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526603.415572185</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R110" t="n">
-        <v>7126841.644113425</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12963,22 +12950,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111480522</v>
+        <v>111492246</v>
       </c>
       <c r="B111" t="n">
-        <v>76495</v>
+        <v>77515</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12991,21 +12978,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13015,10 +13002,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526547.1610996595</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R111" t="n">
-        <v>7126854.633392128</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13075,22 +13062,22 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111480527</v>
+        <v>111492248</v>
       </c>
       <c r="B112" t="n">
-        <v>76918</v>
+        <v>78611</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13099,25 +13086,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6437</v>
+        <v>6463</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13127,10 +13114,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526547.1610996595</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R112" t="n">
-        <v>7126854.633392128</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13187,22 +13174,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111480495</v>
+        <v>111480501</v>
       </c>
       <c r="B113" t="n">
-        <v>85715</v>
+        <v>78611</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13211,25 +13198,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>510</v>
+        <v>6463</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13239,10 +13226,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526532.2429613075</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R113" t="n">
-        <v>7127323.466861598</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13311,10 +13298,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111492232</v>
+        <v>111480522</v>
       </c>
       <c r="B114" t="n">
-        <v>78579</v>
+        <v>76495</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13327,21 +13314,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2081</v>
+        <v>6487</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13351,10 +13338,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526602.6161355394</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R114" t="n">
-        <v>7126984.637523879</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13411,22 +13398,22 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111492246</v>
+        <v>111492241</v>
       </c>
       <c r="B115" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13439,21 +13426,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13463,10 +13450,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526721.4037833994</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R115" t="n">
-        <v>7126986.969393951</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13535,10 +13522,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492238</v>
+        <v>111492231</v>
       </c>
       <c r="B116" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13547,25 +13534,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13575,10 +13562,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526774.8534470783</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R116" t="n">
-        <v>7126795.750608556</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13647,10 +13634,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111480505</v>
+        <v>111492226</v>
       </c>
       <c r="B117" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13659,25 +13646,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13687,10 +13674,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526660.4581602761</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R117" t="n">
-        <v>7126838.225198075</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13747,22 +13734,22 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111480483</v>
+        <v>111492232</v>
       </c>
       <c r="B118" t="n">
-        <v>88899</v>
+        <v>78579</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13775,21 +13762,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3286</v>
+        <v>2081</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13799,10 +13786,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526688.4566125805</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R118" t="n">
-        <v>7126821.515715363</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13859,19 +13846,19 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111480382</v>
+        <v>111492239</v>
       </c>
       <c r="B119" t="n">
         <v>96348</v>
@@ -13904,17 +13891,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526799.075599193</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R119" t="n">
-        <v>7126712.93839974</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13965,28 +13964,29 @@
       <c r="AE119" t="b">
         <v>0</v>
       </c>
+      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492237</v>
+        <v>111492221</v>
       </c>
       <c r="B120" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13999,21 +13999,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14023,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526801.6271560494</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R120" t="n">
-        <v>7126819.89004916</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14088,17 +14088,17 @@
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492225</v>
+        <v>111492238</v>
       </c>
       <c r="B121" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14111,21 +14111,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14135,10 +14135,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526609.6312623346</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R121" t="n">
-        <v>7126978.613118013</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14207,10 +14207,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111492234</v>
+        <v>111492228</v>
       </c>
       <c r="B122" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14223,21 +14223,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526575.169212656</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R122" t="n">
-        <v>7127341.220564325</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14319,10 +14319,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111492236</v>
+        <v>111480259</v>
       </c>
       <c r="B123" t="n">
-        <v>78578</v>
+        <v>95538</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14331,25 +14331,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6458</v>
+        <v>221941</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526602.6161355394</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R123" t="n">
-        <v>7126984.637523879</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14419,22 +14419,22 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492224</v>
+        <v>111492245</v>
       </c>
       <c r="B124" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14447,21 +14447,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526596.6363403485</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R124" t="n">
-        <v>7127072.382200824</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492218</v>
+        <v>111492222</v>
       </c>
       <c r="B125" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14559,21 +14559,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526596.6363403485</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R125" t="n">
-        <v>7127072.382200824</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492230</v>
+        <v>111492249</v>
       </c>
       <c r="B126" t="n">
-        <v>78605</v>
+        <v>89793</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14671,21 +14671,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6462</v>
+        <v>4217</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526575.169212656</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R126" t="n">
-        <v>7127341.220564325</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480181</v>
+        <v>111480179</v>
       </c>
       <c r="B128" t="n">
         <v>78579</v>
@@ -14927,10 +14927,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526762.5781673936</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R128" t="n">
-        <v>7126655.677579562</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -15111,10 +15111,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480130</v>
+        <v>111480061</v>
       </c>
       <c r="B130" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15127,21 +15127,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526894.4666650819</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R130" t="n">
-        <v>7126754.194508768</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15216,17 +15216,17 @@
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480061</v>
+        <v>111480176</v>
       </c>
       <c r="B131" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15239,21 +15239,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15263,10 +15263,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526549.2920565202</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R131" t="n">
-        <v>7126859.867662492</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15328,17 +15328,17 @@
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480032</v>
+        <v>111480181</v>
       </c>
       <c r="B132" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15351,21 +15351,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15375,10 +15375,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526450.6922041279</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R132" t="n">
-        <v>7127141.534820292</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15447,7 +15447,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480106</v>
+        <v>111480116</v>
       </c>
       <c r="B133" t="n">
         <v>56398</v>
@@ -15495,10 +15495,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526452.5306142806</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R133" t="n">
-        <v>7127231.515399783</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15567,10 +15567,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480115</v>
+        <v>111480169</v>
       </c>
       <c r="B134" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15583,42 +15583,34 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526582.5118723252</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R134" t="n">
-        <v>7126843.202344363</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15687,10 +15679,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480067</v>
+        <v>111480208</v>
       </c>
       <c r="B135" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15699,25 +15691,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -15727,10 +15719,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526618.0915837138</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R135" t="n">
-        <v>7126855.679999291</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15799,10 +15791,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480172</v>
+        <v>111480067</v>
       </c>
       <c r="B136" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15815,21 +15807,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15839,10 +15831,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526660.4581602761</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R136" t="n">
-        <v>7126838.225198075</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15911,10 +15903,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480176</v>
+        <v>111480111</v>
       </c>
       <c r="B137" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15927,34 +15919,42 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526494.5189215972</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R137" t="n">
-        <v>7127307.931379622</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16023,10 +16023,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480116</v>
+        <v>111480032</v>
       </c>
       <c r="B138" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16039,42 +16039,34 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526641.1372953646</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R138" t="n">
-        <v>7126858.052473077</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16263,10 +16255,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480177</v>
+        <v>111480207</v>
       </c>
       <c r="B140" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16275,25 +16267,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16303,10 +16295,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526546.2907408345</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R140" t="n">
-        <v>7126854.625893313</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16375,10 +16367,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480118</v>
+        <v>111480177</v>
       </c>
       <c r="B141" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16391,42 +16383,34 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526775.4342201974</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R141" t="n">
-        <v>7126678.827645465</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16495,10 +16479,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480169</v>
+        <v>111480130</v>
       </c>
       <c r="B142" t="n">
-        <v>78579</v>
+        <v>56543</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16511,21 +16495,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16535,10 +16519,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526533.0795019253</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R142" t="n">
-        <v>7127327.385405498</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16607,10 +16591,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480209</v>
+        <v>111480106</v>
       </c>
       <c r="B143" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16619,38 +16603,46 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526894.4742524296</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R143" t="n">
-        <v>7126753.32522574</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16719,10 +16711,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480208</v>
+        <v>111480115</v>
       </c>
       <c r="B144" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16731,38 +16723,46 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526454.4890384678</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R144" t="n">
-        <v>7127155.475193184</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111475411</v>
+        <v>111477264</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526633.8626035146</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R2" t="n">
-        <v>7126894.066088703</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,19 +780,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111477267</v>
+        <v>111477215</v>
       </c>
       <c r="B3" t="n">
         <v>73696</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526776.5518203602</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R3" t="n">
-        <v>7126750.55952362</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111477263</v>
+        <v>111477250</v>
       </c>
       <c r="B4" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526733.557377478</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R4" t="n">
-        <v>7126840.16255208</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477236</v>
+        <v>111477284</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526643.3394980798</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R5" t="n">
-        <v>7126855.0288987</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111475405</v>
+        <v>111477283</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526402.8306512056</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R6" t="n">
-        <v>7127140.689653471</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111475396</v>
+        <v>111477286</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,45 +1256,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526760.8615308162</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R7" t="n">
-        <v>7126552.639882971</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1348,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477154</v>
+        <v>111477230</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,41 +1364,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526784.7834235848</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R8" t="n">
-        <v>7126804.964935203</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1460,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481777</v>
+        <v>111478260</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,49 +1476,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526576.6359760575</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R9" t="n">
-        <v>7127372.958205946</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1580,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481791</v>
+        <v>111475423</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,37 +1592,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526766.8104247742</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R10" t="n">
-        <v>7126719.612825709</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1692,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111481792</v>
+        <v>111475402</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,41 +1700,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526807.5942992838</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R11" t="n">
-        <v>7126734.31175267</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1804,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111477264</v>
+        <v>111475408</v>
       </c>
       <c r="B12" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,41 +1812,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526756.4007905088</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R12" t="n">
-        <v>7126765.59805485</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1916,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111475400</v>
+        <v>111477148</v>
       </c>
       <c r="B13" t="n">
-        <v>78605</v>
+        <v>103273</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,34 +1928,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>221725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526334.1646390257</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R13" t="n">
-        <v>7127180.955839636</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2028,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111475424</v>
+        <v>111477220</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,37 +2040,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526562.7125770835</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R14" t="n">
-        <v>7127372.838116477</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2140,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111475423</v>
+        <v>111477236</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,37 +2152,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526627.7975810008</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R15" t="n">
-        <v>7127444.671415905</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2252,22 +2236,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111481778</v>
+        <v>111477150</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2280,45 +2264,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526632.5946496209</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R16" t="n">
-        <v>7126889.708583741</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2372,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111481788</v>
+        <v>111477209</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2400,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2424,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526710.6246283256</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R17" t="n">
-        <v>7126824.750457344</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2484,22 +2460,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111477250</v>
+        <v>111477241</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2536,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526770.2400840909</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R18" t="n">
-        <v>7126775.715713345</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2608,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111475402</v>
+        <v>111481778</v>
       </c>
       <c r="B19" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,41 +2596,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526628.5804176665</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R19" t="n">
-        <v>7126900.974891847</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2708,22 +2692,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111475412</v>
+        <v>111475396</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2736,34 +2720,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526788.4021154585</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R20" t="n">
-        <v>7126588.959279429</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2832,10 +2824,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111481780</v>
+        <v>111475404</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>96368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2848,37 +2840,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526629.4958394679</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R21" t="n">
-        <v>7126895.766960836</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2932,22 +2924,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111481779</v>
+        <v>111477278</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,46 +2948,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526741.1907235509</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R22" t="n">
-        <v>7126863.265793501</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3052,22 +3036,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111475429</v>
+        <v>111478259</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3076,38 +3060,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526801.3654488353</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R23" t="n">
-        <v>7126749.905904328</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3164,22 +3148,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111477284</v>
+        <v>111475398</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,37 +3176,45 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526737.8549399736</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R24" t="n">
-        <v>7126796.298664714</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3276,22 +3268,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111477215</v>
+        <v>111475400</v>
       </c>
       <c r="B25" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3300,41 +3292,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526783.5980437086</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R25" t="n">
-        <v>7126741.057903775</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3388,22 +3380,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111477246</v>
+        <v>111475401</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3412,41 +3404,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526794.8191702637</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R26" t="n">
-        <v>7126802.009519467</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3500,22 +3492,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477155</v>
+        <v>111477149</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,34 +3520,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526757.7867624827</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R27" t="n">
-        <v>7126806.469043032</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3606,6 +3601,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3624,10 +3620,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111477148</v>
+        <v>111477261</v>
       </c>
       <c r="B28" t="n">
-        <v>103273</v>
+        <v>76513</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3636,41 +3632,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221725</v>
+        <v>314</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526681.1812848106</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R28" t="n">
-        <v>7126857.529652008</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3724,22 +3720,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481793</v>
+        <v>111477256</v>
       </c>
       <c r="B29" t="n">
-        <v>78612</v>
+        <v>76513</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3748,25 +3744,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6464</v>
+        <v>314</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3776,10 +3772,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526742.0271302022</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R29" t="n">
-        <v>7126867.184979456</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3836,22 +3832,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111481781</v>
+        <v>111477244</v>
       </c>
       <c r="B30" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3860,25 +3856,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3888,10 +3884,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526703.4301487049</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R30" t="n">
-        <v>7126901.622689946</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3948,22 +3944,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477282</v>
+        <v>111475411</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3976,37 +3972,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526753.3544461714</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R31" t="n">
-        <v>7126765.571603379</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4060,22 +4056,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477238</v>
+        <v>111477267</v>
       </c>
       <c r="B32" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4084,25 +4080,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4112,10 +4108,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526711.8604537799</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R32" t="n">
-        <v>7126883.005616191</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4184,10 +4180,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111477261</v>
+        <v>111477273</v>
       </c>
       <c r="B33" t="n">
-        <v>76513</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4200,21 +4196,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>314</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4224,10 +4220,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526719.7991456056</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R33" t="n">
-        <v>7126870.904059933</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4296,10 +4292,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111477247</v>
+        <v>111481790</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,21 +4308,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4336,10 +4332,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526791.4164464728</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R34" t="n">
-        <v>7126742.86457725</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4396,22 +4392,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111478260</v>
+        <v>111481780</v>
       </c>
       <c r="B35" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,21 +4420,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4448,13 +4444,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526746.6216685539</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R35" t="n">
-        <v>7126889.392351454</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4508,22 +4504,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477234</v>
+        <v>111475407</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4532,41 +4528,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526638.6946075994</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R36" t="n">
-        <v>7126888.892006672</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4620,22 +4616,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477262</v>
+        <v>111475395</v>
       </c>
       <c r="B37" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4648,37 +4644,45 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526874.3871010491</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R37" t="n">
-        <v>7126760.97409881</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4732,22 +4736,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475407</v>
+        <v>111475425</v>
       </c>
       <c r="B38" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4756,25 +4760,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4784,10 +4788,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526761.6737779978</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R38" t="n">
-        <v>7126659.581915028</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4856,10 +4860,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475418</v>
+        <v>111481797</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4872,37 +4876,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526641.5754754087</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R39" t="n">
-        <v>7126908.041672549</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4956,22 +4960,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475404</v>
+        <v>111481777</v>
       </c>
       <c r="B40" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4980,41 +4984,49 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526536.8261819695</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R40" t="n">
-        <v>7127296.56142472</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5068,22 +5080,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111481795</v>
+        <v>111481779</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5096,34 +5108,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526578.1343758366</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R41" t="n">
-        <v>7126947.046857893</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5192,10 +5212,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111477151</v>
+        <v>111475412</v>
       </c>
       <c r="B42" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5208,34 +5228,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526778.943100647</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R42" t="n">
-        <v>7126725.803744309</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5292,22 +5312,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111477203</v>
+        <v>111475406</v>
       </c>
       <c r="B43" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5316,41 +5336,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526589.7304216913</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R43" t="n">
-        <v>7127368.290746101</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5404,22 +5424,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111475422</v>
+        <v>111477151</v>
       </c>
       <c r="B44" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5432,34 +5452,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526830.8338072833</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R44" t="n">
-        <v>7126714.5188105</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5516,22 +5536,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111475415</v>
+        <v>111477269</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5544,37 +5564,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526334.1646390257</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R45" t="n">
-        <v>7127180.955839636</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5628,22 +5648,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481790</v>
+        <v>111477203</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>76513</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5656,21 +5676,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>314</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5680,10 +5700,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526748.151006726</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R46" t="n">
-        <v>7126763.35306516</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5740,19 +5760,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111477153</v>
+        <v>111475418</v>
       </c>
       <c r="B47" t="n">
         <v>78578</v>
@@ -5788,14 +5808,14 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526793.9223398847</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R47" t="n">
-        <v>7126805.044392107</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5852,22 +5872,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111477152</v>
+        <v>111475405</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5876,38 +5896,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526790.9213834098</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R48" t="n">
-        <v>7126799.80228779</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5964,22 +5984,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111477269</v>
+        <v>111477154</v>
       </c>
       <c r="B49" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5988,41 +6008,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526734.8568705021</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R49" t="n">
-        <v>7126891.028866394</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6076,22 +6096,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477256</v>
+        <v>111477276</v>
       </c>
       <c r="B50" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6104,21 +6124,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6128,10 +6148,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526618.6342781226</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R50" t="n">
-        <v>7127447.634256044</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6200,10 +6220,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111475419</v>
+        <v>111475428</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6216,21 +6236,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6240,10 +6260,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526750.3609286405</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R51" t="n">
-        <v>7126759.460191521</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6312,10 +6332,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111475398</v>
+        <v>111477153</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6328,42 +6348,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526795.3655874674</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R52" t="n">
-        <v>7126589.019822755</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6420,22 +6432,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111475420</v>
+        <v>111477155</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6448,34 +6460,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526782.4503789117</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R53" t="n">
-        <v>7126672.803025675</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6532,22 +6544,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111481794</v>
+        <v>111477224</v>
       </c>
       <c r="B54" t="n">
-        <v>78612</v>
+        <v>73696</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6556,25 +6568,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6584,10 +6596,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526759.9373603656</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R54" t="n">
-        <v>7126859.516619125</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6644,22 +6656,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111477232</v>
+        <v>111481784</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6672,21 +6684,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6696,10 +6708,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526843.7421112995</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R55" t="n">
-        <v>7126731.583709671</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6756,22 +6768,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111477271</v>
+        <v>111481794</v>
       </c>
       <c r="B56" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6780,25 +6792,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6808,10 +6820,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526709.7900707464</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R56" t="n">
-        <v>7126870.817277474</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6868,22 +6880,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111475417</v>
+        <v>111481795</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6896,37 +6908,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526628.5804176665</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R57" t="n">
-        <v>7126900.974891847</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6980,22 +6992,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111475409</v>
+        <v>111481785</v>
       </c>
       <c r="B58" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7004,41 +7016,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526801.3654488353</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R58" t="n">
-        <v>7126749.905904328</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7092,22 +7104,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111475401</v>
+        <v>111481791</v>
       </c>
       <c r="B59" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7116,41 +7128,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526359.6403407991</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R59" t="n">
-        <v>7127153.358349039</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7204,22 +7216,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111475421</v>
+        <v>111478257</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7228,38 +7240,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526790.5782004726</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R60" t="n">
-        <v>7126588.978197531</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7316,22 +7328,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111478257</v>
+        <v>111475430</v>
       </c>
       <c r="B61" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7340,38 +7352,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526504.6649119424</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R61" t="n">
-        <v>7127291.938577281</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7428,22 +7440,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111477149</v>
+        <v>111481789</v>
       </c>
       <c r="B62" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7456,40 +7468,37 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526773.3997162007</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R62" t="n">
-        <v>7126762.703002418</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7537,29 +7546,28 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111481785</v>
+        <v>111475421</v>
       </c>
       <c r="B63" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7572,37 +7580,37 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526629.4958394679</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R63" t="n">
-        <v>7126895.766960836</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7656,22 +7664,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111481787</v>
+        <v>111475429</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7684,37 +7692,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526745.1073277664</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R64" t="n">
-        <v>7126863.299787878</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7768,22 +7776,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111477230</v>
+        <v>111475419</v>
       </c>
       <c r="B65" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7796,37 +7804,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526743.0583307605</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R65" t="n">
-        <v>7126798.517162403</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S65" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7880,22 +7888,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111477279</v>
+        <v>111475417</v>
       </c>
       <c r="B66" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7908,37 +7916,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526633.8889021962</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R66" t="n">
-        <v>7126891.023735311</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7992,22 +8000,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111475425</v>
+        <v>111481787</v>
       </c>
       <c r="B67" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8020,37 +8028,37 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526350.4355532593</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R67" t="n">
-        <v>7127161.102700913</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8104,22 +8112,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111475395</v>
+        <v>111481781</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8128,49 +8136,41 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526541.4140344799</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R68" t="n">
-        <v>7127319.634518873</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8224,19 +8224,19 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111475428</v>
+        <v>111475427</v>
       </c>
       <c r="B69" t="n">
         <v>77515</v>
@@ -8276,10 +8276,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526818.0723325044</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R69" t="n">
-        <v>7126530.532625454</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111478259</v>
+        <v>111475399</v>
       </c>
       <c r="B70" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8360,38 +8360,46 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526622.093687591</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R70" t="n">
-        <v>7126946.557083774</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8448,22 +8456,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475430</v>
+        <v>111475415</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8476,21 +8484,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8500,10 +8508,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526904.464734747</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R71" t="n">
-        <v>7126755.585814431</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8572,10 +8580,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111475399</v>
+        <v>111481792</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8588,45 +8596,37 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526448.7861015323</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R72" t="n">
-        <v>7127211.491299792</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8680,12 +8680,12 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111477150</v>
+        <v>111475420</v>
       </c>
       <c r="B74" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8820,34 +8820,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526575.9457110572</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R74" t="n">
-        <v>7127352.092021598</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8904,22 +8904,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111481797</v>
+        <v>111475409</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8928,41 +8928,41 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526724.4788811355</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R75" t="n">
-        <v>7126833.129197065</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9016,22 +9016,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111481784</v>
+        <v>111475422</v>
       </c>
       <c r="B76" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9044,37 +9044,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526513.0667874835</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R76" t="n">
-        <v>7127276.365312753</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9128,22 +9128,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475406</v>
+        <v>111475424</v>
       </c>
       <c r="B77" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9152,25 +9152,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9180,10 +9180,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526628.8057909949</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R77" t="n">
-        <v>7126874.89753825</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111481796</v>
+        <v>111477156</v>
       </c>
       <c r="B78" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9264,20 +9264,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -9288,17 +9288,17 @@
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526608.5136703107</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R78" t="n">
-        <v>7126906.452016207</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9352,22 +9352,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111477156</v>
+        <v>111477152</v>
       </c>
       <c r="B79" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9376,25 +9376,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9404,10 +9404,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526783.9659439438</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R79" t="n">
-        <v>7126798.872483394</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9476,10 +9476,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111475427</v>
+        <v>111481793</v>
       </c>
       <c r="B80" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9488,41 +9488,41 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526432.8127084307</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R80" t="n">
-        <v>7127044.459845332</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9576,22 +9576,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111475408</v>
+        <v>111481796</v>
       </c>
       <c r="B81" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9600,41 +9600,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526807.9596872492</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R81" t="n">
-        <v>7126492.190286946</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480504</v>
+        <v>111492234</v>
       </c>
       <c r="B82" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9712,25 +9712,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526549.4044071162</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R82" t="n">
-        <v>7126846.828840361</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111480328</v>
+        <v>111492247</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>78467</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9824,25 +9824,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526797.7359805232</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R83" t="n">
-        <v>7126716.838867592</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9906,29 +9906,28 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480482</v>
+        <v>111480331</v>
       </c>
       <c r="B84" t="n">
-        <v>88899</v>
+        <v>78612</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9937,25 +9936,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3286</v>
+        <v>6464</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9965,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526688.4566125805</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R84" t="n">
-        <v>7126821.515715363</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10037,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480379</v>
+        <v>111480440</v>
       </c>
       <c r="B85" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10049,25 +10048,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10077,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526799.075599193</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R85" t="n">
-        <v>7126712.93839974</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10149,7 +10148,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480420</v>
+        <v>111480422</v>
       </c>
       <c r="B86" t="n">
         <v>89423</v>
@@ -10261,10 +10260,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492237</v>
+        <v>111480525</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>76918</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10277,21 +10276,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>6437</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10301,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526801.6271560494</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R87" t="n">
-        <v>7126819.89004916</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10361,22 +10360,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480440</v>
+        <v>111480260</v>
       </c>
       <c r="B88" t="n">
-        <v>77515</v>
+        <v>95538</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10385,25 +10384,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10413,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526594.1567224554</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R88" t="n">
-        <v>7126855.473320428</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10485,10 +10484,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492247</v>
+        <v>111480494</v>
       </c>
       <c r="B89" t="n">
-        <v>78467</v>
+        <v>85715</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10497,25 +10496,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6457</v>
+        <v>510</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10525,10 +10524,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526777.8204396158</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R89" t="n">
-        <v>7126804.904414805</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10585,22 +10584,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492218</v>
+        <v>111480482</v>
       </c>
       <c r="B90" t="n">
-        <v>76513</v>
+        <v>88899</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10613,21 +10612,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>314</v>
+        <v>3286</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10637,10 +10636,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526596.6363403485</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R90" t="n">
-        <v>7127072.382200824</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10697,22 +10696,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492240</v>
+        <v>111480289</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10721,50 +10720,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526812.9225573848</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R91" t="n">
-        <v>7126722.187129569</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10815,29 +10802,28 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492243</v>
+        <v>111492222</v>
       </c>
       <c r="B92" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10850,21 +10836,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10874,10 +10860,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526790.3722218492</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R92" t="n">
-        <v>7126762.850523639</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10939,17 +10925,17 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480494</v>
+        <v>111492228</v>
       </c>
       <c r="B93" t="n">
-        <v>85715</v>
+        <v>73696</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10962,21 +10948,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10986,10 +10972,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526532.2429613075</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R93" t="n">
-        <v>7127323.466861598</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11046,22 +11032,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480503</v>
+        <v>111492232</v>
       </c>
       <c r="B94" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11070,25 +11056,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11098,10 +11084,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526894.459077736</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R94" t="n">
-        <v>7126755.063791552</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11158,22 +11144,22 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111492230</v>
+        <v>111492240</v>
       </c>
       <c r="B95" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11182,38 +11168,50 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526575.169212656</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R95" t="n">
-        <v>7127341.220564325</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11264,6 +11262,7 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11275,17 +11274,17 @@
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480389</v>
+        <v>111492218</v>
       </c>
       <c r="B96" t="n">
-        <v>89401</v>
+        <v>76513</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11298,21 +11297,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1108</v>
+        <v>314</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11322,10 +11321,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526658.5471790246</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R96" t="n">
-        <v>7126908.188469252</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11382,19 +11381,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480288</v>
+        <v>111492235</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11434,10 +11433,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526736.9537197551</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R97" t="n">
-        <v>7126649.369495919</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11494,12 +11493,12 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11618,10 +11617,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111492242</v>
+        <v>111480502</v>
       </c>
       <c r="B99" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11630,25 +11629,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11658,10 +11657,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526774.0510519799</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R99" t="n">
-        <v>7126787.919595245</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11718,22 +11717,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492236</v>
+        <v>111492249</v>
       </c>
       <c r="B100" t="n">
-        <v>78578</v>
+        <v>89793</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11742,25 +11741,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6458</v>
+        <v>4217</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11770,10 +11769,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526602.6161355394</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R100" t="n">
-        <v>7126984.637523879</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11842,10 +11841,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480334</v>
+        <v>111492245</v>
       </c>
       <c r="B101" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11854,25 +11853,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11882,10 +11881,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526894.459077736</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R101" t="n">
-        <v>7126755.063791552</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11942,22 +11941,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480331</v>
+        <v>111480501</v>
       </c>
       <c r="B102" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11970,21 +11969,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11994,10 +11993,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526734.811617541</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R102" t="n">
-        <v>7126645.438707692</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12066,10 +12065,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111492235</v>
+        <v>111480382</v>
       </c>
       <c r="B103" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12078,25 +12077,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12106,10 +12105,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526385.5844560881</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R103" t="n">
-        <v>7127223.552981463</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12166,22 +12165,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111492224</v>
+        <v>111492246</v>
       </c>
       <c r="B104" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12194,21 +12193,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12218,10 +12217,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526596.6363403485</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R104" t="n">
-        <v>7127072.382200824</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12290,10 +12289,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480289</v>
+        <v>111492239</v>
       </c>
       <c r="B105" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12302,38 +12301,50 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526772.4066721974</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R105" t="n">
-        <v>7126676.627914459</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12384,28 +12395,29 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
+      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111480380</v>
+        <v>111492248</v>
       </c>
       <c r="B106" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12414,25 +12426,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12454,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526749.2830160656</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R106" t="n">
-        <v>7126783.357779803</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12502,22 +12514,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111492234</v>
+        <v>111480390</v>
       </c>
       <c r="B107" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12530,21 +12542,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12566,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526575.169212656</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R107" t="n">
-        <v>7127341.220564325</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12614,22 +12626,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492233</v>
+        <v>111492243</v>
       </c>
       <c r="B108" t="n">
-        <v>78512</v>
+        <v>89423</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12638,25 +12650,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12666,10 +12678,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526789.6416554189</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R108" t="n">
-        <v>7126746.761226696</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12738,10 +12750,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111480506</v>
+        <v>111492238</v>
       </c>
       <c r="B109" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12750,25 +12762,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12778,10 +12790,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526737.8241366684</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R109" t="n">
-        <v>7126649.377048474</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12838,22 +12850,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111480527</v>
+        <v>111492226</v>
       </c>
       <c r="B110" t="n">
-        <v>76918</v>
+        <v>73696</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12866,21 +12878,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12890,10 +12902,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526547.1610996595</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R110" t="n">
-        <v>7126854.633392128</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12950,22 +12962,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111492246</v>
+        <v>111480328</v>
       </c>
       <c r="B111" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12978,21 +12990,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13002,10 +13014,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526721.4037833994</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R111" t="n">
-        <v>7126986.969393951</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13056,25 +13068,26 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111492248</v>
+        <v>111480507</v>
       </c>
       <c r="B112" t="n">
         <v>78611</v>
@@ -13114,10 +13127,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526777.8204396158</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R112" t="n">
-        <v>7126804.904414805</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13174,19 +13187,19 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111480501</v>
+        <v>111480504</v>
       </c>
       <c r="B113" t="n">
         <v>78611</v>
@@ -13226,10 +13239,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526660.4581602761</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R113" t="n">
-        <v>7126838.225198075</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13410,10 +13423,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111492241</v>
+        <v>111480380</v>
       </c>
       <c r="B115" t="n">
-        <v>89401</v>
+        <v>96348</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13422,25 +13435,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13450,10 +13463,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526475.7192807253</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R115" t="n">
-        <v>7127216.937948915</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13510,12 +13523,12 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
@@ -13634,7 +13647,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111492226</v>
+        <v>111492224</v>
       </c>
       <c r="B117" t="n">
         <v>73696</v>
@@ -13674,10 +13687,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526770.3722498151</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R117" t="n">
-        <v>7126760.503332262</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13746,10 +13759,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111492232</v>
+        <v>111492237</v>
       </c>
       <c r="B118" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13762,21 +13775,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13786,10 +13799,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526602.6161355394</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R118" t="n">
-        <v>7126984.637523879</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13858,10 +13871,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492239</v>
+        <v>111492230</v>
       </c>
       <c r="B119" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13870,50 +13883,38 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526801.7821608522</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R119" t="n">
-        <v>7126802.070078265</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13964,7 +13965,6 @@
       <c r="AE119" t="b">
         <v>0</v>
       </c>
-      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
@@ -14095,10 +14095,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492238</v>
+        <v>111492242</v>
       </c>
       <c r="B121" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14111,21 +14111,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14135,10 +14135,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526774.8534470783</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R121" t="n">
-        <v>7126795.750608556</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14207,10 +14207,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111492228</v>
+        <v>111480288</v>
       </c>
       <c r="B122" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14223,21 +14223,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526910.4891168335</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R122" t="n">
-        <v>7126763.462551801</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14307,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111480259</v>
+        <v>111480332</v>
       </c>
       <c r="B123" t="n">
-        <v>95538</v>
+        <v>78612</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14335,21 +14335,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>221941</v>
+        <v>6464</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526443.6441876995</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R123" t="n">
-        <v>7127151.470534382</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14424,17 +14424,17 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492245</v>
+        <v>111492241</v>
       </c>
       <c r="B124" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14447,21 +14447,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526603.415572185</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R124" t="n">
-        <v>7126841.644113425</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492222</v>
+        <v>111492233</v>
       </c>
       <c r="B125" t="n">
-        <v>73696</v>
+        <v>78512</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14555,25 +14555,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6440</v>
+        <v>6456</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526598.1368079525</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R125" t="n">
-        <v>7127100.211284383</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14648,17 +14648,17 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492249</v>
+        <v>111492236</v>
       </c>
       <c r="B126" t="n">
-        <v>89793</v>
+        <v>78578</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14667,25 +14667,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4217</v>
+        <v>6458</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526847.6058643057</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R126" t="n">
-        <v>7126737.702852693</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480113</v>
+        <v>111480032</v>
       </c>
       <c r="B127" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14783,42 +14783,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526531.3727349282</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R127" t="n">
-        <v>7127323.459366731</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14887,10 +14879,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480179</v>
+        <v>111480130</v>
       </c>
       <c r="B128" t="n">
-        <v>78579</v>
+        <v>56543</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14903,21 +14895,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14927,10 +14919,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526660.4581602761</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R128" t="n">
-        <v>7126838.225198075</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14999,10 +14991,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480180</v>
+        <v>111480117</v>
       </c>
       <c r="B129" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15015,34 +15007,42 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526736.9612626054</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R129" t="n">
-        <v>7126648.50018348</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15111,10 +15111,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480061</v>
+        <v>111480170</v>
       </c>
       <c r="B130" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15127,21 +15127,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526549.2920565202</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R130" t="n">
-        <v>7126859.867662492</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15216,17 +15216,17 @@
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480176</v>
+        <v>111480115</v>
       </c>
       <c r="B131" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15239,34 +15239,42 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526494.5189215972</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R131" t="n">
-        <v>7127307.931379622</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15335,7 +15343,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480181</v>
+        <v>111480175</v>
       </c>
       <c r="B132" t="n">
         <v>78579</v>
@@ -15375,10 +15383,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526762.5781673936</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R132" t="n">
-        <v>7126655.677579562</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15447,10 +15455,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480116</v>
+        <v>111480179</v>
       </c>
       <c r="B133" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15463,42 +15471,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526641.1372953646</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R133" t="n">
-        <v>7126858.052473077</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15567,7 +15567,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480169</v>
+        <v>111480173</v>
       </c>
       <c r="B134" t="n">
         <v>78579</v>
@@ -15607,10 +15607,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526533.0795019253</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R134" t="n">
-        <v>7127327.385405498</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15679,10 +15679,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480208</v>
+        <v>111480111</v>
       </c>
       <c r="B135" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15691,38 +15691,46 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526454.4890384678</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R135" t="n">
-        <v>7127155.475193184</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15791,10 +15799,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480067</v>
+        <v>111480105</v>
       </c>
       <c r="B136" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15807,34 +15815,42 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526618.0915837138</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R136" t="n">
-        <v>7126855.679999291</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15903,10 +15919,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480111</v>
+        <v>111480181</v>
       </c>
       <c r="B137" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15919,42 +15935,34 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526775.4342201974</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R137" t="n">
-        <v>7126678.827645465</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16023,10 +16031,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480032</v>
+        <v>111480208</v>
       </c>
       <c r="B138" t="n">
-        <v>76513</v>
+        <v>78512</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16035,25 +16043,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>314</v>
+        <v>6456</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16063,10 +16071,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526450.6922041279</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R138" t="n">
-        <v>7127141.534820292</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16135,10 +16143,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480117</v>
+        <v>111480209</v>
       </c>
       <c r="B139" t="n">
-        <v>56398</v>
+        <v>78512</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16147,46 +16155,38 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526664.107749017</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R139" t="n">
-        <v>7126869.117634357</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16255,10 +16255,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480207</v>
+        <v>111480061</v>
       </c>
       <c r="B140" t="n">
-        <v>78512</v>
+        <v>78107</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16267,25 +16267,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6456</v>
+        <v>6453</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16295,10 +16295,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526894.4742524296</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R140" t="n">
-        <v>7126753.32522574</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16360,17 +16360,17 @@
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480177</v>
+        <v>111480106</v>
       </c>
       <c r="B141" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16383,34 +16383,42 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526546.2907408345</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R141" t="n">
-        <v>7126854.625893313</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16479,10 +16487,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480130</v>
+        <v>111480116</v>
       </c>
       <c r="B142" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16495,34 +16503,42 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526894.4666650819</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R142" t="n">
-        <v>7126754.194508768</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16591,10 +16607,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480106</v>
+        <v>111480067</v>
       </c>
       <c r="B143" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16607,42 +16623,34 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526452.5306142806</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R143" t="n">
-        <v>7127231.515399783</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16711,10 +16719,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480115</v>
+        <v>111480171</v>
       </c>
       <c r="B144" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16727,42 +16735,34 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526582.5118723252</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R144" t="n">
-        <v>7126843.202344363</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111477264</v>
+        <v>111475401</v>
       </c>
       <c r="B2" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526756.4007905088</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R2" t="n">
-        <v>7126765.59805485</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111477215</v>
+        <v>111475425</v>
       </c>
       <c r="B3" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526783.5980437086</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R3" t="n">
-        <v>7126741.057903775</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111477250</v>
+        <v>111475402</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526770.2400840909</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R4" t="n">
-        <v>7126775.715713345</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477284</v>
+        <v>111477152</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526737.8549399736</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R5" t="n">
-        <v>7126796.298664714</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477283</v>
+        <v>111478260</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526794.8191702637</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R6" t="n">
-        <v>7126802.009519467</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477286</v>
+        <v>111477250</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526791.4164464728</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R7" t="n">
-        <v>7126742.86457725</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477230</v>
+        <v>111477263</v>
       </c>
       <c r="B8" t="n">
         <v>73696</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526743.0583307605</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R8" t="n">
-        <v>7126798.517162403</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111478260</v>
+        <v>111475421</v>
       </c>
       <c r="B9" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,38 +1476,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526746.6216685539</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R9" t="n">
-        <v>7126889.392351454</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111475423</v>
+        <v>111475404</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526627.7975810008</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R10" t="n">
-        <v>7127444.671415905</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111475402</v>
+        <v>111481784</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,41 +1700,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526628.5804176665</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R11" t="n">
-        <v>7126900.974891847</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111475408</v>
+        <v>111481792</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,41 +1812,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526807.9596872492</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R12" t="n">
-        <v>7126492.190286946</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1900,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111477148</v>
+        <v>111475407</v>
       </c>
       <c r="B13" t="n">
-        <v>103273</v>
+        <v>96368</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,34 +1928,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221725</v>
+        <v>221952</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526681.1812848106</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R13" t="n">
-        <v>7126857.529652008</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111477220</v>
+        <v>111475430</v>
       </c>
       <c r="B14" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,37 +2040,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526733.557377478</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R14" t="n">
-        <v>7126840.16255208</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477236</v>
+        <v>111475418</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526643.3394980798</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R15" t="n">
-        <v>7126855.0288987</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2236,22 +2236,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111477150</v>
+        <v>111475396</v>
       </c>
       <c r="B16" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,34 +2264,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526575.9457110572</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R16" t="n">
-        <v>7127352.092021598</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2348,19 +2356,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477209</v>
+        <v>111477264</v>
       </c>
       <c r="B17" t="n">
         <v>73696</v>
@@ -2400,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526709.7900707464</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R17" t="n">
-        <v>7126870.817277474</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111477241</v>
+        <v>111477256</v>
       </c>
       <c r="B18" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2496,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526633.8889021962</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R18" t="n">
-        <v>7126891.023735311</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,10 +2592,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481778</v>
+        <v>111481794</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>78612</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,46 +2604,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526632.5946496209</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R19" t="n">
-        <v>7126889.708583741</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111475396</v>
+        <v>111481791</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2720,45 +2720,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526760.8615308162</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R20" t="n">
-        <v>7126552.639882971</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2812,22 +2804,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111475404</v>
+        <v>111481790</v>
       </c>
       <c r="B21" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2836,41 +2828,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526536.8261819695</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R21" t="n">
-        <v>7127296.56142472</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2924,22 +2916,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111477278</v>
+        <v>111477282</v>
       </c>
       <c r="B22" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2948,25 +2940,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2976,10 +2968,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526711.8604537799</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R22" t="n">
-        <v>7126883.005616191</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3048,10 +3040,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111478259</v>
+        <v>111477232</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3060,25 +3052,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3088,13 +3080,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526622.093687591</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R23" t="n">
-        <v>7126946.557083774</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3148,22 +3140,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111475398</v>
+        <v>111477203</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3176,45 +3168,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526795.3655874674</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R24" t="n">
-        <v>7126589.019822755</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3268,22 +3252,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111475400</v>
+        <v>111477261</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>76513</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3292,41 +3276,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>314</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526334.1646390257</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R25" t="n">
-        <v>7127180.955839636</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3380,22 +3364,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111475401</v>
+        <v>111477148</v>
       </c>
       <c r="B26" t="n">
-        <v>78605</v>
+        <v>103273</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,34 +3392,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6462</v>
+        <v>221725</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526359.6403407991</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R26" t="n">
-        <v>7127153.358349039</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3492,19 +3476,19 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477149</v>
+        <v>111477151</v>
       </c>
       <c r="B27" t="n">
         <v>73696</v>
@@ -3538,19 +3522,16 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526773.3997162007</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R27" t="n">
-        <v>7126762.703002418</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3601,7 +3582,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3620,10 +3600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111477261</v>
+        <v>111477149</v>
       </c>
       <c r="B28" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3636,37 +3616,40 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526719.7991456056</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R28" t="n">
-        <v>7126870.904059933</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3714,28 +3697,29 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111477256</v>
+        <v>111477279</v>
       </c>
       <c r="B29" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3748,21 +3732,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3772,10 +3756,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526618.6342781226</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R29" t="n">
-        <v>7127447.634256044</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3844,10 +3828,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477244</v>
+        <v>111477262</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3860,21 +3844,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3884,10 +3868,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526753.3544461714</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R30" t="n">
-        <v>7126765.571603379</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3956,10 +3940,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111475411</v>
+        <v>111477284</v>
       </c>
       <c r="B31" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3972,37 +3956,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526633.8626035146</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R31" t="n">
-        <v>7126894.066088703</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4056,22 +4040,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477267</v>
+        <v>111475399</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4084,37 +4068,45 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526776.5518203602</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R32" t="n">
-        <v>7126750.55952362</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4168,22 +4160,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111477273</v>
+        <v>111475429</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4196,37 +4188,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526843.7421112995</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R33" t="n">
-        <v>7126731.583709671</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4280,22 +4272,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111481790</v>
+        <v>111477226</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4308,21 +4300,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4332,10 +4324,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526748.151006726</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R34" t="n">
-        <v>7126763.35306516</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4392,22 +4384,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481780</v>
+        <v>111475395</v>
       </c>
       <c r="B35" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4416,41 +4408,49 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526629.4958394679</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R35" t="n">
-        <v>7126895.766960836</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4504,22 +4504,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111475407</v>
+        <v>111477277</v>
       </c>
       <c r="B36" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4528,41 +4528,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526761.6737779978</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R36" t="n">
-        <v>7126659.581915028</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4616,22 +4616,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475395</v>
+        <v>111475424</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4644,42 +4644,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526541.4140344799</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R37" t="n">
-        <v>7127319.634518873</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4748,10 +4740,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475425</v>
+        <v>111475405</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4760,25 +4752,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4788,10 +4780,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526350.4355532593</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R38" t="n">
-        <v>7127161.102700913</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4860,10 +4852,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111481797</v>
+        <v>111475415</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4876,37 +4868,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526724.4788811355</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R39" t="n">
-        <v>7126833.129197065</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4960,22 +4952,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111481777</v>
+        <v>111475406</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4984,49 +4976,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526576.6359760575</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R40" t="n">
-        <v>7127372.958205946</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5080,22 +5064,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111481779</v>
+        <v>111477269</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5108,42 +5092,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526741.1907235509</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R41" t="n">
-        <v>7126863.265793501</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5200,22 +5176,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111475412</v>
+        <v>111477215</v>
       </c>
       <c r="B42" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5228,37 +5204,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526788.4021154585</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R42" t="n">
-        <v>7126588.959279429</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5312,22 +5288,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111475406</v>
+        <v>111475400</v>
       </c>
       <c r="B43" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5340,21 +5316,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5364,10 +5340,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526628.8057909949</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R43" t="n">
-        <v>7126874.89753825</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5436,10 +5412,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111477151</v>
+        <v>111475408</v>
       </c>
       <c r="B44" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5448,38 +5424,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526778.943100647</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R44" t="n">
-        <v>7126725.803744309</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5536,22 +5512,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111477269</v>
+        <v>111475398</v>
       </c>
       <c r="B45" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5564,37 +5540,45 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526734.8568705021</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R45" t="n">
-        <v>7126891.028866394</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5648,22 +5632,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111477203</v>
+        <v>111475412</v>
       </c>
       <c r="B46" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5676,37 +5660,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526589.7304216913</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R46" t="n">
-        <v>7127368.290746101</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5760,19 +5744,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111475418</v>
+        <v>111481788</v>
       </c>
       <c r="B47" t="n">
         <v>78578</v>
@@ -5808,17 +5792,17 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526641.5754754087</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R47" t="n">
-        <v>7126908.041672549</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5872,22 +5856,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111475405</v>
+        <v>111481795</v>
       </c>
       <c r="B48" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5896,41 +5880,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526402.8306512056</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R48" t="n">
-        <v>7127140.689653471</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5984,22 +5968,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111477154</v>
+        <v>111477230</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6008,41 +5992,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526784.7834235848</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R49" t="n">
-        <v>7126804.964935203</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6096,22 +6080,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477276</v>
+        <v>111477150</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6124,37 +6108,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526638.6946075994</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R50" t="n">
-        <v>7126888.892006672</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6208,22 +6192,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111475428</v>
+        <v>111477283</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6236,37 +6220,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526818.0723325044</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R51" t="n">
-        <v>7126530.532625454</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6320,22 +6304,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111477153</v>
+        <v>111477234</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6348,37 +6332,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526793.9223398847</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R52" t="n">
-        <v>7126805.044392107</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6432,22 +6416,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111477155</v>
+        <v>111481777</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6460,37 +6444,45 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526757.7867624827</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R53" t="n">
-        <v>7126806.469043032</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6544,22 +6536,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111477224</v>
+        <v>111478258</v>
       </c>
       <c r="B54" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6568,25 +6560,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6596,13 +6588,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526874.3871010491</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R54" t="n">
-        <v>7126760.97409881</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6656,22 +6648,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111481784</v>
+        <v>111477155</v>
       </c>
       <c r="B55" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6684,37 +6676,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526513.0667874835</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R55" t="n">
-        <v>7127276.365312753</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6768,22 +6760,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111481794</v>
+        <v>111477278</v>
       </c>
       <c r="B56" t="n">
-        <v>78612</v>
+        <v>96368</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6796,21 +6788,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6820,10 +6812,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526759.9373603656</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R56" t="n">
-        <v>7126859.516619125</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6880,22 +6872,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111481795</v>
+        <v>111481787</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6908,21 +6900,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6932,10 +6924,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526578.1343758366</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R57" t="n">
-        <v>7126947.046857893</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7116,10 +7108,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111481791</v>
+        <v>111481779</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7132,34 +7124,42 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526766.8104247742</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R59" t="n">
-        <v>7126719.612825709</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7228,10 +7228,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111478257</v>
+        <v>111477209</v>
       </c>
       <c r="B60" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7240,25 +7240,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7268,13 +7268,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526504.6649119424</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R60" t="n">
-        <v>7127291.938577281</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7328,22 +7328,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475430</v>
+        <v>111475411</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7356,21 +7356,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7380,10 +7380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526904.464734747</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R61" t="n">
-        <v>7126755.585814431</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7452,10 +7452,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111481789</v>
+        <v>111475422</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7468,37 +7468,37 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526710.6246283256</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R62" t="n">
-        <v>7126824.750457344</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7552,19 +7552,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475421</v>
+        <v>111475420</v>
       </c>
       <c r="B63" t="n">
         <v>78578</v>
@@ -7604,10 +7604,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526790.5782004726</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R63" t="n">
-        <v>7126588.978197531</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111475429</v>
+        <v>111477153</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7692,34 +7692,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526801.3654488353</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R64" t="n">
-        <v>7126749.905904328</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7776,22 +7776,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111475419</v>
+        <v>111475409</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7800,25 +7800,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7828,10 +7828,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526750.3609286405</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R65" t="n">
-        <v>7126759.460191521</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7900,10 +7900,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111475417</v>
+        <v>111478259</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7912,38 +7912,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526628.5804176665</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R66" t="n">
-        <v>7126900.974891847</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8000,22 +8000,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111481787</v>
+        <v>111481796</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8028,21 +8028,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8052,10 +8052,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526745.1073277664</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R67" t="n">
-        <v>7126863.299787878</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111475427</v>
+        <v>111477247</v>
       </c>
       <c r="B69" t="n">
         <v>77515</v>
@@ -8272,17 +8272,17 @@
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526432.8127084307</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R69" t="n">
-        <v>7127044.459845332</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S69" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8336,22 +8336,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111475399</v>
+        <v>111475419</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8364,42 +8364,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526448.7861015323</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R70" t="n">
-        <v>7127211.491299792</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8468,10 +8460,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475415</v>
+        <v>111481797</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8484,37 +8476,37 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526334.1646390257</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R71" t="n">
-        <v>7127180.955839636</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8568,19 +8560,19 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111481792</v>
+        <v>111475417</v>
       </c>
       <c r="B72" t="n">
         <v>78578</v>
@@ -8616,17 +8608,17 @@
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526807.5942992838</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R72" t="n">
-        <v>7126734.31175267</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8680,22 +8672,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111478258</v>
+        <v>111481793</v>
       </c>
       <c r="B73" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8708,21 +8700,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8732,13 +8724,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526486.4442992809</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R73" t="n">
-        <v>7127234.849028585</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8792,22 +8784,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111475420</v>
+        <v>111481780</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8816,41 +8808,41 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526782.4503789117</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R74" t="n">
-        <v>7126672.803025675</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8904,22 +8896,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111475409</v>
+        <v>111475427</v>
       </c>
       <c r="B75" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8928,25 +8920,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8956,10 +8948,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526801.3654488353</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R75" t="n">
-        <v>7126749.905904328</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9028,10 +9020,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111475422</v>
+        <v>111477156</v>
       </c>
       <c r="B76" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9040,38 +9032,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526830.8338072833</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R76" t="n">
-        <v>7126714.5188105</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9128,22 +9120,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475424</v>
+        <v>111477154</v>
       </c>
       <c r="B77" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9152,38 +9144,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526562.7125770835</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R77" t="n">
-        <v>7127372.838116477</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9240,22 +9232,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111477156</v>
+        <v>111478257</v>
       </c>
       <c r="B78" t="n">
-        <v>78611</v>
+        <v>96368</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9268,34 +9260,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6463</v>
+        <v>221952</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526783.9659439438</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R78" t="n">
-        <v>7126798.872483394</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9352,22 +9344,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111477152</v>
+        <v>111481778</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9380,37 +9372,45 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526790.9213834098</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R79" t="n">
-        <v>7126799.80228779</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9464,22 +9464,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111481793</v>
+        <v>111475423</v>
       </c>
       <c r="B80" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9488,41 +9488,41 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526742.0271302022</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R80" t="n">
-        <v>7126867.184979456</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9576,19 +9576,19 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111481796</v>
+        <v>111475428</v>
       </c>
       <c r="B81" t="n">
         <v>77515</v>
@@ -9624,17 +9624,17 @@
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526608.5136703107</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R81" t="n">
-        <v>7126906.452016207</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492234</v>
+        <v>111480505</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9712,25 +9712,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526575.169212656</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R82" t="n">
-        <v>7127341.220564325</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492247</v>
+        <v>111480285</v>
       </c>
       <c r="B83" t="n">
-        <v>78467</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9824,25 +9824,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6457</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526777.8204396158</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R83" t="n">
-        <v>7126804.904414805</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9912,22 +9912,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480331</v>
+        <v>111480441</v>
       </c>
       <c r="B84" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9936,25 +9936,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526734.811617541</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R84" t="n">
-        <v>7126645.438707692</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480440</v>
+        <v>111480333</v>
       </c>
       <c r="B85" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10048,25 +10048,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526594.1567224554</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R85" t="n">
-        <v>7126855.473320428</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10148,10 +10148,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480422</v>
+        <v>111492249</v>
       </c>
       <c r="B86" t="n">
-        <v>89423</v>
+        <v>89793</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,25 +10160,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>4217</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10188,10 +10188,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526825.2556783153</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R86" t="n">
-        <v>7126705.341951311</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10248,22 +10248,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480525</v>
+        <v>111492224</v>
       </c>
       <c r="B87" t="n">
-        <v>76918</v>
+        <v>73696</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10276,21 +10276,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526547.1610996595</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R87" t="n">
-        <v>7126854.633392128</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10360,22 +10360,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480260</v>
+        <v>111480420</v>
       </c>
       <c r="B88" t="n">
-        <v>95538</v>
+        <v>89423</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10384,25 +10384,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>221941</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526443.6441876995</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R88" t="n">
-        <v>7127151.470534382</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10484,10 +10484,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480494</v>
+        <v>111492226</v>
       </c>
       <c r="B89" t="n">
-        <v>85715</v>
+        <v>73696</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10500,21 +10500,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526532.2429613075</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R89" t="n">
-        <v>7127323.466861598</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10584,22 +10584,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480482</v>
+        <v>111492233</v>
       </c>
       <c r="B90" t="n">
-        <v>88899</v>
+        <v>78512</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10608,25 +10608,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3286</v>
+        <v>6456</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10636,10 +10636,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526688.4566125805</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R90" t="n">
-        <v>7126821.515715363</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10696,22 +10696,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480289</v>
+        <v>111492231</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10720,25 +10720,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10748,10 +10748,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526772.4066721974</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R91" t="n">
-        <v>7126676.627914459</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10808,22 +10808,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492222</v>
+        <v>111480380</v>
       </c>
       <c r="B92" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10832,25 +10832,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526598.1368079525</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R92" t="n">
-        <v>7127100.211284383</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10920,22 +10920,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111492228</v>
+        <v>111480329</v>
       </c>
       <c r="B93" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10948,21 +10948,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10972,10 +10972,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526910.4891168335</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R93" t="n">
-        <v>7126763.462551801</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11026,28 +11026,29 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111492232</v>
+        <v>111492240</v>
       </c>
       <c r="B94" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11056,38 +11057,50 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526602.6161355394</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R94" t="n">
-        <v>7126984.637523879</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11138,6 +11151,7 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
@@ -11149,17 +11163,17 @@
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111492240</v>
+        <v>111480500</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11168,50 +11182,38 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526812.9225573848</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R95" t="n">
-        <v>7126722.187129569</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11262,29 +11264,28 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111492218</v>
+        <v>111480286</v>
       </c>
       <c r="B96" t="n">
-        <v>76513</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11297,21 +11298,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>314</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11321,10 +11322,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526596.6363403485</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R96" t="n">
-        <v>7127072.382200824</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11381,22 +11382,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111492235</v>
+        <v>111492246</v>
       </c>
       <c r="B97" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11409,21 +11410,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11433,10 +11434,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526385.5844560881</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R97" t="n">
-        <v>7127223.552981463</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11505,10 +11506,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111492225</v>
+        <v>111492247</v>
       </c>
       <c r="B98" t="n">
-        <v>73696</v>
+        <v>78467</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11517,25 +11518,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6440</v>
+        <v>6457</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11545,10 +11546,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526609.6312623346</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R98" t="n">
-        <v>7126978.613118013</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11617,10 +11618,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480502</v>
+        <v>111492222</v>
       </c>
       <c r="B99" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11629,25 +11630,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11657,10 +11658,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526737.8241366684</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R99" t="n">
-        <v>7126649.377048474</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11717,22 +11718,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492249</v>
+        <v>111492230</v>
       </c>
       <c r="B100" t="n">
-        <v>89793</v>
+        <v>78605</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11745,21 +11746,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4217</v>
+        <v>6462</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11769,10 +11770,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526847.6058643057</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R100" t="n">
-        <v>7126737.702852693</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11841,10 +11842,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492245</v>
+        <v>111492228</v>
       </c>
       <c r="B101" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11857,21 +11858,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11881,10 +11882,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526603.415572185</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R101" t="n">
-        <v>7126841.644113425</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11953,10 +11954,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480501</v>
+        <v>111480260</v>
       </c>
       <c r="B102" t="n">
-        <v>78611</v>
+        <v>95538</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11969,21 +11970,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6463</v>
+        <v>221941</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11993,10 +11994,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526660.4581602761</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R102" t="n">
-        <v>7126838.225198075</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12065,10 +12066,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480382</v>
+        <v>111480507</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12077,25 +12078,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12105,10 +12106,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526799.075599193</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R103" t="n">
-        <v>7126712.93839974</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12177,10 +12178,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111492246</v>
+        <v>111480334</v>
       </c>
       <c r="B104" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12189,25 +12190,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12217,10 +12218,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526721.4037833994</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R104" t="n">
-        <v>7126986.969393951</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12277,22 +12278,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492239</v>
+        <v>111480527</v>
       </c>
       <c r="B105" t="n">
-        <v>96348</v>
+        <v>76918</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12301,50 +12302,38 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>220787</v>
+        <v>6437</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526801.7821608522</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R105" t="n">
-        <v>7126802.070078265</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12395,29 +12384,28 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
-      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492248</v>
+        <v>111480379</v>
       </c>
       <c r="B106" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12426,25 +12414,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12454,10 +12442,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526777.8204396158</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R106" t="n">
-        <v>7126804.904414805</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12514,19 +12502,19 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480390</v>
+        <v>111492241</v>
       </c>
       <c r="B107" t="n">
         <v>89401</v>
@@ -12566,10 +12554,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526658.5471790246</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R107" t="n">
-        <v>7126908.188469252</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12626,19 +12614,19 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492243</v>
+        <v>111492242</v>
       </c>
       <c r="B108" t="n">
         <v>89423</v>
@@ -12678,10 +12666,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526790.3722218492</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R108" t="n">
-        <v>7126762.850523639</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12750,7 +12738,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111492238</v>
+        <v>111492235</v>
       </c>
       <c r="B109" t="n">
         <v>78578</v>
@@ -12790,10 +12778,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526774.8534470783</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R109" t="n">
-        <v>7126795.750608556</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12862,10 +12850,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492226</v>
+        <v>111492218</v>
       </c>
       <c r="B110" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12878,21 +12866,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12902,10 +12890,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526770.3722498151</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R110" t="n">
-        <v>7126760.503332262</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12967,17 +12955,17 @@
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111480328</v>
+        <v>111492221</v>
       </c>
       <c r="B111" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12990,21 +12978,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13014,10 +13002,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526797.7359805232</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R111" t="n">
-        <v>7126716.838867592</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13068,29 +13056,28 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111480507</v>
+        <v>111492237</v>
       </c>
       <c r="B112" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13099,25 +13086,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13127,10 +13114,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526894.459077736</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R112" t="n">
-        <v>7126755.063791552</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13187,22 +13174,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111480504</v>
+        <v>111492236</v>
       </c>
       <c r="B113" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13211,25 +13198,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13239,10 +13226,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526549.4044071162</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R113" t="n">
-        <v>7126846.828840361</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13299,22 +13286,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111480522</v>
+        <v>111492232</v>
       </c>
       <c r="B114" t="n">
-        <v>76495</v>
+        <v>78579</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13327,21 +13314,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6487</v>
+        <v>2081</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13351,10 +13338,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526547.1610996595</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R114" t="n">
-        <v>7126854.633392128</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13411,22 +13398,22 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111480380</v>
+        <v>111492234</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13435,25 +13422,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13463,10 +13450,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526749.2830160656</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R115" t="n">
-        <v>7126783.357779803</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13523,22 +13510,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492231</v>
+        <v>111480482</v>
       </c>
       <c r="B116" t="n">
-        <v>78605</v>
+        <v>88899</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13547,25 +13534,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6462</v>
+        <v>3286</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13575,10 +13562,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526761.6090650371</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R116" t="n">
-        <v>7126817.368890626</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13635,22 +13622,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111492224</v>
+        <v>111480506</v>
       </c>
       <c r="B117" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13659,25 +13646,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13687,10 +13674,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526596.6363403485</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R117" t="n">
-        <v>7127072.382200824</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13747,22 +13734,22 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111492237</v>
+        <v>111492248</v>
       </c>
       <c r="B118" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13771,25 +13758,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13799,10 +13786,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526801.6271560494</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R118" t="n">
-        <v>7126819.89004916</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13871,10 +13858,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492230</v>
+        <v>111480390</v>
       </c>
       <c r="B119" t="n">
-        <v>78605</v>
+        <v>89401</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13883,25 +13870,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6462</v>
+        <v>1108</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13911,10 +13898,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526575.169212656</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R119" t="n">
-        <v>7127341.220564325</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13971,22 +13958,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492221</v>
+        <v>111480521</v>
       </c>
       <c r="B120" t="n">
-        <v>73696</v>
+        <v>76495</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13999,21 +13986,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6440</v>
+        <v>6487</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14010,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526603.5760295368</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R120" t="n">
-        <v>7127125.466399673</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14083,22 +14070,22 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492242</v>
+        <v>111492239</v>
       </c>
       <c r="B121" t="n">
-        <v>89423</v>
+        <v>96348</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14107,38 +14094,50 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526774.0510519799</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R121" t="n">
-        <v>7126787.919595245</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14189,6 +14188,7 @@
       <c r="AE121" t="b">
         <v>0</v>
       </c>
+      <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="b">
         <v>0</v>
       </c>
@@ -14200,17 +14200,17 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111480288</v>
+        <v>111492245</v>
       </c>
       <c r="B122" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14223,21 +14223,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526736.9537197551</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R122" t="n">
-        <v>7126649.369495919</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14307,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111480332</v>
+        <v>111492238</v>
       </c>
       <c r="B123" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14331,25 +14331,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526894.459077736</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R123" t="n">
-        <v>7126755.063791552</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14419,22 +14419,22 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492241</v>
+        <v>111492243</v>
       </c>
       <c r="B124" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14447,21 +14447,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526475.7192807253</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R124" t="n">
-        <v>7127216.937948915</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492233</v>
+        <v>111492225</v>
       </c>
       <c r="B125" t="n">
-        <v>78512</v>
+        <v>73696</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14555,25 +14555,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6456</v>
+        <v>6440</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526789.6416554189</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R125" t="n">
-        <v>7126746.761226696</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492236</v>
+        <v>111480494</v>
       </c>
       <c r="B126" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14671,21 +14671,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526602.6161355394</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R126" t="n">
-        <v>7126984.637523879</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14755,22 +14755,22 @@
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480032</v>
+        <v>111480208</v>
       </c>
       <c r="B127" t="n">
-        <v>76513</v>
+        <v>78512</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14779,25 +14779,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>314</v>
+        <v>6456</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14807,10 +14807,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526450.6922041279</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R127" t="n">
-        <v>7127141.534820292</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14879,10 +14879,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480130</v>
+        <v>111480172</v>
       </c>
       <c r="B128" t="n">
-        <v>56543</v>
+        <v>78579</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14895,21 +14895,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14919,10 +14919,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526894.4666650819</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R128" t="n">
-        <v>7126754.194508768</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14991,7 +14991,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480117</v>
+        <v>111480115</v>
       </c>
       <c r="B129" t="n">
         <v>56398</v>
@@ -15039,10 +15039,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526664.107749017</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R129" t="n">
-        <v>7126869.117634357</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480170</v>
+        <v>111480181</v>
       </c>
       <c r="B130" t="n">
         <v>78579</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526494.5189215972</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R130" t="n">
-        <v>7127307.931379622</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480115</v>
+        <v>111480110</v>
       </c>
       <c r="B131" t="n">
         <v>56398</v>
@@ -15271,10 +15271,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526582.5118723252</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R131" t="n">
-        <v>7126843.202344363</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15343,10 +15343,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480175</v>
+        <v>111480065</v>
       </c>
       <c r="B132" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15359,21 +15359,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15383,10 +15383,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526533.0795019253</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R132" t="n">
-        <v>7127327.385405498</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15455,7 +15455,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480179</v>
+        <v>111480173</v>
       </c>
       <c r="B133" t="n">
         <v>78579</v>
@@ -15495,10 +15495,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526660.4581602761</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R133" t="n">
-        <v>7126838.225198075</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15567,10 +15567,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480173</v>
+        <v>111480111</v>
       </c>
       <c r="B134" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15583,34 +15583,42 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526736.9612626054</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R134" t="n">
-        <v>7126648.50018348</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15679,7 +15687,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480111</v>
+        <v>111480113</v>
       </c>
       <c r="B135" t="n">
         <v>56398</v>
@@ -15727,10 +15735,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526775.4342201974</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R135" t="n">
-        <v>7126678.827645465</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15799,10 +15807,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480105</v>
+        <v>111480176</v>
       </c>
       <c r="B136" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15815,42 +15823,34 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526531.3727349282</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R136" t="n">
-        <v>7127323.459366731</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480181</v>
+        <v>111480114</v>
       </c>
       <c r="B137" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15935,34 +15935,42 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526762.5781673936</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R137" t="n">
-        <v>7126655.677579562</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16031,10 +16039,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480208</v>
+        <v>111480109</v>
       </c>
       <c r="B138" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16043,38 +16051,46 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526454.4890384678</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R138" t="n">
-        <v>7127155.475193184</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16255,10 +16271,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480061</v>
+        <v>111480171</v>
       </c>
       <c r="B140" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16271,21 +16287,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16295,10 +16311,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526549.2920565202</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R140" t="n">
-        <v>7126859.867662492</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16360,17 +16376,17 @@
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480106</v>
+        <v>111480032</v>
       </c>
       <c r="B141" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16383,42 +16399,34 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526452.5306142806</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R141" t="n">
-        <v>7127231.515399783</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16487,10 +16495,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480116</v>
+        <v>111480175</v>
       </c>
       <c r="B142" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16503,42 +16511,34 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526641.1372953646</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R142" t="n">
-        <v>7126858.052473077</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16607,10 +16607,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480067</v>
+        <v>111480130</v>
       </c>
       <c r="B143" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16623,21 +16623,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16647,10 +16647,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526618.0915837138</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R143" t="n">
-        <v>7126855.679999291</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16719,10 +16719,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480171</v>
+        <v>111480061</v>
       </c>
       <c r="B144" t="n">
-        <v>78579</v>
+        <v>78107</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16735,21 +16735,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2081</v>
+        <v>6453</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -16759,10 +16759,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526546.2907408345</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R144" t="n">
-        <v>7126854.625893313</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="AX144" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY144" t="inlineStr"/>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -3600,10 +3600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111477149</v>
+        <v>111477284</v>
       </c>
       <c r="B28" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3616,40 +3616,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526773.3997162007</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R28" t="n">
-        <v>7126762.703002418</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3697,29 +3694,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111477279</v>
+        <v>111475399</v>
       </c>
       <c r="B29" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3732,37 +3728,45 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526633.8889021962</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R29" t="n">
-        <v>7126891.023735311</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3816,19 +3820,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477262</v>
+        <v>111477149</v>
       </c>
       <c r="B30" t="n">
         <v>73696</v>
@@ -3862,19 +3866,22 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526874.3871010491</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R30" t="n">
-        <v>7126760.97409881</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3922,28 +3929,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477284</v>
+        <v>111477279</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3956,21 +3964,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3980,10 +3988,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526737.8549399736</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R31" t="n">
-        <v>7126796.298664714</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4052,10 +4060,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111475399</v>
+        <v>111477262</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4068,45 +4076,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526448.7861015323</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R32" t="n">
-        <v>7127211.491299792</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4160,12 +4160,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111477226</v>
+        <v>111475395</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4300,37 +4300,45 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526776.5518203602</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R34" t="n">
-        <v>7126750.55952362</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4384,19 +4392,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111475395</v>
+        <v>111477277</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4430,27 +4438,19 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526541.4140344799</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R35" t="n">
-        <v>7127319.634518873</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4504,22 +4504,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477277</v>
+        <v>111477226</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4532,21 +4532,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526643.3394980798</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R36" t="n">
-        <v>7126855.0288987</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475424</v>
+        <v>111475415</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4644,21 +4644,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4668,10 +4668,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526562.7125770835</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R37" t="n">
-        <v>7127372.838116477</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475405</v>
+        <v>111475406</v>
       </c>
       <c r="B38" t="n">
         <v>96368</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526402.8306512056</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R38" t="n">
-        <v>7127140.689653471</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475415</v>
+        <v>111475424</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4868,21 +4868,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4892,10 +4892,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526334.1646390257</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R39" t="n">
-        <v>7127180.955839636</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475406</v>
+        <v>111475405</v>
       </c>
       <c r="B40" t="n">
         <v>96368</v>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526628.8057909949</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R40" t="n">
-        <v>7126874.89753825</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -6772,10 +6772,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111477278</v>
+        <v>111481787</v>
       </c>
       <c r="B56" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6784,25 +6784,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526711.8604537799</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R56" t="n">
-        <v>7126883.005616191</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6872,22 +6872,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111481787</v>
+        <v>111481785</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6900,21 +6900,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6924,10 +6924,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526745.1073277664</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R57" t="n">
-        <v>7126863.299787878</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6996,10 +6996,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111481785</v>
+        <v>111481779</v>
       </c>
       <c r="B58" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7012,34 +7012,42 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526629.4958394679</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R58" t="n">
-        <v>7126895.766960836</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7108,10 +7116,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111481779</v>
+        <v>111477278</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7120,46 +7128,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526741.1907235509</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R59" t="n">
-        <v>7126863.265793501</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7216,12 +7216,12 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475411</v>
+        <v>111477153</v>
       </c>
       <c r="B61" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7356,34 +7356,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526633.8626035146</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R61" t="n">
-        <v>7126894.066088703</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7440,22 +7440,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111475422</v>
+        <v>111475411</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7468,21 +7468,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526830.8338072833</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R62" t="n">
-        <v>7126714.5188105</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475420</v>
+        <v>111475422</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7580,21 +7580,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7604,10 +7604,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526782.4503789117</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R63" t="n">
-        <v>7126672.803025675</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111477153</v>
+        <v>111475420</v>
       </c>
       <c r="B64" t="n">
         <v>78578</v>
@@ -7712,14 +7712,14 @@
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526793.9223398847</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R64" t="n">
-        <v>7126805.044392107</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7776,12 +7776,12 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
@@ -8572,10 +8572,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111475417</v>
+        <v>111475427</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8588,21 +8588,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526628.5804176665</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R72" t="n">
-        <v>7126900.974891847</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8684,10 +8684,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111481793</v>
+        <v>111477156</v>
       </c>
       <c r="B73" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8700,37 +8700,37 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526742.0271302022</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R73" t="n">
-        <v>7126867.184979456</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8784,22 +8784,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111481780</v>
+        <v>111477154</v>
       </c>
       <c r="B74" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8808,41 +8808,41 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526629.4958394679</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R74" t="n">
-        <v>7126895.766960836</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8896,22 +8896,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111475427</v>
+        <v>111478257</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8920,38 +8920,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526432.8127084307</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R75" t="n">
-        <v>7127044.459845332</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9008,22 +9008,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111477156</v>
+        <v>111475417</v>
       </c>
       <c r="B76" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9032,38 +9032,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526783.9659439438</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R76" t="n">
-        <v>7126798.872483394</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9120,22 +9120,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111477154</v>
+        <v>111481793</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9144,41 +9144,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526784.7834235848</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R77" t="n">
-        <v>7126804.964935203</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9232,22 +9232,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111478257</v>
+        <v>111481780</v>
       </c>
       <c r="B78" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526504.6649119424</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R78" t="n">
-        <v>7127291.938577281</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9344,12 +9344,12 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480527</v>
+        <v>111492241</v>
       </c>
       <c r="B105" t="n">
-        <v>76918</v>
+        <v>89401</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12306,21 +12306,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6437</v>
+        <v>1108</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12330,10 +12330,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526547.1610996595</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R105" t="n">
-        <v>7126854.633392128</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12390,22 +12390,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111480379</v>
+        <v>111480527</v>
       </c>
       <c r="B106" t="n">
-        <v>96348</v>
+        <v>76918</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12414,25 +12414,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>6437</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526799.075599193</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R106" t="n">
-        <v>7126712.93839974</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111492241</v>
+        <v>111480379</v>
       </c>
       <c r="B107" t="n">
-        <v>89401</v>
+        <v>96348</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12526,25 +12526,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12554,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526475.7192807253</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R107" t="n">
-        <v>7127216.937948915</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12614,12 +12614,12 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
@@ -15343,10 +15343,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480065</v>
+        <v>111480173</v>
       </c>
       <c r="B132" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15359,21 +15359,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15383,10 +15383,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526618.0915837138</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R132" t="n">
-        <v>7126855.679999291</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480173</v>
+        <v>111480111</v>
       </c>
       <c r="B133" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15471,34 +15471,42 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526736.9612626054</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R133" t="n">
-        <v>7126648.50018348</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15567,10 +15575,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480111</v>
+        <v>111480065</v>
       </c>
       <c r="B134" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15583,42 +15591,34 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526775.4342201974</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R134" t="n">
-        <v>7126678.827645465</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -16495,10 +16495,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480175</v>
+        <v>111480130</v>
       </c>
       <c r="B142" t="n">
-        <v>78579</v>
+        <v>56543</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16511,21 +16511,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16535,10 +16535,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526533.0795019253</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R142" t="n">
-        <v>7127327.385405498</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16607,10 +16607,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480130</v>
+        <v>111480175</v>
       </c>
       <c r="B143" t="n">
-        <v>56543</v>
+        <v>78579</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16623,21 +16623,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16647,10 +16647,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526894.4666650819</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R143" t="n">
-        <v>7126754.194508768</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111475401</v>
+        <v>111475408</v>
       </c>
       <c r="B2" t="n">
-        <v>78605</v>
+        <v>96368</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526359.6403407991</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R2" t="n">
-        <v>7127153.358349039</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111475425</v>
+        <v>111475417</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526350.4355532593</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R3" t="n">
-        <v>7127161.102700913</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111475402</v>
+        <v>111477244</v>
       </c>
       <c r="B4" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526628.5804176665</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R4" t="n">
-        <v>7126900.974891847</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477152</v>
+        <v>111477148</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>103273</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>221725</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526790.9213834098</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R5" t="n">
-        <v>7126799.80228779</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111478260</v>
+        <v>111477267</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526746.6216685539</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R6" t="n">
-        <v>7126889.392351454</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477250</v>
+        <v>111477252</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>76513</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>314</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526770.2400840909</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R7" t="n">
-        <v>7126775.715713345</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477263</v>
+        <v>111477250</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526733.557377478</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R8" t="n">
-        <v>7126840.16255208</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111475421</v>
+        <v>111477273</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,37 +1480,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526790.5782004726</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R9" t="n">
-        <v>7126588.978197531</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111475404</v>
+        <v>111481797</v>
       </c>
       <c r="B10" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,41 +1588,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526536.8261819695</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R10" t="n">
-        <v>7127296.56142472</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111481784</v>
+        <v>111481790</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526513.0667874835</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R11" t="n">
-        <v>7127276.365312753</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481792</v>
+        <v>111477283</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526807.5942992838</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R12" t="n">
-        <v>7126734.31175267</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1900,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111475407</v>
+        <v>111477234</v>
       </c>
       <c r="B13" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,41 +1924,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526761.6737779978</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R13" t="n">
-        <v>7126659.581915028</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111475430</v>
+        <v>111477269</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,37 +2040,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526904.464734747</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R14" t="n">
-        <v>7126755.585814431</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111475418</v>
+        <v>111477217</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526641.5754754087</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R15" t="n">
-        <v>7126908.041672549</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2236,22 +2236,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111475396</v>
+        <v>111477209</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,45 +2264,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526760.8615308162</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R16" t="n">
-        <v>7126552.639882971</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2356,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477264</v>
+        <v>111481784</v>
       </c>
       <c r="B17" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2384,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526756.4007905088</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R17" t="n">
-        <v>7126765.59805485</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2468,22 +2460,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111477256</v>
+        <v>111481785</v>
       </c>
       <c r="B18" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2496,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526618.6342781226</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R18" t="n">
-        <v>7127447.634256044</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2580,22 +2572,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481794</v>
+        <v>111481795</v>
       </c>
       <c r="B19" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2604,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2632,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526759.9373603656</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R19" t="n">
-        <v>7126859.516619125</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2704,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481791</v>
+        <v>111475428</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2720,37 +2712,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526766.8104247742</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R20" t="n">
-        <v>7126719.612825709</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2804,22 +2796,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111481790</v>
+        <v>111475409</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2828,41 +2820,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526748.151006726</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R21" t="n">
-        <v>7126763.35306516</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2916,22 +2908,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111477282</v>
+        <v>111481794</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2940,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2968,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526753.3544461714</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R22" t="n">
-        <v>7126765.571603379</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3028,22 +3020,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111477232</v>
+        <v>111477156</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>78611</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3052,41 +3044,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526843.7421112995</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R23" t="n">
-        <v>7126731.583709671</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3140,22 +3132,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111477203</v>
+        <v>111477278</v>
       </c>
       <c r="B24" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3164,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3192,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526589.7304216913</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R24" t="n">
-        <v>7127368.290746101</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3264,7 +3256,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111477261</v>
+        <v>111477197</v>
       </c>
       <c r="B25" t="n">
         <v>76513</v>
@@ -3304,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526719.7991456056</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R25" t="n">
-        <v>7126870.904059933</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3376,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111477148</v>
+        <v>111478257</v>
       </c>
       <c r="B26" t="n">
-        <v>103273</v>
+        <v>96368</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3392,34 +3384,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221725</v>
+        <v>221952</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526681.1812848106</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R26" t="n">
-        <v>7126857.529652008</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3476,22 +3468,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477151</v>
+        <v>111475398</v>
       </c>
       <c r="B27" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3504,34 +3496,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526778.943100647</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R27" t="n">
-        <v>7126725.803744309</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3588,22 +3588,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111477284</v>
+        <v>111475411</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3616,37 +3616,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526737.8549399736</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R28" t="n">
-        <v>7126796.298664714</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3700,12 +3700,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477149</v>
+        <v>111477154</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3844,41 +3844,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526773.3997162007</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R30" t="n">
-        <v>7126762.703002418</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3929,7 +3926,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3948,10 +3944,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477279</v>
+        <v>111477262</v>
       </c>
       <c r="B31" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3964,21 +3960,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3988,10 +3984,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526633.8889021962</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R31" t="n">
-        <v>7126891.023735311</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4060,10 +4056,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477262</v>
+        <v>111477286</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4076,21 +4072,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4100,10 +4096,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526874.3871010491</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R32" t="n">
-        <v>7126760.97409881</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4172,10 +4168,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111475429</v>
+        <v>111477270</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4188,37 +4184,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526801.3654488353</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R33" t="n">
-        <v>7126749.905904328</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4272,22 +4268,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475395</v>
+        <v>111477155</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4300,42 +4296,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526541.4140344799</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R34" t="n">
-        <v>7127319.634518873</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4392,22 +4380,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111477277</v>
+        <v>111475418</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4420,37 +4408,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526643.3394980798</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R35" t="n">
-        <v>7126855.0288987</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4504,22 +4492,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477226</v>
+        <v>111475422</v>
       </c>
       <c r="B36" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4532,37 +4520,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526776.5518203602</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R36" t="n">
-        <v>7126750.55952362</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4616,22 +4604,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475415</v>
+        <v>111475429</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4644,21 +4632,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4668,10 +4656,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526334.1646390257</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R37" t="n">
-        <v>7127180.955839636</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4740,10 +4728,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475406</v>
+        <v>111475423</v>
       </c>
       <c r="B38" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4752,25 +4740,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4780,10 +4768,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526628.8057909949</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R38" t="n">
-        <v>7126874.89753825</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4852,7 +4840,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475424</v>
+        <v>111475427</v>
       </c>
       <c r="B39" t="n">
         <v>77515</v>
@@ -4892,10 +4880,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526562.7125770835</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R39" t="n">
-        <v>7127372.838116477</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4964,10 +4952,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475405</v>
+        <v>111477236</v>
       </c>
       <c r="B40" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4976,41 +4964,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526402.8306512056</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R40" t="n">
-        <v>7127140.689653471</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5064,22 +5052,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111477269</v>
+        <v>111477249</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5092,21 +5080,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5116,10 +5104,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526734.8568705021</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R41" t="n">
-        <v>7126891.028866394</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5188,7 +5176,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111477215</v>
+        <v>111477220</v>
       </c>
       <c r="B42" t="n">
         <v>73696</v>
@@ -5228,10 +5216,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526783.5980437086</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R42" t="n">
-        <v>7126741.057903775</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5300,10 +5288,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111475400</v>
+        <v>111481788</v>
       </c>
       <c r="B43" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5312,41 +5300,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526334.1646390257</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R43" t="n">
-        <v>7127180.955839636</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5400,22 +5388,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111475408</v>
+        <v>111481793</v>
       </c>
       <c r="B44" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5428,37 +5416,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526807.9596872492</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R44" t="n">
-        <v>7126492.190286946</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5512,22 +5500,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111475398</v>
+        <v>111481781</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5536,49 +5524,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526795.3655874674</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R45" t="n">
-        <v>7126589.019822755</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5632,22 +5612,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111475412</v>
+        <v>111481792</v>
       </c>
       <c r="B46" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5660,37 +5640,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526788.4021154585</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R46" t="n">
-        <v>7126588.959279429</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5744,22 +5724,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111481788</v>
+        <v>111477149</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5772,37 +5752,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526710.6246283256</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R47" t="n">
-        <v>7126824.750457344</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5850,28 +5833,29 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111481795</v>
+        <v>111475404</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5880,41 +5864,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526578.1343758366</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R48" t="n">
-        <v>7126947.046857893</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5968,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111477230</v>
+        <v>111481796</v>
       </c>
       <c r="B49" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5996,21 +5980,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6020,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526743.0583307605</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R49" t="n">
-        <v>7126798.517162403</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6080,22 +6064,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477150</v>
+        <v>111481778</v>
       </c>
       <c r="B50" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6108,37 +6092,45 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526575.9457110572</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R50" t="n">
-        <v>7127352.092021598</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6192,22 +6184,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111477283</v>
+        <v>111477151</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6220,37 +6212,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526794.8191702637</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R51" t="n">
-        <v>7126802.009519467</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6304,22 +6296,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111477234</v>
+        <v>111478258</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6328,25 +6320,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6356,13 +6348,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526638.6946075994</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R52" t="n">
-        <v>7126888.892006672</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6416,19 +6408,19 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111481777</v>
+        <v>111475396</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6472,17 +6464,17 @@
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526576.6359760575</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R53" t="n">
-        <v>7127372.958205946</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6536,22 +6528,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111478258</v>
+        <v>111475420</v>
       </c>
       <c r="B54" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6560,38 +6552,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526486.4442992809</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R54" t="n">
-        <v>7127234.849028585</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6648,22 +6640,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111477155</v>
+        <v>111481780</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6672,41 +6664,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526757.7867624827</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R55" t="n">
-        <v>7126806.469043032</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6760,19 +6752,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111481787</v>
+        <v>111481791</v>
       </c>
       <c r="B56" t="n">
         <v>78578</v>
@@ -6812,10 +6804,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526745.1073277664</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R56" t="n">
-        <v>7126863.299787878</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6884,7 +6876,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111481785</v>
+        <v>111475412</v>
       </c>
       <c r="B57" t="n">
         <v>78579</v>
@@ -6920,17 +6912,17 @@
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526629.4958394679</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R57" t="n">
-        <v>7126895.766960836</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6984,22 +6976,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111481779</v>
+        <v>111475401</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7008,49 +7000,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526741.1907235509</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R58" t="n">
-        <v>7126863.265793501</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7104,22 +7088,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111477278</v>
+        <v>111477199</v>
       </c>
       <c r="B59" t="n">
-        <v>96368</v>
+        <v>76513</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7128,25 +7112,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221952</v>
+        <v>314</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7156,10 +7140,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526711.8604537799</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R59" t="n">
-        <v>7126883.005616191</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7228,10 +7212,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111477209</v>
+        <v>111481777</v>
       </c>
       <c r="B60" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7244,34 +7228,42 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526709.7900707464</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R60" t="n">
-        <v>7126870.817277474</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7328,22 +7320,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111477153</v>
+        <v>111475407</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7352,38 +7344,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526793.9223398847</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R61" t="n">
-        <v>7126805.044392107</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7440,22 +7432,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111475411</v>
+        <v>111475402</v>
       </c>
       <c r="B62" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7464,25 +7456,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7492,10 +7484,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526633.8626035146</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R62" t="n">
-        <v>7126894.066088703</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7564,10 +7556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475422</v>
+        <v>111475406</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7576,25 +7568,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7604,10 +7596,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526830.8338072833</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R63" t="n">
-        <v>7126714.5188105</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7676,10 +7668,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111475420</v>
+        <v>111475424</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7692,21 +7684,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7716,10 +7708,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526782.4503789117</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R64" t="n">
-        <v>7126672.803025675</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7788,10 +7780,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111475409</v>
+        <v>111475425</v>
       </c>
       <c r="B65" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7800,25 +7792,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7828,10 +7820,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526801.3654488353</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R65" t="n">
-        <v>7126749.905904328</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7900,10 +7892,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111478259</v>
+        <v>111477215</v>
       </c>
       <c r="B66" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7912,25 +7904,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7940,13 +7932,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526622.093687591</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R66" t="n">
-        <v>7126946.557083774</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8000,22 +7992,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111481796</v>
+        <v>111477241</v>
       </c>
       <c r="B67" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8028,21 +8020,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8052,10 +8044,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526608.5136703107</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R67" t="n">
-        <v>7126906.452016207</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8112,22 +8104,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111481781</v>
+        <v>111481779</v>
       </c>
       <c r="B68" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8136,38 +8128,46 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526703.4301487049</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R68" t="n">
-        <v>7126901.622689946</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8236,10 +8236,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111477247</v>
+        <v>111477153</v>
       </c>
       <c r="B69" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8252,37 +8252,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526791.4164464728</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R69" t="n">
-        <v>7126742.86457725</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8336,22 +8336,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111475419</v>
+        <v>111475430</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8364,21 +8364,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8388,10 +8388,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526750.3609286405</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R70" t="n">
-        <v>7126759.460191521</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111481797</v>
+        <v>111475415</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8476,37 +8476,37 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526724.4788811355</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R71" t="n">
-        <v>7126833.129197065</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8560,22 +8560,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111475427</v>
+        <v>111478260</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8584,38 +8584,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526432.8127084307</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R72" t="n">
-        <v>7127044.459845332</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8672,22 +8672,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111477156</v>
+        <v>111475419</v>
       </c>
       <c r="B73" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8696,38 +8696,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526783.9659439438</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R73" t="n">
-        <v>7126798.872483394</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8784,22 +8784,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111477154</v>
+        <v>111475405</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8808,38 +8808,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526784.7834235848</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R74" t="n">
-        <v>7126804.964935203</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8896,22 +8896,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111478257</v>
+        <v>111475421</v>
       </c>
       <c r="B75" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8920,38 +8920,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526504.6649119424</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R75" t="n">
-        <v>7127291.938577281</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9008,19 +9008,19 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111475417</v>
+        <v>111477152</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9056,14 +9056,14 @@
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526628.5804176665</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R76" t="n">
-        <v>7126900.974891847</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9120,22 +9120,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111481793</v>
+        <v>111475400</v>
       </c>
       <c r="B77" t="n">
-        <v>78612</v>
+        <v>78605</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9148,37 +9148,37 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526742.0271302022</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R77" t="n">
-        <v>7126867.184979456</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S77" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9232,22 +9232,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111481780</v>
+        <v>111478259</v>
       </c>
       <c r="B78" t="n">
-        <v>78605</v>
+        <v>96368</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9260,21 +9260,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9284,13 +9284,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526629.4958394679</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R78" t="n">
-        <v>7126895.766960836</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9344,19 +9344,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111481778</v>
+        <v>111475395</v>
       </c>
       <c r="B79" t="n">
         <v>56398</v>
@@ -9400,17 +9400,17 @@
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526632.5946496209</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R79" t="n">
-        <v>7126889.708583741</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9464,22 +9464,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111475423</v>
+        <v>111477150</v>
       </c>
       <c r="B80" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9492,34 +9492,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526627.7975810008</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R80" t="n">
-        <v>7127444.671415905</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9576,22 +9576,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111475428</v>
+        <v>111481787</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9604,37 +9604,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526818.0723325044</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R81" t="n">
-        <v>7126530.532625454</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480505</v>
+        <v>111492249</v>
       </c>
       <c r="B82" t="n">
-        <v>78611</v>
+        <v>89793</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9716,21 +9716,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6463</v>
+        <v>4217</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526660.4581602761</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R82" t="n">
-        <v>7126838.225198075</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111480285</v>
+        <v>111492243</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9828,21 +9828,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526736.9537197551</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R83" t="n">
-        <v>7126649.369495919</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9912,22 +9912,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480441</v>
+        <v>111480285</v>
       </c>
       <c r="B84" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9940,21 +9940,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526594.1567224554</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R84" t="n">
-        <v>7126855.473320428</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480333</v>
+        <v>111492218</v>
       </c>
       <c r="B85" t="n">
-        <v>78612</v>
+        <v>76513</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10048,25 +10048,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6464</v>
+        <v>314</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526734.811617541</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R85" t="n">
-        <v>7126645.438707692</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10136,22 +10136,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492249</v>
+        <v>111480483</v>
       </c>
       <c r="B86" t="n">
-        <v>89793</v>
+        <v>88899</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,25 +10160,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4217</v>
+        <v>3286</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10188,10 +10188,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526847.6058643057</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R86" t="n">
-        <v>7126737.702852693</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10248,19 +10248,19 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492224</v>
+        <v>111492222</v>
       </c>
       <c r="B87" t="n">
         <v>73696</v>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526596.6363403485</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R87" t="n">
-        <v>7127072.382200824</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10365,17 +10365,17 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480420</v>
+        <v>111480331</v>
       </c>
       <c r="B88" t="n">
-        <v>89423</v>
+        <v>78612</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10384,25 +10384,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526825.2556783153</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R88" t="n">
-        <v>7126705.341951311</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10484,10 +10484,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492226</v>
+        <v>111480259</v>
       </c>
       <c r="B89" t="n">
-        <v>73696</v>
+        <v>95538</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10496,25 +10496,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526770.3722498151</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R89" t="n">
-        <v>7126760.503332262</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10584,22 +10584,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492233</v>
+        <v>111492232</v>
       </c>
       <c r="B90" t="n">
-        <v>78512</v>
+        <v>78579</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10608,25 +10608,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10636,10 +10636,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526789.6416554189</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R90" t="n">
-        <v>7126746.761226696</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10708,10 +10708,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492231</v>
+        <v>111480505</v>
       </c>
       <c r="B91" t="n">
-        <v>78605</v>
+        <v>78611</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10724,21 +10724,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10748,10 +10748,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526761.6090650371</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R91" t="n">
-        <v>7126817.368890626</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10808,22 +10808,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111480380</v>
+        <v>111480503</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10832,25 +10832,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526749.2830160656</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R92" t="n">
-        <v>7126783.357779803</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10932,10 +10932,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480329</v>
+        <v>111480525</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>76918</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10948,21 +10948,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>6437</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10972,10 +10972,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526797.7359805232</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R93" t="n">
-        <v>7126716.838867592</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11026,7 +11026,6 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11045,10 +11044,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111492240</v>
+        <v>111480495</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11057,50 +11056,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526812.9225573848</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R94" t="n">
-        <v>7126722.187129569</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11151,29 +11138,28 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480500</v>
+        <v>111480420</v>
       </c>
       <c r="B95" t="n">
-        <v>78611</v>
+        <v>89423</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11182,25 +11168,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11210,10 +11196,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526549.4044071162</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R95" t="n">
-        <v>7126846.828840361</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11282,10 +11268,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480286</v>
+        <v>111492225</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11298,21 +11284,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11322,10 +11308,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526772.4066721974</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R96" t="n">
-        <v>7126676.627914459</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11382,22 +11368,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111492246</v>
+        <v>111480329</v>
       </c>
       <c r="B97" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11410,21 +11396,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11434,10 +11420,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526721.4037833994</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R97" t="n">
-        <v>7126986.969393951</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11488,28 +11474,29 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111492247</v>
+        <v>111492242</v>
       </c>
       <c r="B98" t="n">
-        <v>78467</v>
+        <v>89423</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11518,25 +11505,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6457</v>
+        <v>5432</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11546,10 +11533,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526777.8204396158</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R98" t="n">
-        <v>7126804.904414805</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11618,10 +11605,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111492222</v>
+        <v>111492241</v>
       </c>
       <c r="B99" t="n">
-        <v>73696</v>
+        <v>89401</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11634,21 +11621,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11658,10 +11645,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526598.1368079525</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R99" t="n">
-        <v>7127100.211284383</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11723,17 +11710,17 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492230</v>
+        <v>111480440</v>
       </c>
       <c r="B100" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11742,25 +11729,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11770,10 +11757,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526575.169212656</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R100" t="n">
-        <v>7127341.220564325</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11830,22 +11817,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492228</v>
+        <v>111492238</v>
       </c>
       <c r="B101" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11858,21 +11845,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11882,10 +11869,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526910.4891168335</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R101" t="n">
-        <v>7126763.462551801</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11954,10 +11941,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480260</v>
+        <v>111492240</v>
       </c>
       <c r="B102" t="n">
-        <v>95538</v>
+        <v>96348</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11966,38 +11953,50 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>221941</v>
+        <v>220787</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526443.6441876995</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R102" t="n">
-        <v>7127151.470534382</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12048,28 +12047,29 @@
       <c r="AE102" t="b">
         <v>0</v>
       </c>
+      <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="b">
         <v>0</v>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480507</v>
+        <v>111480380</v>
       </c>
       <c r="B103" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12078,25 +12078,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526894.459077736</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R103" t="n">
-        <v>7126755.063791552</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12178,10 +12178,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480334</v>
+        <v>111480502</v>
       </c>
       <c r="B104" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526894.459077736</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R104" t="n">
-        <v>7126755.063791552</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492241</v>
+        <v>111492226</v>
       </c>
       <c r="B105" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12306,21 +12306,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12330,10 +12330,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526475.7192807253</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R105" t="n">
-        <v>7127216.937948915</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111480527</v>
+        <v>111492246</v>
       </c>
       <c r="B106" t="n">
-        <v>76918</v>
+        <v>77515</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12418,21 +12418,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526547.1610996595</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R106" t="n">
-        <v>7126854.633392128</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12502,22 +12502,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480379</v>
+        <v>111492235</v>
       </c>
       <c r="B107" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12526,25 +12526,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12554,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526799.075599193</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R107" t="n">
-        <v>7126712.93839974</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12614,22 +12614,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492242</v>
+        <v>111492234</v>
       </c>
       <c r="B108" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12642,21 +12642,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526774.0510519799</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R108" t="n">
-        <v>7126787.919595245</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111492235</v>
+        <v>111492231</v>
       </c>
       <c r="B109" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12750,25 +12750,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526385.5844560881</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R109" t="n">
-        <v>7127223.552981463</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492218</v>
+        <v>111480521</v>
       </c>
       <c r="B110" t="n">
-        <v>76513</v>
+        <v>76495</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>314</v>
+        <v>6487</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12890,10 +12890,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526596.6363403485</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R110" t="n">
-        <v>7127072.382200824</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12950,22 +12950,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111492221</v>
+        <v>111480389</v>
       </c>
       <c r="B111" t="n">
-        <v>73696</v>
+        <v>89401</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12978,21 +12978,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13002,10 +13002,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526603.5760295368</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R111" t="n">
-        <v>7127125.466399673</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13062,12 +13062,12 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
@@ -13186,10 +13186,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111492236</v>
+        <v>111492228</v>
       </c>
       <c r="B113" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13202,21 +13202,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526602.6161355394</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R113" t="n">
-        <v>7126984.637523879</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13298,10 +13298,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111492232</v>
+        <v>111492245</v>
       </c>
       <c r="B114" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13314,21 +13314,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13338,10 +13338,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526602.6161355394</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R114" t="n">
-        <v>7126984.637523879</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13410,10 +13410,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111492234</v>
+        <v>111480382</v>
       </c>
       <c r="B115" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13422,25 +13422,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526575.169212656</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R115" t="n">
-        <v>7127341.220564325</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13510,22 +13510,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111480482</v>
+        <v>111492247</v>
       </c>
       <c r="B116" t="n">
-        <v>88899</v>
+        <v>78467</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13534,25 +13534,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3286</v>
+        <v>6457</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13562,10 +13562,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526688.4566125805</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R116" t="n">
-        <v>7126821.515715363</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13622,22 +13622,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111480506</v>
+        <v>111492239</v>
       </c>
       <c r="B117" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13646,38 +13646,50 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526737.8241366684</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R117" t="n">
-        <v>7126649.377048474</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13728,18 +13740,19 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
+      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
@@ -13858,10 +13871,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111480390</v>
+        <v>111492230</v>
       </c>
       <c r="B119" t="n">
-        <v>89401</v>
+        <v>78605</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13870,25 +13883,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1108</v>
+        <v>6462</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13898,10 +13911,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526658.5471790246</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R119" t="n">
-        <v>7126908.188469252</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13958,22 +13971,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111480521</v>
+        <v>111492224</v>
       </c>
       <c r="B120" t="n">
-        <v>76495</v>
+        <v>73696</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13986,21 +13999,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6487</v>
+        <v>6440</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14010,10 +14023,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526547.1610996595</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R120" t="n">
-        <v>7126854.633392128</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14070,22 +14083,22 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492239</v>
+        <v>111480289</v>
       </c>
       <c r="B121" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14094,50 +14107,38 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526801.7821608522</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R121" t="n">
-        <v>7126802.070078265</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14188,29 +14189,28 @@
       <c r="AE121" t="b">
         <v>0</v>
       </c>
-      <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="b">
         <v>0</v>
       </c>
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111492245</v>
+        <v>111480332</v>
       </c>
       <c r="B122" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14219,25 +14219,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526603.415572185</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R122" t="n">
-        <v>7126841.644113425</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14307,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111492238</v>
+        <v>111480500</v>
       </c>
       <c r="B123" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14331,25 +14331,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526774.8534470783</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R123" t="n">
-        <v>7126795.750608556</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14419,22 +14419,22 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492243</v>
+        <v>111492233</v>
       </c>
       <c r="B124" t="n">
-        <v>89423</v>
+        <v>78512</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14443,25 +14443,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526790.3722218492</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R124" t="n">
-        <v>7126762.850523639</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492225</v>
+        <v>111492221</v>
       </c>
       <c r="B125" t="n">
         <v>73696</v>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526609.6312623346</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R125" t="n">
-        <v>7126978.613118013</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14648,17 +14648,17 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111480494</v>
+        <v>111492236</v>
       </c>
       <c r="B126" t="n">
-        <v>85715</v>
+        <v>78578</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14671,21 +14671,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526532.2429613075</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R126" t="n">
-        <v>7127323.466861598</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14755,22 +14755,22 @@
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480208</v>
+        <v>111480115</v>
       </c>
       <c r="B127" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14779,38 +14779,46 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526454.4890384678</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R127" t="n">
-        <v>7127155.475193184</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14879,10 +14887,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480172</v>
+        <v>111480207</v>
       </c>
       <c r="B128" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14891,25 +14899,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14919,10 +14927,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526660.4581602761</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R128" t="n">
-        <v>7126838.225198075</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14991,10 +14999,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480115</v>
+        <v>111480061</v>
       </c>
       <c r="B129" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15007,42 +15015,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526582.5118723252</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R129" t="n">
-        <v>7126843.202344363</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15104,14 +15104,14 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480181</v>
+        <v>111480179</v>
       </c>
       <c r="B130" t="n">
         <v>78579</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526762.5781673936</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R130" t="n">
-        <v>7126655.677579562</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480110</v>
+        <v>111480117</v>
       </c>
       <c r="B131" t="n">
         <v>56398</v>
@@ -15343,10 +15343,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480173</v>
+        <v>111480130</v>
       </c>
       <c r="B132" t="n">
-        <v>78579</v>
+        <v>56543</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15359,21 +15359,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15383,10 +15383,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526736.9612626054</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R132" t="n">
-        <v>7126648.50018348</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480111</v>
+        <v>111480169</v>
       </c>
       <c r="B133" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15471,42 +15471,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526775.4342201974</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R133" t="n">
-        <v>7126678.827645465</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15575,10 +15567,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480065</v>
+        <v>111480206</v>
       </c>
       <c r="B134" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15587,25 +15579,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -15615,10 +15607,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526618.0915837138</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R134" t="n">
-        <v>7126855.679999291</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15807,7 +15799,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480176</v>
+        <v>111480170</v>
       </c>
       <c r="B136" t="n">
         <v>78579</v>
@@ -15919,10 +15911,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480114</v>
+        <v>111480032</v>
       </c>
       <c r="B137" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15935,42 +15927,34 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526452.5306142806</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R137" t="n">
-        <v>7127231.515399783</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16039,10 +16023,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480109</v>
+        <v>111480181</v>
       </c>
       <c r="B138" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16055,42 +16039,34 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526641.1372953646</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R138" t="n">
-        <v>7126858.052473077</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16159,10 +16135,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480209</v>
+        <v>111480067</v>
       </c>
       <c r="B139" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16171,25 +16147,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16199,10 +16175,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526894.4742524296</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R139" t="n">
-        <v>7126753.32522574</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16271,7 +16247,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480171</v>
+        <v>111480173</v>
       </c>
       <c r="B140" t="n">
         <v>78579</v>
@@ -16311,10 +16287,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526546.2907408345</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R140" t="n">
-        <v>7126854.625893313</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16383,10 +16359,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480032</v>
+        <v>111480118</v>
       </c>
       <c r="B141" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16399,34 +16375,42 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526450.6922041279</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R141" t="n">
-        <v>7127141.534820292</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16495,10 +16479,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480130</v>
+        <v>111480106</v>
       </c>
       <c r="B142" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16511,34 +16495,42 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526894.4666650819</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R142" t="n">
-        <v>7126754.194508768</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16607,7 +16599,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480175</v>
+        <v>111480171</v>
       </c>
       <c r="B143" t="n">
         <v>78579</v>
@@ -16647,10 +16639,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526533.0795019253</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R143" t="n">
-        <v>7127327.385405498</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16719,10 +16711,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480061</v>
+        <v>111480109</v>
       </c>
       <c r="B144" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16735,34 +16727,42 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526549.2920565202</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R144" t="n">
-        <v>7126859.867662492</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="AX144" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY144" t="inlineStr"/>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477148</v>
+        <v>111477267</v>
       </c>
       <c r="B5" t="n">
-        <v>103273</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,41 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221725</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526681.1812848106</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R5" t="n">
-        <v>7126857.529652008</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477267</v>
+        <v>111477252</v>
       </c>
       <c r="B6" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526776.5518203602</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R6" t="n">
-        <v>7126750.55952362</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477252</v>
+        <v>111477250</v>
       </c>
       <c r="B7" t="n">
-        <v>76513</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526589.7304216913</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R7" t="n">
-        <v>7127368.290746101</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477250</v>
+        <v>111477273</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526770.2400840909</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R8" t="n">
-        <v>7126775.715713345</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111477273</v>
+        <v>111481797</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526843.7421112995</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R9" t="n">
-        <v>7126731.583709671</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481797</v>
+        <v>111481790</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526724.4788811355</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R10" t="n">
-        <v>7126833.129197065</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111481790</v>
+        <v>111477148</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>103273</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,41 +1700,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>221725</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526748.151006726</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R11" t="n">
-        <v>7126763.35306516</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,12 +1788,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111481794</v>
+        <v>111478257</v>
       </c>
       <c r="B22" t="n">
-        <v>78612</v>
+        <v>96368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,21 +2936,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526759.9373603656</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R22" t="n">
-        <v>7126859.516619125</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3020,22 +3020,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111477156</v>
+        <v>111481794</v>
       </c>
       <c r="B23" t="n">
-        <v>78611</v>
+        <v>78612</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3048,37 +3048,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6463</v>
+        <v>6464</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526783.9659439438</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R23" t="n">
-        <v>7126798.872483394</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3132,22 +3132,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111477278</v>
+        <v>111475398</v>
       </c>
       <c r="B24" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3156,41 +3156,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526711.8604537799</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R24" t="n">
-        <v>7126883.005616191</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3244,22 +3252,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111477197</v>
+        <v>111475411</v>
       </c>
       <c r="B25" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,37 +3280,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526618.6342781226</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R25" t="n">
-        <v>7127447.634256044</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3356,19 +3364,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111478257</v>
+        <v>111477278</v>
       </c>
       <c r="B26" t="n">
         <v>96368</v>
@@ -3408,13 +3416,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526504.6649119424</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R26" t="n">
-        <v>7127291.938577281</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3468,22 +3476,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111475398</v>
+        <v>111477197</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3496,45 +3504,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526795.3655874674</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R27" t="n">
-        <v>7126589.019822755</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3588,22 +3588,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111475411</v>
+        <v>111477156</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3612,38 +3612,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526633.8626035146</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R28" t="n">
-        <v>7126894.066088703</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3700,12 +3700,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111477155</v>
+        <v>111475418</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4296,34 +4296,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526757.7867624827</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R34" t="n">
-        <v>7126806.469043032</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4380,22 +4380,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111475418</v>
+        <v>111475422</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,21 +4408,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526641.5754754087</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R35" t="n">
-        <v>7126908.041672549</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111475422</v>
+        <v>111475429</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4520,21 +4520,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526830.8338072833</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R36" t="n">
-        <v>7126714.5188105</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475429</v>
+        <v>111477155</v>
       </c>
       <c r="B37" t="n">
         <v>77515</v>
@@ -4652,14 +4652,14 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526801.3654488353</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R37" t="n">
-        <v>7126749.905904328</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4716,12 +4716,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -10260,10 +10260,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492222</v>
+        <v>111480331</v>
       </c>
       <c r="B87" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10272,25 +10272,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526598.1368079525</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R87" t="n">
-        <v>7127100.211284383</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10360,22 +10360,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480331</v>
+        <v>111480259</v>
       </c>
       <c r="B88" t="n">
-        <v>78612</v>
+        <v>95538</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10388,21 +10388,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6464</v>
+        <v>221941</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526734.811617541</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R88" t="n">
-        <v>7126645.438707692</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10477,17 +10477,17 @@
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480259</v>
+        <v>111492222</v>
       </c>
       <c r="B89" t="n">
-        <v>95538</v>
+        <v>73696</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10496,25 +10496,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526443.6441876995</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R89" t="n">
-        <v>7127151.470534382</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10584,12 +10584,12 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
@@ -11829,10 +11829,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492238</v>
+        <v>111492226</v>
       </c>
       <c r="B101" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11845,21 +11845,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526774.8534470783</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R101" t="n">
-        <v>7126795.750608556</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11941,10 +11941,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111492240</v>
+        <v>111492238</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11953,50 +11953,38 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526812.9225573848</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R102" t="n">
-        <v>7126722.187129569</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12047,7 +12035,6 @@
       <c r="AE102" t="b">
         <v>0</v>
       </c>
-      <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="b">
         <v>0</v>
       </c>
@@ -12059,14 +12046,14 @@
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480380</v>
+        <v>111492240</v>
       </c>
       <c r="B103" t="n">
         <v>96348</v>
@@ -12099,17 +12086,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526749.2830160656</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R103" t="n">
-        <v>7126783.357779803</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12160,28 +12159,29 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
+      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480502</v>
+        <v>111480380</v>
       </c>
       <c r="B104" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12190,25 +12190,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526737.8241366684</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R104" t="n">
-        <v>7126649.377048474</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492226</v>
+        <v>111480502</v>
       </c>
       <c r="B105" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12302,25 +12302,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12330,10 +12330,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526770.3722498151</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R105" t="n">
-        <v>7126760.503332262</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12390,12 +12390,12 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
@@ -13871,10 +13871,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492230</v>
+        <v>111492224</v>
       </c>
       <c r="B119" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13883,25 +13883,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13911,10 +13911,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526575.169212656</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R119" t="n">
-        <v>7127341.220564325</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13983,10 +13983,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492224</v>
+        <v>111492230</v>
       </c>
       <c r="B120" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13995,25 +13995,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14023,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526596.6363403485</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R120" t="n">
-        <v>7127072.382200824</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111475408</v>
+        <v>111475423</v>
       </c>
       <c r="B2" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526807.9596872492</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R2" t="n">
-        <v>7126492.190286946</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111475417</v>
+        <v>111475400</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526628.5804176665</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R3" t="n">
-        <v>7126900.974891847</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111477244</v>
+        <v>111475396</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,37 +920,45 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526753.3544461714</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R4" t="n">
-        <v>7126765.571603379</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1012,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477267</v>
+        <v>111475402</v>
       </c>
       <c r="B5" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,41 +1036,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526776.5518203602</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R5" t="n">
-        <v>7126750.55952362</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1124,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477252</v>
+        <v>111481780</v>
       </c>
       <c r="B6" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526589.7304216913</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R6" t="n">
-        <v>7127368.290746101</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1228,22 +1236,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477250</v>
+        <v>111477283</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1264,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526770.2400840909</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R7" t="n">
-        <v>7126775.715713345</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477273</v>
+        <v>111477252</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>76513</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1376,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>314</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526843.7421112995</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R8" t="n">
-        <v>7126731.583709671</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481797</v>
+        <v>111477215</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1488,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526724.4788811355</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R9" t="n">
-        <v>7126833.129197065</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1564,22 +1572,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481790</v>
+        <v>111477263</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526748.151006726</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R10" t="n">
-        <v>7126763.35306516</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1676,22 +1684,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111477148</v>
+        <v>111477270</v>
       </c>
       <c r="B11" t="n">
-        <v>103273</v>
+        <v>73696</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,41 +1708,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221725</v>
+        <v>6440</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526681.1812848106</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R11" t="n">
-        <v>7126857.529652008</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,22 +1796,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111477283</v>
+        <v>111475404</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,41 +1820,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526794.8191702637</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R12" t="n">
-        <v>7126802.009519467</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1900,22 +1908,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111477234</v>
+        <v>111475417</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,37 +1936,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526638.6946075994</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R13" t="n">
-        <v>7126888.892006672</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2012,22 +2020,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111477269</v>
+        <v>111477148</v>
       </c>
       <c r="B14" t="n">
-        <v>73696</v>
+        <v>103273</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,41 +2044,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>221725</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526734.8568705021</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R14" t="n">
-        <v>7126891.028866394</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2124,22 +2132,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477217</v>
+        <v>111477234</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2160,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526756.4007905088</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R15" t="n">
-        <v>7126765.59805485</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2248,10 +2256,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111477209</v>
+        <v>111477156</v>
       </c>
       <c r="B16" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,41 +2268,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526709.7900707464</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R16" t="n">
-        <v>7126870.817277474</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2348,22 +2356,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111481784</v>
+        <v>111477217</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2384,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526513.0667874835</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R17" t="n">
-        <v>7127276.365312753</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2460,22 +2468,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481785</v>
+        <v>111477232</v>
       </c>
       <c r="B18" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2496,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526629.4958394679</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R18" t="n">
-        <v>7126895.766960836</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2572,22 +2580,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481795</v>
+        <v>111481781</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2604,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2632,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526578.1343758366</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R19" t="n">
-        <v>7126947.046857893</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2696,10 +2704,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111475428</v>
+        <v>111477279</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,37 +2720,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526818.0723325044</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R20" t="n">
-        <v>7126530.532625454</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2796,22 +2804,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111475409</v>
+        <v>111477250</v>
       </c>
       <c r="B21" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,41 +2828,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526801.3654488353</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R21" t="n">
-        <v>7126749.905904328</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2908,22 +2916,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111478257</v>
+        <v>111477154</v>
       </c>
       <c r="B22" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,38 +2940,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526504.6649119424</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R22" t="n">
-        <v>7127291.938577281</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3020,22 +3028,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481794</v>
+        <v>111477151</v>
       </c>
       <c r="B23" t="n">
-        <v>78612</v>
+        <v>73696</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3044,41 +3052,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526759.9373603656</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R23" t="n">
-        <v>7126859.516619125</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3132,22 +3140,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111475398</v>
+        <v>111477261</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,45 +3168,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526795.3655874674</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R24" t="n">
-        <v>7126589.019822755</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3252,22 +3252,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111475411</v>
+        <v>111481790</v>
       </c>
       <c r="B25" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3280,37 +3280,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526633.8626035146</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R25" t="n">
-        <v>7126894.066088703</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3364,22 +3364,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111477278</v>
+        <v>111475419</v>
       </c>
       <c r="B26" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3388,41 +3388,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526711.8604537799</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R26" t="n">
-        <v>7126883.005616191</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3476,22 +3476,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477197</v>
+        <v>111477286</v>
       </c>
       <c r="B27" t="n">
-        <v>76513</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526618.6342781226</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R27" t="n">
-        <v>7127447.634256044</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111477156</v>
+        <v>111481787</v>
       </c>
       <c r="B28" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3612,41 +3612,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526783.9659439438</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R28" t="n">
-        <v>7126798.872483394</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3700,22 +3700,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111475399</v>
+        <v>111481789</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3728,45 +3728,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526448.7861015323</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R29" t="n">
-        <v>7127211.491299792</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3820,22 +3812,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477154</v>
+        <v>111477284</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3844,41 +3836,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526784.7834235848</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R30" t="n">
-        <v>7126804.964935203</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3932,22 +3924,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477262</v>
+        <v>111475427</v>
       </c>
       <c r="B31" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3960,37 +3952,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526874.3871010491</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R31" t="n">
-        <v>7126760.97409881</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4044,22 +4036,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477286</v>
+        <v>111475408</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4068,41 +4060,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526791.4164464728</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R32" t="n">
-        <v>7126742.86457725</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4156,22 +4148,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111477270</v>
+        <v>111475421</v>
       </c>
       <c r="B33" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4184,37 +4176,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526743.0583307605</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R33" t="n">
-        <v>7126798.517162403</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4268,22 +4260,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475418</v>
+        <v>111475395</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4296,34 +4288,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526641.5754754087</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R34" t="n">
-        <v>7126908.041672549</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111475422</v>
+        <v>111477153</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,34 +4408,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526830.8338072833</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R35" t="n">
-        <v>7126714.5188105</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4492,22 +4492,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111475429</v>
+        <v>111477262</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4520,37 +4520,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526801.3654488353</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R36" t="n">
-        <v>7126749.905904328</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4604,22 +4604,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477155</v>
+        <v>111477236</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4632,37 +4632,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526757.7867624827</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R37" t="n">
-        <v>7126806.469043032</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4716,22 +4716,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475423</v>
+        <v>111475407</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4768,10 +4768,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526627.7975810008</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R38" t="n">
-        <v>7127444.671415905</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475427</v>
+        <v>111475405</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4852,25 +4852,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526432.8127084307</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R39" t="n">
-        <v>7127044.459845332</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111477236</v>
+        <v>111477278</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4964,25 +4964,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526643.3394980798</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R40" t="n">
-        <v>7126855.0288987</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5064,10 +5064,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111477249</v>
+        <v>111477209</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5080,21 +5080,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5104,10 +5104,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526737.8549399736</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R41" t="n">
-        <v>7126796.298664714</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111477220</v>
+        <v>111475406</v>
       </c>
       <c r="B42" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5188,41 +5188,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526733.557377478</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R42" t="n">
-        <v>7126840.16255208</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5276,22 +5276,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481788</v>
+        <v>111475411</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5304,37 +5304,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526710.6246283256</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R43" t="n">
-        <v>7126824.750457344</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5388,22 +5388,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111481793</v>
+        <v>111475425</v>
       </c>
       <c r="B44" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5412,41 +5412,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526742.0271302022</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R44" t="n">
-        <v>7126867.184979456</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5500,22 +5500,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481781</v>
+        <v>111481784</v>
       </c>
       <c r="B45" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5524,25 +5524,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526703.4301487049</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R45" t="n">
-        <v>7126901.622689946</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481792</v>
+        <v>111481795</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,21 +5640,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526807.5942992838</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R46" t="n">
-        <v>7126734.31175267</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111477149</v>
+        <v>111475412</v>
       </c>
       <c r="B47" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,37 +5752,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526773.3997162007</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R47" t="n">
-        <v>7126762.703002418</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5833,29 +5830,28 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111475404</v>
+        <v>111475429</v>
       </c>
       <c r="B48" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5860,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5888,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526536.8261819695</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R48" t="n">
-        <v>7127296.56142472</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5964,10 +5960,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111481796</v>
+        <v>111475409</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5976,41 +5972,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526608.5136703107</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R49" t="n">
-        <v>7126906.452016207</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6064,22 +6060,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111481778</v>
+        <v>111481793</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>78612</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,46 +6084,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526632.5946496209</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R50" t="n">
-        <v>7126889.708583741</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6196,10 +6184,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111477151</v>
+        <v>111481797</v>
       </c>
       <c r="B51" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6212,37 +6200,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526778.943100647</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R51" t="n">
-        <v>7126725.803744309</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6296,22 +6284,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111478258</v>
+        <v>111481777</v>
       </c>
       <c r="B52" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6320,41 +6308,49 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526486.4442992809</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R52" t="n">
-        <v>7127234.849028585</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6408,22 +6404,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111475396</v>
+        <v>111477149</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6436,42 +6432,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526760.8615308162</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R53" t="n">
-        <v>7126552.639882971</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6522,28 +6513,29 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111475420</v>
+        <v>111477269</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6556,37 +6548,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526782.4503789117</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R54" t="n">
-        <v>7126672.803025675</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6640,22 +6632,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111481780</v>
+        <v>111477282</v>
       </c>
       <c r="B55" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6664,25 +6656,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6692,10 +6684,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526629.4958394679</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R55" t="n">
-        <v>7126895.766960836</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6752,22 +6744,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111481791</v>
+        <v>111478258</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6776,25 +6768,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6804,13 +6796,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526766.8104247742</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R56" t="n">
-        <v>7126719.612825709</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6864,22 +6856,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111475412</v>
+        <v>111477197</v>
       </c>
       <c r="B57" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6892,37 +6884,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526788.4021154585</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R57" t="n">
-        <v>7126588.959279429</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6976,22 +6968,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111475401</v>
+        <v>111477150</v>
       </c>
       <c r="B58" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7000,38 +6992,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526359.6403407991</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R58" t="n">
-        <v>7127153.358349039</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7088,22 +7080,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111477199</v>
+        <v>111475401</v>
       </c>
       <c r="B59" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7112,41 +7104,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526719.7991456056</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R59" t="n">
-        <v>7126870.904059933</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7200,22 +7192,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111481777</v>
+        <v>111475430</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7228,45 +7220,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526576.6359760575</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R60" t="n">
-        <v>7127372.958205946</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7320,22 +7304,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475407</v>
+        <v>111475415</v>
       </c>
       <c r="B61" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7344,25 +7328,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7372,10 +7356,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526761.6737779978</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R61" t="n">
-        <v>7126659.581915028</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7444,10 +7428,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111475402</v>
+        <v>111477152</v>
       </c>
       <c r="B62" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7456,38 +7440,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526628.5804176665</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R62" t="n">
-        <v>7126900.974891847</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7544,22 +7528,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475406</v>
+        <v>111481794</v>
       </c>
       <c r="B63" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7572,37 +7556,37 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526628.8057909949</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R63" t="n">
-        <v>7126874.89753825</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7656,22 +7640,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111475424</v>
+        <v>111481791</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7684,37 +7668,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526562.7125770835</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R64" t="n">
-        <v>7127372.838116477</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7768,22 +7752,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111475425</v>
+        <v>111475398</v>
       </c>
       <c r="B65" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7796,34 +7780,42 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526350.4355532593</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R65" t="n">
-        <v>7127161.102700913</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7892,10 +7884,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111477215</v>
+        <v>111475422</v>
       </c>
       <c r="B66" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7908,37 +7900,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526783.5980437086</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R66" t="n">
-        <v>7126741.057903775</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7992,22 +7984,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111477241</v>
+        <v>111478257</v>
       </c>
       <c r="B67" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8016,25 +8008,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8044,13 +8036,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526633.8889021962</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R67" t="n">
-        <v>7126891.023735311</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8104,22 +8096,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111481779</v>
+        <v>111477226</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8132,42 +8124,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526741.1907235509</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R68" t="n">
-        <v>7126863.265793501</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8224,22 +8208,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111477153</v>
+        <v>111475428</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8252,34 +8236,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526793.9223398847</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R69" t="n">
-        <v>7126805.044392107</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8336,22 +8320,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111475430</v>
+        <v>111475418</v>
       </c>
       <c r="B70" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8364,21 +8348,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8388,10 +8372,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526904.464734747</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R70" t="n">
-        <v>7126755.585814431</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8460,10 +8444,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475415</v>
+        <v>111475399</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8476,34 +8460,42 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526334.1646390257</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R71" t="n">
-        <v>7127180.955839636</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8572,10 +8564,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111478260</v>
+        <v>111481785</v>
       </c>
       <c r="B72" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8584,25 +8576,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8612,13 +8604,13 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526746.6216685539</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R72" t="n">
-        <v>7126889.392351454</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8672,19 +8664,19 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111475419</v>
+        <v>111481792</v>
       </c>
       <c r="B73" t="n">
         <v>78578</v>
@@ -8720,17 +8712,17 @@
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526750.3609286405</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R73" t="n">
-        <v>7126759.460191521</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8784,22 +8776,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111475405</v>
+        <v>111481779</v>
       </c>
       <c r="B74" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8808,41 +8800,49 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526402.8306512056</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R74" t="n">
-        <v>7127140.689653471</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8896,22 +8896,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111475421</v>
+        <v>111481796</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8924,37 +8924,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526790.5782004726</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R75" t="n">
-        <v>7126588.978197531</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9008,22 +9008,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111477152</v>
+        <v>111481778</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9036,37 +9036,45 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526790.9213834098</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R76" t="n">
-        <v>7126799.80228779</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9120,22 +9128,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475400</v>
+        <v>111475424</v>
       </c>
       <c r="B77" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9144,25 +9152,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9172,10 +9180,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526334.1646390257</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R77" t="n">
-        <v>7127180.955839636</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9244,10 +9252,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111478259</v>
+        <v>111475420</v>
       </c>
       <c r="B78" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9256,38 +9264,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526622.093687591</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R78" t="n">
-        <v>7126946.557083774</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9344,22 +9352,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111475395</v>
+        <v>111478260</v>
       </c>
       <c r="B79" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9368,46 +9376,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526541.4140344799</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R79" t="n">
-        <v>7127319.634518873</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9464,22 +9464,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111477150</v>
+        <v>111478259</v>
       </c>
       <c r="B80" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9488,38 +9488,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526575.9457110572</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R80" t="n">
-        <v>7127352.092021598</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9576,22 +9576,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111481787</v>
+        <v>111477155</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9604,37 +9604,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526745.1073277664</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R81" t="n">
-        <v>7126863.299787878</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492249</v>
+        <v>111492238</v>
       </c>
       <c r="B82" t="n">
-        <v>89793</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9712,25 +9712,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4217</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526847.6058643057</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R82" t="n">
-        <v>7126737.702852693</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9812,10 +9812,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492243</v>
+        <v>111492236</v>
       </c>
       <c r="B83" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9828,21 +9828,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526790.3722218492</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R83" t="n">
-        <v>7126762.850523639</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9924,10 +9924,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480285</v>
+        <v>111480507</v>
       </c>
       <c r="B84" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9936,25 +9936,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526736.9537197551</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R84" t="n">
-        <v>7126649.369495919</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492218</v>
+        <v>111480390</v>
       </c>
       <c r="B85" t="n">
-        <v>76513</v>
+        <v>89401</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10052,21 +10052,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>314</v>
+        <v>1108</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526596.6363403485</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R85" t="n">
-        <v>7127072.382200824</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10136,19 +10136,19 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480483</v>
+        <v>111480482</v>
       </c>
       <c r="B86" t="n">
         <v>88899</v>
@@ -10260,10 +10260,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480331</v>
+        <v>111480422</v>
       </c>
       <c r="B87" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10272,25 +10272,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526734.811617541</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R87" t="n">
-        <v>7126645.438707692</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480259</v>
+        <v>111480329</v>
       </c>
       <c r="B88" t="n">
-        <v>95538</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10384,25 +10384,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>221941</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526443.6441876995</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R88" t="n">
-        <v>7127151.470534382</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10466,6 +10466,7 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10477,17 +10478,17 @@
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492222</v>
+        <v>111480522</v>
       </c>
       <c r="B89" t="n">
-        <v>73696</v>
+        <v>76495</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10500,21 +10501,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6440</v>
+        <v>6487</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10524,10 +10525,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526598.1368079525</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R89" t="n">
-        <v>7127100.211284383</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10584,22 +10585,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492232</v>
+        <v>111492225</v>
       </c>
       <c r="B90" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10612,21 +10613,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10636,10 +10637,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526602.6161355394</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R90" t="n">
-        <v>7126984.637523879</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10708,7 +10709,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480505</v>
+        <v>111480504</v>
       </c>
       <c r="B91" t="n">
         <v>78611</v>
@@ -10748,10 +10749,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526660.4581602761</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R91" t="n">
-        <v>7126838.225198075</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10820,10 +10821,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111480503</v>
+        <v>111480441</v>
       </c>
       <c r="B92" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10832,20 +10833,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -10860,10 +10861,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526894.459077736</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R92" t="n">
-        <v>7126755.063791552</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10932,10 +10933,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480525</v>
+        <v>111480495</v>
       </c>
       <c r="B93" t="n">
-        <v>76918</v>
+        <v>85715</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10948,21 +10949,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6437</v>
+        <v>510</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10972,10 +10973,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526547.1610996595</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R93" t="n">
-        <v>7126854.633392128</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11044,10 +11045,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480495</v>
+        <v>111480502</v>
       </c>
       <c r="B94" t="n">
-        <v>85715</v>
+        <v>78611</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11056,25 +11057,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>510</v>
+        <v>6463</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11084,10 +11085,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526532.2429613075</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R94" t="n">
-        <v>7127323.466861598</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11156,7 +11157,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480420</v>
+        <v>111492243</v>
       </c>
       <c r="B95" t="n">
         <v>89423</v>
@@ -11196,10 +11197,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526825.2556783153</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R95" t="n">
-        <v>7126705.341951311</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11256,22 +11257,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111492225</v>
+        <v>111492241</v>
       </c>
       <c r="B96" t="n">
-        <v>73696</v>
+        <v>89401</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11284,21 +11285,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11308,10 +11309,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526609.6312623346</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R96" t="n">
-        <v>7126978.613118013</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11380,10 +11381,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480329</v>
+        <v>111492232</v>
       </c>
       <c r="B97" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11396,21 +11397,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11420,10 +11421,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526797.7359805232</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R97" t="n">
-        <v>7126716.838867592</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11474,29 +11475,28 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111492242</v>
+        <v>111480288</v>
       </c>
       <c r="B98" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11509,21 +11509,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11533,10 +11533,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526774.0510519799</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R98" t="n">
-        <v>7126787.919595245</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11593,22 +11593,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111492241</v>
+        <v>111492226</v>
       </c>
       <c r="B99" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11621,21 +11621,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11645,10 +11645,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526475.7192807253</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R99" t="n">
-        <v>7127216.937948915</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480440</v>
+        <v>111492240</v>
       </c>
       <c r="B100" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11729,38 +11729,50 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526594.1567224554</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R100" t="n">
-        <v>7126855.473320428</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11811,28 +11823,29 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492226</v>
+        <v>111492242</v>
       </c>
       <c r="B101" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11845,21 +11858,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11869,10 +11882,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526770.3722498151</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R101" t="n">
-        <v>7126760.503332262</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11941,10 +11954,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111492238</v>
+        <v>111492230</v>
       </c>
       <c r="B102" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11953,25 +11966,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11981,10 +11994,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526774.8534470783</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R102" t="n">
-        <v>7126795.750608556</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12053,10 +12066,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111492240</v>
+        <v>111480505</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12065,50 +12078,38 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526812.9225573848</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R103" t="n">
-        <v>7126722.187129569</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12159,26 +12160,25 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480380</v>
+        <v>111480378</v>
       </c>
       <c r="B104" t="n">
         <v>96348</v>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480502</v>
+        <v>111492246</v>
       </c>
       <c r="B105" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12302,20 +12302,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -12330,10 +12330,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526737.8241366684</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R105" t="n">
-        <v>7126649.377048474</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12390,22 +12390,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492246</v>
+        <v>111492237</v>
       </c>
       <c r="B106" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12418,21 +12418,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526721.4037833994</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R106" t="n">
-        <v>7126986.969393951</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111492235</v>
+        <v>111480259</v>
       </c>
       <c r="B107" t="n">
-        <v>78578</v>
+        <v>95538</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12526,25 +12526,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6458</v>
+        <v>221941</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12554,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526385.5844560881</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R107" t="n">
-        <v>7127223.552981463</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12614,19 +12614,19 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492234</v>
+        <v>111480286</v>
       </c>
       <c r="B108" t="n">
         <v>78578</v>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526575.169212656</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R108" t="n">
-        <v>7127341.220564325</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12726,22 +12726,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111492231</v>
+        <v>111480527</v>
       </c>
       <c r="B109" t="n">
-        <v>78605</v>
+        <v>76918</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12750,25 +12750,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6462</v>
+        <v>6437</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12778,10 +12778,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526761.6090650371</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R109" t="n">
-        <v>7126817.368890626</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12838,22 +12838,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111480521</v>
+        <v>111492224</v>
       </c>
       <c r="B110" t="n">
-        <v>76495</v>
+        <v>73696</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6487</v>
+        <v>6440</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12890,10 +12890,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526547.1610996595</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R110" t="n">
-        <v>7126854.633392128</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12950,22 +12950,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111480389</v>
+        <v>111492247</v>
       </c>
       <c r="B111" t="n">
-        <v>89401</v>
+        <v>78467</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12974,25 +12974,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1108</v>
+        <v>6457</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13002,10 +13002,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526658.5471790246</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R111" t="n">
-        <v>7126908.188469252</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13062,22 +13062,22 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111492237</v>
+        <v>111492248</v>
       </c>
       <c r="B112" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13086,25 +13086,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13114,10 +13114,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526801.6271560494</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R112" t="n">
-        <v>7126819.89004916</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13186,10 +13186,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111492228</v>
+        <v>111492218</v>
       </c>
       <c r="B113" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13202,21 +13202,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526910.4891168335</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R113" t="n">
-        <v>7126763.462551801</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13291,17 +13291,17 @@
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111492245</v>
+        <v>111480382</v>
       </c>
       <c r="B114" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13310,25 +13310,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13338,10 +13338,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526603.415572185</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R114" t="n">
-        <v>7126841.644113425</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13398,22 +13398,22 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111480382</v>
+        <v>111480332</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13422,25 +13422,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526799.075599193</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R115" t="n">
-        <v>7126712.93839974</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13522,10 +13522,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492247</v>
+        <v>111492249</v>
       </c>
       <c r="B116" t="n">
-        <v>78467</v>
+        <v>89793</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13538,21 +13538,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6457</v>
+        <v>4217</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13562,10 +13562,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526777.8204396158</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R116" t="n">
-        <v>7126804.904414805</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13634,10 +13634,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111492239</v>
+        <v>111492234</v>
       </c>
       <c r="B117" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13646,50 +13646,38 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526801.7821608522</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R117" t="n">
-        <v>7126802.070078265</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13740,7 +13728,6 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
-      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -13752,17 +13739,17 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111492248</v>
+        <v>111492235</v>
       </c>
       <c r="B118" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13771,25 +13758,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13799,10 +13786,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526777.8204396158</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R118" t="n">
-        <v>7126804.904414805</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13871,10 +13858,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492224</v>
+        <v>111480331</v>
       </c>
       <c r="B119" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13883,25 +13870,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13911,10 +13898,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526596.6363403485</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R119" t="n">
-        <v>7127072.382200824</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13971,22 +13958,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492230</v>
+        <v>111492221</v>
       </c>
       <c r="B120" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13995,25 +13982,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14010,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526575.169212656</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R120" t="n">
-        <v>7127341.220564325</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14088,17 +14075,17 @@
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111480289</v>
+        <v>111492233</v>
       </c>
       <c r="B121" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14107,25 +14094,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14135,10 +14122,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526772.4066721974</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R121" t="n">
-        <v>7126676.627914459</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14195,22 +14182,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111480332</v>
+        <v>111492222</v>
       </c>
       <c r="B122" t="n">
-        <v>78612</v>
+        <v>73696</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14219,25 +14206,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14234,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526894.459077736</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R122" t="n">
-        <v>7126755.063791552</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14294,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111480500</v>
+        <v>111492239</v>
       </c>
       <c r="B123" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14331,38 +14318,50 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526549.4044071162</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R123" t="n">
-        <v>7126846.828840361</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14413,28 +14412,29 @@
       <c r="AE123" t="b">
         <v>0</v>
       </c>
+      <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="b">
         <v>0</v>
       </c>
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492233</v>
+        <v>111492245</v>
       </c>
       <c r="B124" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14443,25 +14443,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526789.6416554189</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R124" t="n">
-        <v>7126746.761226696</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492221</v>
+        <v>111492228</v>
       </c>
       <c r="B125" t="n">
         <v>73696</v>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526603.5760295368</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R125" t="n">
-        <v>7127125.466399673</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14648,17 +14648,17 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492236</v>
+        <v>111492231</v>
       </c>
       <c r="B126" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14667,25 +14667,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526602.6161355394</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R126" t="n">
-        <v>7126984.637523879</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14767,7 +14767,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480115</v>
+        <v>111480116</v>
       </c>
       <c r="B127" t="n">
         <v>56398</v>
@@ -14815,10 +14815,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526582.5118723252</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R127" t="n">
-        <v>7126843.202344363</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14887,10 +14887,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480207</v>
+        <v>111480106</v>
       </c>
       <c r="B128" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14899,38 +14899,46 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526894.4742524296</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R128" t="n">
-        <v>7126753.32522574</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14999,10 +15007,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480061</v>
+        <v>111480169</v>
       </c>
       <c r="B129" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15015,21 +15023,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15039,10 +15047,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526549.2920565202</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R129" t="n">
-        <v>7126859.867662492</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15104,17 +15112,17 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480179</v>
+        <v>111480207</v>
       </c>
       <c r="B130" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15123,25 +15131,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15151,10 +15159,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526660.4581602761</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R130" t="n">
-        <v>7126838.225198075</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15223,7 +15231,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480117</v>
+        <v>111480118</v>
       </c>
       <c r="B131" t="n">
         <v>56398</v>
@@ -15271,10 +15279,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526664.107749017</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R131" t="n">
-        <v>7126869.117634357</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15343,10 +15351,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480130</v>
+        <v>111480179</v>
       </c>
       <c r="B132" t="n">
-        <v>56543</v>
+        <v>78579</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15359,21 +15367,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15383,10 +15391,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526894.4666650819</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R132" t="n">
-        <v>7126754.194508768</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15455,7 +15463,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480169</v>
+        <v>111480170</v>
       </c>
       <c r="B133" t="n">
         <v>78579</v>
@@ -15495,10 +15503,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526533.0795019253</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R133" t="n">
-        <v>7127327.385405498</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15567,10 +15575,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480206</v>
+        <v>111480105</v>
       </c>
       <c r="B134" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15579,38 +15587,46 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526454.4890384678</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R134" t="n">
-        <v>7127155.475193184</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15679,10 +15695,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480113</v>
+        <v>111480131</v>
       </c>
       <c r="B135" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15695,42 +15711,34 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526531.3727349282</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R135" t="n">
-        <v>7127323.459366731</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15799,10 +15807,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480170</v>
+        <v>111480067</v>
       </c>
       <c r="B136" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15815,21 +15823,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15839,10 +15847,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526494.5189215972</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R136" t="n">
-        <v>7127307.931379622</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15911,10 +15919,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480032</v>
+        <v>111480171</v>
       </c>
       <c r="B137" t="n">
-        <v>76513</v>
+        <v>78579</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15927,21 +15935,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>314</v>
+        <v>2081</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15951,10 +15959,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526450.6922041279</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R137" t="n">
-        <v>7127141.534820292</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16023,10 +16031,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480181</v>
+        <v>111480032</v>
       </c>
       <c r="B138" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16039,21 +16047,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16063,10 +16071,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526762.5781673936</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R138" t="n">
-        <v>7126655.677579562</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16135,10 +16143,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480067</v>
+        <v>111480061</v>
       </c>
       <c r="B139" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16151,21 +16159,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16175,10 +16183,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526618.0915837138</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R139" t="n">
-        <v>7126855.679999291</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16240,17 +16248,17 @@
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480173</v>
+        <v>111480206</v>
       </c>
       <c r="B140" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16259,25 +16267,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16287,10 +16295,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526736.9612626054</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R140" t="n">
-        <v>7126648.50018348</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16359,7 +16367,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480118</v>
+        <v>111480115</v>
       </c>
       <c r="B141" t="n">
         <v>56398</v>
@@ -16407,10 +16415,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526775.4342201974</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R141" t="n">
-        <v>7126678.827645465</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16479,10 +16487,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480106</v>
+        <v>111480180</v>
       </c>
       <c r="B142" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16495,42 +16503,34 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526452.5306142806</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R142" t="n">
-        <v>7127231.515399783</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480171</v>
+        <v>111480181</v>
       </c>
       <c r="B143" t="n">
         <v>78579</v>
@@ -16639,10 +16639,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526546.2907408345</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R143" t="n">
-        <v>7126854.625893313</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480109</v>
+        <v>111480117</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -16759,10 +16759,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526641.1372953646</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R144" t="n">
-        <v>7126858.052473077</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -3824,7 +3824,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111477284</v>
+        <v>111475427</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -3860,17 +3860,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526737.8549399736</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R30" t="n">
-        <v>7126796.298664714</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3924,19 +3924,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111475427</v>
+        <v>111477284</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -3972,17 +3972,17 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526432.8127084307</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R31" t="n">
-        <v>7127044.459845332</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4036,22 +4036,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111475408</v>
+        <v>111475421</v>
       </c>
       <c r="B32" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4060,25 +4060,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526807.9596872492</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R32" t="n">
-        <v>7126492.190286946</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111475421</v>
+        <v>111475395</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4176,34 +4176,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526790.5782004726</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R33" t="n">
-        <v>7126588.978197531</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4272,10 +4280,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475395</v>
+        <v>111477153</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4288,42 +4296,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526541.4140344799</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R34" t="n">
-        <v>7127319.634518873</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4380,22 +4380,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111477153</v>
+        <v>111477262</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,37 +4408,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526793.9223398847</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R35" t="n">
-        <v>7126805.044392107</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4492,22 +4492,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477262</v>
+        <v>111477236</v>
       </c>
       <c r="B36" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4520,21 +4520,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526874.3871010491</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R36" t="n">
-        <v>7126760.97409881</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477236</v>
+        <v>111475408</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4628,41 +4628,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526643.3394980798</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R37" t="n">
-        <v>7126855.0288987</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4716,12 +4716,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481784</v>
+        <v>111475412</v>
       </c>
       <c r="B45" t="n">
         <v>78579</v>
@@ -5548,17 +5548,17 @@
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526513.0667874835</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R45" t="n">
-        <v>7127276.365312753</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5612,22 +5612,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481795</v>
+        <v>111475429</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,37 +5640,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526578.1343758366</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R46" t="n">
-        <v>7126947.046857893</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5724,19 +5724,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111475412</v>
+        <v>111481784</v>
       </c>
       <c r="B47" t="n">
         <v>78579</v>
@@ -5772,17 +5772,17 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526788.4021154585</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R47" t="n">
-        <v>7126588.959279429</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5836,22 +5836,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111475429</v>
+        <v>111481795</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,37 +5864,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526801.3654488353</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R48" t="n">
-        <v>7126749.905904328</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5948,12 +5948,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111492242</v>
+        <v>111480505</v>
       </c>
       <c r="B101" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11854,25 +11854,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11882,10 +11882,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526774.0510519799</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R101" t="n">
-        <v>7126787.919595245</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11942,22 +11942,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111492230</v>
+        <v>111480378</v>
       </c>
       <c r="B102" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11966,25 +11966,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11994,10 +11994,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526575.169212656</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R102" t="n">
-        <v>7127341.220564325</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12054,22 +12054,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480505</v>
+        <v>111492242</v>
       </c>
       <c r="B103" t="n">
-        <v>78611</v>
+        <v>89423</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12078,25 +12078,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526660.4581602761</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R103" t="n">
-        <v>7126838.225198075</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12166,22 +12166,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480378</v>
+        <v>111492230</v>
       </c>
       <c r="B104" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12190,25 +12190,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526749.2830160656</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R104" t="n">
-        <v>7126783.357779803</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12278,12 +12278,12 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111475423</v>
+        <v>111481793</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526627.7975810008</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R2" t="n">
-        <v>7127444.671415905</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111475400</v>
+        <v>111478260</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>96368</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526334.1646390257</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R3" t="n">
-        <v>7127180.955839636</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111475396</v>
+        <v>111477203</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,45 +920,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526760.8615308162</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R4" t="n">
-        <v>7126552.639882971</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111475402</v>
+        <v>111477268</v>
       </c>
       <c r="B5" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,41 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526628.5804176665</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R5" t="n">
-        <v>7126900.974891847</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1124,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111481780</v>
+        <v>111477264</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526629.4958394679</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R6" t="n">
-        <v>7126895.766960836</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1236,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111477283</v>
+        <v>111481781</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526794.8191702637</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R7" t="n">
-        <v>7126802.009519467</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1348,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477252</v>
+        <v>111481792</v>
       </c>
       <c r="B8" t="n">
-        <v>76513</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>314</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526589.7304216913</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R8" t="n">
-        <v>7127368.290746101</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1460,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111477215</v>
+        <v>111478257</v>
       </c>
       <c r="B9" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,13 +1504,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526783.5980437086</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R9" t="n">
-        <v>7126741.057903775</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1572,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111477263</v>
+        <v>111475404</v>
       </c>
       <c r="B10" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,41 +1588,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526733.557377478</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R10" t="n">
-        <v>7126840.16255208</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1684,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111477270</v>
+        <v>111475418</v>
       </c>
       <c r="B11" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,37 +1704,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526743.0583307605</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R11" t="n">
-        <v>7126798.517162403</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1796,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111475404</v>
+        <v>111477199</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>76513</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1820,41 +1812,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>314</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526536.8261819695</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R12" t="n">
-        <v>7127296.56142472</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1908,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111475417</v>
+        <v>111477269</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1936,37 +1928,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526628.5804176665</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R13" t="n">
-        <v>7126900.974891847</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2020,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111477148</v>
+        <v>111477197</v>
       </c>
       <c r="B14" t="n">
-        <v>103273</v>
+        <v>76513</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,41 +2036,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221725</v>
+        <v>314</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526681.1812848106</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R14" t="n">
-        <v>7126857.529652008</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2132,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477234</v>
+        <v>111477209</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2160,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526638.6946075994</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R15" t="n">
-        <v>7126888.892006672</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2256,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111477156</v>
+        <v>111477263</v>
       </c>
       <c r="B16" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,41 +2260,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526783.9659439438</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R16" t="n">
-        <v>7126798.872483394</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2356,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477217</v>
+        <v>111477279</v>
       </c>
       <c r="B17" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2384,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526756.4007905088</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R17" t="n">
-        <v>7126765.59805485</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2480,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111477232</v>
+        <v>111481796</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2496,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526843.7421112995</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R18" t="n">
-        <v>7126731.583709671</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2580,22 +2572,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481781</v>
+        <v>111475424</v>
       </c>
       <c r="B19" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2604,41 +2596,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526703.4301487049</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R19" t="n">
-        <v>7126901.622689946</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2692,22 +2684,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111477279</v>
+        <v>111475415</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2720,37 +2712,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526633.8889021962</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R20" t="n">
-        <v>7126891.023735311</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2804,22 +2796,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111477250</v>
+        <v>111475412</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2832,37 +2824,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526770.2400840909</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R21" t="n">
-        <v>7126775.715713345</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2916,22 +2908,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111477154</v>
+        <v>111475399</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2940,38 +2932,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526784.7834235848</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R22" t="n">
-        <v>7126804.964935203</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3028,22 +3028,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111477151</v>
+        <v>111475406</v>
       </c>
       <c r="B23" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3052,38 +3052,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526778.943100647</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R23" t="n">
-        <v>7126725.803744309</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3140,22 +3140,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111477261</v>
+        <v>111481780</v>
       </c>
       <c r="B24" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3164,25 +3164,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526719.7991456056</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R24" t="n">
-        <v>7126870.904059933</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3252,22 +3252,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111481790</v>
+        <v>111477234</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3280,21 +3280,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526748.151006726</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R25" t="n">
-        <v>7126763.35306516</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3364,22 +3364,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111475419</v>
+        <v>111477278</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3388,41 +3388,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526750.3609286405</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R26" t="n">
-        <v>7126759.460191521</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3476,22 +3476,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477286</v>
+        <v>111477273</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526791.4164464728</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R27" t="n">
-        <v>7126742.86457725</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481787</v>
+        <v>111481784</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3616,21 +3616,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526745.1073277664</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R28" t="n">
-        <v>7126863.299787878</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481789</v>
+        <v>111481795</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3728,21 +3728,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526710.6246283256</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R29" t="n">
-        <v>7126824.750457344</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111475427</v>
+        <v>111481790</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3840,37 +3840,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526432.8127084307</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R30" t="n">
-        <v>7127044.459845332</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3924,22 +3924,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111477284</v>
+        <v>111481778</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3952,34 +3952,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526737.8549399736</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R31" t="n">
-        <v>7126796.298664714</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4036,22 +4044,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111475421</v>
+        <v>111475428</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4064,21 +4072,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4088,10 +4096,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526790.5782004726</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R32" t="n">
-        <v>7126588.978197531</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4160,10 +4168,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111475395</v>
+        <v>111477230</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4176,45 +4184,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526541.4140344799</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R33" t="n">
-        <v>7127319.634518873</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4268,22 +4268,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111477153</v>
+        <v>111475407</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4292,38 +4292,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526793.9223398847</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R34" t="n">
-        <v>7126805.044392107</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4380,22 +4380,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111477262</v>
+        <v>111481797</v>
       </c>
       <c r="B35" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,21 +4408,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526874.3871010491</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R35" t="n">
-        <v>7126760.97409881</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4492,19 +4492,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477236</v>
+        <v>111481777</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4538,16 +4538,24 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526643.3394980798</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R36" t="n">
-        <v>7126855.0288987</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4604,22 +4612,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475408</v>
+        <v>111475425</v>
       </c>
       <c r="B37" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4628,25 +4636,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4656,10 +4664,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526807.9596872492</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R37" t="n">
-        <v>7126492.190286946</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4728,10 +4736,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475407</v>
+        <v>111475417</v>
       </c>
       <c r="B38" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4740,25 +4748,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4768,10 +4776,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526761.6737779978</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R38" t="n">
-        <v>7126659.581915028</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4840,10 +4848,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475405</v>
+        <v>111475396</v>
       </c>
       <c r="B39" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4852,38 +4860,46 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526402.8306512056</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R39" t="n">
-        <v>7127140.689653471</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4952,7 +4968,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111477278</v>
+        <v>111475409</v>
       </c>
       <c r="B40" t="n">
         <v>96368</v>
@@ -4988,17 +5004,17 @@
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526711.8604537799</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R40" t="n">
-        <v>7126883.005616191</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5052,22 +5068,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111477209</v>
+        <v>111478258</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5076,25 +5092,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5104,13 +5120,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526709.7900707464</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R41" t="n">
-        <v>7126870.817277474</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5164,22 +5180,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111475406</v>
+        <v>111477246</v>
       </c>
       <c r="B42" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5188,41 +5204,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526628.8057909949</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R42" t="n">
-        <v>7126874.89753825</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5276,22 +5292,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111475411</v>
+        <v>111477250</v>
       </c>
       <c r="B43" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5304,37 +5320,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526633.8626035146</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R43" t="n">
-        <v>7126894.066088703</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5388,22 +5404,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111475425</v>
+        <v>111477151</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5416,34 +5432,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526350.4355532593</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R44" t="n">
-        <v>7127161.102700913</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5500,22 +5516,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111475412</v>
+        <v>111475423</v>
       </c>
       <c r="B45" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5528,21 +5544,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5552,10 +5568,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526788.4021154585</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R45" t="n">
-        <v>7126588.959279429</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5624,10 +5640,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111475429</v>
+        <v>111475402</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5636,25 +5652,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5664,10 +5680,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526801.3654488353</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R46" t="n">
-        <v>7126749.905904328</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5736,10 +5752,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111481784</v>
+        <v>111477286</v>
       </c>
       <c r="B47" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,21 +5768,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5776,10 +5792,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526513.0667874835</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R47" t="n">
-        <v>7127276.365312753</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5836,22 +5852,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111481795</v>
+        <v>111477152</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,37 +5880,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526578.1343758366</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R48" t="n">
-        <v>7126947.046857893</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5948,22 +5964,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111475409</v>
+        <v>111477284</v>
       </c>
       <c r="B49" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5972,41 +5988,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526801.3654488353</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R49" t="n">
-        <v>7126749.905904328</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6060,22 +6076,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111481793</v>
+        <v>111477277</v>
       </c>
       <c r="B50" t="n">
-        <v>78612</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6084,25 +6100,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6112,10 +6128,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526742.0271302022</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R50" t="n">
-        <v>7126867.184979456</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6172,22 +6188,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111481797</v>
+        <v>111477149</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6200,37 +6216,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526724.4788811355</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R51" t="n">
-        <v>7126833.129197065</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6278,28 +6297,29 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111481777</v>
+        <v>111477154</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6308,49 +6328,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526576.6359760575</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R52" t="n">
-        <v>7127372.958205946</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6404,22 +6416,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111477149</v>
+        <v>111481787</v>
       </c>
       <c r="B53" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6432,40 +6444,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526773.3997162007</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R53" t="n">
-        <v>7126762.703002418</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6513,29 +6522,28 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111477269</v>
+        <v>111475411</v>
       </c>
       <c r="B54" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6548,37 +6556,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526734.8568705021</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R54" t="n">
-        <v>7126891.028866394</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6632,22 +6640,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111477282</v>
+        <v>111475405</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6656,41 +6664,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526753.3544461714</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R55" t="n">
-        <v>7126765.571603379</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6744,19 +6752,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111478258</v>
+        <v>111475408</v>
       </c>
       <c r="B56" t="n">
         <v>96368</v>
@@ -6792,14 +6800,14 @@
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526486.4442992809</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R56" t="n">
-        <v>7127234.849028585</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6856,22 +6864,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111477197</v>
+        <v>111477156</v>
       </c>
       <c r="B57" t="n">
-        <v>76513</v>
+        <v>78611</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6880,41 +6888,41 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>314</v>
+        <v>6463</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526618.6342781226</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R57" t="n">
-        <v>7127447.634256044</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6968,19 +6976,19 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111477150</v>
+        <v>111477226</v>
       </c>
       <c r="B58" t="n">
         <v>73696</v>
@@ -7016,17 +7024,17 @@
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526575.9457110572</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R58" t="n">
-        <v>7127352.092021598</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7080,22 +7088,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111475401</v>
+        <v>111481788</v>
       </c>
       <c r="B59" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7104,41 +7112,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526359.6403407991</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R59" t="n">
-        <v>7127153.358349039</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7192,19 +7200,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111475430</v>
+        <v>111475427</v>
       </c>
       <c r="B60" t="n">
         <v>77515</v>
@@ -7244,10 +7252,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526904.464734747</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R60" t="n">
-        <v>7126755.585814431</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7316,10 +7324,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475415</v>
+        <v>111475430</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7332,21 +7340,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7356,10 +7364,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526334.1646390257</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R61" t="n">
-        <v>7127180.955839636</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7428,10 +7436,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111477152</v>
+        <v>111475429</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7444,34 +7452,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526790.9213834098</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R62" t="n">
-        <v>7126799.80228779</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7528,22 +7536,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111481794</v>
+        <v>111475421</v>
       </c>
       <c r="B63" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7552,41 +7560,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526759.9373603656</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R63" t="n">
-        <v>7126859.516619125</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7640,22 +7648,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111481791</v>
+        <v>111477155</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7668,37 +7676,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526766.8104247742</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R64" t="n">
-        <v>7126719.612825709</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7752,22 +7760,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111475398</v>
+        <v>111478259</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7776,46 +7784,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526795.3655874674</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R65" t="n">
-        <v>7126589.019822755</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7872,22 +7872,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111475422</v>
+        <v>111477282</v>
       </c>
       <c r="B66" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7900,37 +7900,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526830.8338072833</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R66" t="n">
-        <v>7126714.5188105</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7984,22 +7984,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111478257</v>
+        <v>111477148</v>
       </c>
       <c r="B67" t="n">
-        <v>96368</v>
+        <v>103273</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8012,34 +8012,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221952</v>
+        <v>221725</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526504.6649119424</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R67" t="n">
-        <v>7127291.938577281</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8096,19 +8096,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111477226</v>
+        <v>111477262</v>
       </c>
       <c r="B68" t="n">
         <v>73696</v>
@@ -8148,10 +8148,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526776.5518203602</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R68" t="n">
-        <v>7126750.55952362</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111475428</v>
+        <v>111481791</v>
       </c>
       <c r="B69" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8236,37 +8236,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526818.0723325044</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R69" t="n">
-        <v>7126530.532625454</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S69" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8320,22 +8320,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111475418</v>
+        <v>111481779</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8348,37 +8348,45 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526641.5754754087</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R70" t="n">
-        <v>7126908.041672549</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8432,19 +8440,19 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475399</v>
+        <v>111475398</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8492,10 +8500,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526448.7861015323</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R71" t="n">
-        <v>7127211.491299792</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8564,10 +8572,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111481785</v>
+        <v>111475395</v>
       </c>
       <c r="B72" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8580,37 +8588,45 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526629.4958394679</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R72" t="n">
-        <v>7126895.766960836</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8664,19 +8680,19 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111481792</v>
+        <v>111477153</v>
       </c>
       <c r="B73" t="n">
         <v>78578</v>
@@ -8712,17 +8728,17 @@
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526807.5942992838</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R73" t="n">
-        <v>7126734.31175267</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8776,22 +8792,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111481779</v>
+        <v>111481794</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>78612</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8800,46 +8816,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526741.1907235509</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R74" t="n">
-        <v>7126863.265793501</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8908,10 +8916,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111481796</v>
+        <v>111475401</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8920,41 +8928,41 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526608.5136703107</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R75" t="n">
-        <v>7126906.452016207</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9008,22 +9016,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111481778</v>
+        <v>111477150</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9036,45 +9044,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526632.5946496209</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R76" t="n">
-        <v>7126889.708583741</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9128,22 +9128,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475424</v>
+        <v>111475400</v>
       </c>
       <c r="B77" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9152,25 +9152,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9180,10 +9180,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526562.7125770835</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R77" t="n">
-        <v>7127372.838116477</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111475420</v>
+        <v>111475422</v>
       </c>
       <c r="B78" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9268,21 +9268,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526782.4503789117</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R78" t="n">
-        <v>7126672.803025675</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9364,10 +9364,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111478260</v>
+        <v>111475420</v>
       </c>
       <c r="B79" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9376,38 +9376,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526746.6216685539</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R79" t="n">
-        <v>7126889.392351454</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9464,22 +9464,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111478259</v>
+        <v>111475419</v>
       </c>
       <c r="B80" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9488,38 +9488,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526622.093687591</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R80" t="n">
-        <v>7126946.557083774</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9576,22 +9576,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111477155</v>
+        <v>111481785</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9604,37 +9604,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526757.7867624827</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R81" t="n">
-        <v>7126806.469043032</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9688,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492238</v>
+        <v>111480379</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9712,25 +9712,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526774.8534470783</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R82" t="n">
-        <v>7126795.750608556</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9800,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492236</v>
+        <v>111492224</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9828,21 +9828,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526602.6161355394</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R83" t="n">
-        <v>7126984.637523879</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480507</v>
+        <v>111480505</v>
       </c>
       <c r="B84" t="n">
         <v>78611</v>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526894.459077736</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R84" t="n">
-        <v>7126755.063791552</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480390</v>
+        <v>111480482</v>
       </c>
       <c r="B85" t="n">
-        <v>89401</v>
+        <v>88899</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10052,21 +10052,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1108</v>
+        <v>3286</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10076,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526658.5471790246</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R85" t="n">
-        <v>7126908.188469252</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10148,10 +10148,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480482</v>
+        <v>111480504</v>
       </c>
       <c r="B86" t="n">
-        <v>88899</v>
+        <v>78611</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,25 +10160,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3286</v>
+        <v>6463</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10188,10 +10188,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526688.4566125805</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R86" t="n">
-        <v>7126821.515715363</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10260,10 +10260,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480422</v>
+        <v>111480328</v>
       </c>
       <c r="B87" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10276,21 +10276,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526825.2556783153</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R87" t="n">
-        <v>7126705.341951311</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10354,6 +10354,7 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10372,10 +10373,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480329</v>
+        <v>111480389</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10388,21 +10389,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10412,10 +10413,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526797.7359805232</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R88" t="n">
-        <v>7126716.838867592</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10466,7 +10467,6 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480522</v>
+        <v>111480289</v>
       </c>
       <c r="B89" t="n">
-        <v>76495</v>
+        <v>78578</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10501,21 +10501,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6487</v>
+        <v>6458</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10525,10 +10525,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526547.1610996595</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R89" t="n">
-        <v>7126854.633392128</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492225</v>
+        <v>111480260</v>
       </c>
       <c r="B90" t="n">
-        <v>73696</v>
+        <v>95538</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10609,25 +10609,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6440</v>
+        <v>221941</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526609.6312623346</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R90" t="n">
-        <v>7126978.613118013</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10697,22 +10697,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480504</v>
+        <v>111492218</v>
       </c>
       <c r="B91" t="n">
-        <v>78611</v>
+        <v>76513</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10721,25 +10721,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6463</v>
+        <v>314</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10749,10 +10749,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526549.4044071162</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R91" t="n">
-        <v>7126846.828840361</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10809,22 +10809,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111480441</v>
+        <v>111492238</v>
       </c>
       <c r="B92" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10837,21 +10837,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10861,10 +10861,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526594.1567224554</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R92" t="n">
-        <v>7126855.473320428</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10921,22 +10921,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480495</v>
+        <v>111492232</v>
       </c>
       <c r="B93" t="n">
-        <v>85715</v>
+        <v>78579</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10949,21 +10949,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>510</v>
+        <v>2081</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10973,10 +10973,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526532.2429613075</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R93" t="n">
-        <v>7127323.466861598</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11033,22 +11033,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480502</v>
+        <v>111480333</v>
       </c>
       <c r="B94" t="n">
-        <v>78611</v>
+        <v>78612</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11061,21 +11061,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6463</v>
+        <v>6464</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11085,10 +11085,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526737.8241366684</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R94" t="n">
-        <v>7126649.377048474</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11157,10 +11157,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111492243</v>
+        <v>111480521</v>
       </c>
       <c r="B95" t="n">
-        <v>89423</v>
+        <v>76495</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11173,21 +11173,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>6487</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526790.3722218492</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R95" t="n">
-        <v>7126762.850523639</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11257,22 +11257,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111492241</v>
+        <v>111492233</v>
       </c>
       <c r="B96" t="n">
-        <v>89401</v>
+        <v>78512</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11281,25 +11281,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1108</v>
+        <v>6456</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11309,10 +11309,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526475.7192807253</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R96" t="n">
-        <v>7127216.937948915</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111492232</v>
+        <v>111492234</v>
       </c>
       <c r="B97" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11397,21 +11397,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11421,10 +11421,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526602.6161355394</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R97" t="n">
-        <v>7126984.637523879</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480288</v>
+        <v>111492236</v>
       </c>
       <c r="B98" t="n">
         <v>78578</v>
@@ -11533,10 +11533,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526736.9537197551</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R98" t="n">
-        <v>7126649.369495919</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11593,19 +11593,19 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111492226</v>
+        <v>111492222</v>
       </c>
       <c r="B99" t="n">
         <v>73696</v>
@@ -11645,10 +11645,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526770.3722498151</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R99" t="n">
-        <v>7126760.503332262</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11710,17 +11710,17 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492240</v>
+        <v>111492235</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11729,50 +11729,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526812.9225573848</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R100" t="n">
-        <v>7126722.187129569</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11823,7 +11811,6 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
-      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -11835,14 +11822,14 @@
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480505</v>
+        <v>111480507</v>
       </c>
       <c r="B101" t="n">
         <v>78611</v>
@@ -11882,10 +11869,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526660.4581602761</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R101" t="n">
-        <v>7126838.225198075</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11954,10 +11941,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480378</v>
+        <v>111480495</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11966,25 +11953,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11994,10 +11981,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526749.2830160656</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R102" t="n">
-        <v>7126783.357779803</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12066,10 +12053,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111492242</v>
+        <v>111492247</v>
       </c>
       <c r="B103" t="n">
-        <v>89423</v>
+        <v>78467</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12078,25 +12065,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5432</v>
+        <v>6457</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12106,10 +12093,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526774.0510519799</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R103" t="n">
-        <v>7126787.919595245</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12178,10 +12165,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111492230</v>
+        <v>111480378</v>
       </c>
       <c r="B104" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12190,25 +12177,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12218,10 +12205,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526575.169212656</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R104" t="n">
-        <v>7127341.220564325</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12278,22 +12265,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111492246</v>
+        <v>111480285</v>
       </c>
       <c r="B105" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12306,21 +12293,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12330,10 +12317,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526721.4037833994</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R105" t="n">
-        <v>7126986.969393951</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12390,22 +12377,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492237</v>
+        <v>111492226</v>
       </c>
       <c r="B106" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12418,21 +12405,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12442,10 +12429,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526801.6271560494</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R106" t="n">
-        <v>7126819.89004916</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12514,10 +12501,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480259</v>
+        <v>111480441</v>
       </c>
       <c r="B107" t="n">
-        <v>95538</v>
+        <v>77515</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12526,25 +12513,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12554,10 +12541,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526443.6441876995</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R107" t="n">
-        <v>7127151.470534382</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12619,17 +12606,17 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111480286</v>
+        <v>111492221</v>
       </c>
       <c r="B108" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12642,21 +12629,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12666,10 +12653,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526772.4066721974</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R108" t="n">
-        <v>7126676.627914459</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12726,22 +12713,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111480527</v>
+        <v>111492225</v>
       </c>
       <c r="B109" t="n">
-        <v>76918</v>
+        <v>73696</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12754,21 +12741,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12778,10 +12765,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526547.1610996595</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R109" t="n">
-        <v>7126854.633392128</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12838,22 +12825,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492224</v>
+        <v>111492230</v>
       </c>
       <c r="B110" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12862,25 +12849,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12890,10 +12877,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526596.6363403485</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R110" t="n">
-        <v>7127072.382200824</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12962,10 +12949,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111492247</v>
+        <v>111492249</v>
       </c>
       <c r="B111" t="n">
-        <v>78467</v>
+        <v>89793</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12978,21 +12965,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6457</v>
+        <v>4217</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13002,10 +12989,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526777.8204396158</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R111" t="n">
-        <v>7126804.904414805</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13074,10 +13061,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111492248</v>
+        <v>111492237</v>
       </c>
       <c r="B112" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13086,25 +13073,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13114,10 +13101,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526777.8204396158</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R112" t="n">
-        <v>7126804.904414805</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13186,10 +13173,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111492218</v>
+        <v>111480332</v>
       </c>
       <c r="B113" t="n">
-        <v>76513</v>
+        <v>78612</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13198,25 +13185,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>314</v>
+        <v>6464</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13226,10 +13213,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526596.6363403485</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R113" t="n">
-        <v>7127072.382200824</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13286,19 +13273,19 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111480382</v>
+        <v>111492240</v>
       </c>
       <c r="B114" t="n">
         <v>96348</v>
@@ -13331,17 +13318,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526799.075599193</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R114" t="n">
-        <v>7126712.93839974</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13392,28 +13391,29 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111480332</v>
+        <v>111492242</v>
       </c>
       <c r="B115" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13422,25 +13422,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526894.459077736</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R115" t="n">
-        <v>7126755.063791552</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13510,22 +13510,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492249</v>
+        <v>111492239</v>
       </c>
       <c r="B116" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13534,38 +13534,50 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526847.6058643057</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R116" t="n">
-        <v>7126737.702852693</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13616,6 +13628,7 @@
       <c r="AE116" t="b">
         <v>0</v>
       </c>
+      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
@@ -13627,17 +13640,17 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111492234</v>
+        <v>111492231</v>
       </c>
       <c r="B117" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13646,25 +13659,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13674,10 +13687,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526575.169212656</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R117" t="n">
-        <v>7127341.220564325</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13746,10 +13759,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111492235</v>
+        <v>111480422</v>
       </c>
       <c r="B118" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13762,21 +13775,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13786,10 +13799,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526385.5844560881</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R118" t="n">
-        <v>7127223.552981463</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13846,22 +13859,22 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111480331</v>
+        <v>111492245</v>
       </c>
       <c r="B119" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13870,25 +13883,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13898,10 +13911,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526734.811617541</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R119" t="n">
-        <v>7126645.438707692</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13958,22 +13971,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492221</v>
+        <v>111492243</v>
       </c>
       <c r="B120" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13986,21 +13999,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14010,10 +14023,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526603.5760295368</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R120" t="n">
-        <v>7127125.466399673</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14075,17 +14088,17 @@
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111492233</v>
+        <v>111480527</v>
       </c>
       <c r="B121" t="n">
-        <v>78512</v>
+        <v>76918</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14094,25 +14107,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6456</v>
+        <v>6437</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14122,10 +14135,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526789.6416554189</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R121" t="n">
-        <v>7126746.761226696</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14182,22 +14195,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111492222</v>
+        <v>111492248</v>
       </c>
       <c r="B122" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14206,25 +14219,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14234,10 +14247,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526598.1368079525</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R122" t="n">
-        <v>7127100.211284383</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14299,17 +14312,17 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111492239</v>
+        <v>111492228</v>
       </c>
       <c r="B123" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14318,50 +14331,38 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526801.7821608522</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R123" t="n">
-        <v>7126802.070078265</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14412,7 +14413,6 @@
       <c r="AE123" t="b">
         <v>0</v>
       </c>
-      <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="b">
         <v>0</v>
       </c>
@@ -14424,17 +14424,17 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111492245</v>
+        <v>111480502</v>
       </c>
       <c r="B124" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14443,20 +14443,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -14471,10 +14471,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526603.415572185</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R124" t="n">
-        <v>7126841.644113425</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14531,22 +14531,22 @@
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492228</v>
+        <v>111492246</v>
       </c>
       <c r="B125" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14559,21 +14559,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14583,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526910.4891168335</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R125" t="n">
-        <v>7126763.462551801</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492231</v>
+        <v>111492241</v>
       </c>
       <c r="B126" t="n">
-        <v>78605</v>
+        <v>89401</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14667,25 +14667,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6462</v>
+        <v>1108</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526761.6090650371</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R126" t="n">
-        <v>7126817.368890626</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480116</v>
+        <v>111480061</v>
       </c>
       <c r="B127" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14783,42 +14783,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526641.1372953646</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R127" t="n">
-        <v>7126858.052473077</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14880,17 +14872,17 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480106</v>
+        <v>111480180</v>
       </c>
       <c r="B128" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14903,42 +14895,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526452.5306142806</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R128" t="n">
-        <v>7127231.515399783</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -15007,10 +14991,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480169</v>
+        <v>111480207</v>
       </c>
       <c r="B129" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15019,25 +15003,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15047,10 +15031,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526533.0795019253</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R129" t="n">
-        <v>7127327.385405498</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15119,10 +15103,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480207</v>
+        <v>111480131</v>
       </c>
       <c r="B130" t="n">
-        <v>78512</v>
+        <v>56543</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15131,25 +15115,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6456</v>
+        <v>103021</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15159,10 +15143,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526894.4742524296</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R130" t="n">
-        <v>7126753.32522574</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15231,10 +15215,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480118</v>
+        <v>111480174</v>
       </c>
       <c r="B131" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15247,42 +15231,34 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526775.4342201974</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R131" t="n">
-        <v>7126678.827645465</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15351,7 +15327,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480179</v>
+        <v>111480177</v>
       </c>
       <c r="B132" t="n">
         <v>78579</v>
@@ -15391,10 +15367,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526660.4581602761</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R132" t="n">
-        <v>7126838.225198075</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15463,10 +15439,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480170</v>
+        <v>111480025</v>
       </c>
       <c r="B133" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15479,21 +15455,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15503,10 +15479,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526494.5189215972</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R133" t="n">
-        <v>7127307.931379622</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15575,10 +15551,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480105</v>
+        <v>111480172</v>
       </c>
       <c r="B134" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15591,42 +15567,34 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526531.3727349282</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R134" t="n">
-        <v>7127323.459366731</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15695,10 +15663,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480131</v>
+        <v>111480113</v>
       </c>
       <c r="B135" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15711,34 +15679,42 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526894.4666650819</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R135" t="n">
-        <v>7126754.194508768</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15807,10 +15783,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480067</v>
+        <v>111480106</v>
       </c>
       <c r="B136" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15823,34 +15799,42 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526618.0915837138</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R136" t="n">
-        <v>7126855.679999291</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15919,7 +15903,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480171</v>
+        <v>111480176</v>
       </c>
       <c r="B137" t="n">
         <v>78579</v>
@@ -15959,10 +15943,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526546.2907408345</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R137" t="n">
-        <v>7126854.625893313</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16031,10 +16015,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480032</v>
+        <v>111480109</v>
       </c>
       <c r="B138" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16047,34 +16031,42 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526450.6922041279</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R138" t="n">
-        <v>7127141.534820292</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16143,10 +16135,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480061</v>
+        <v>111480175</v>
       </c>
       <c r="B139" t="n">
-        <v>78107</v>
+        <v>78579</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16159,21 +16151,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6453</v>
+        <v>2081</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16183,10 +16175,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526549.2920565202</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R139" t="n">
-        <v>7126859.867662492</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16248,17 +16240,17 @@
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480206</v>
+        <v>111480110</v>
       </c>
       <c r="B140" t="n">
-        <v>78512</v>
+        <v>56398</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16267,38 +16259,46 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526454.4890384678</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R140" t="n">
-        <v>7127155.475193184</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16367,10 +16367,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480115</v>
+        <v>111480206</v>
       </c>
       <c r="B141" t="n">
-        <v>56398</v>
+        <v>78512</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16379,46 +16379,38 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526582.5118723252</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R141" t="n">
-        <v>7126843.202344363</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16487,10 +16479,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480180</v>
+        <v>111480118</v>
       </c>
       <c r="B142" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16503,34 +16495,42 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526736.9612626054</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R142" t="n">
-        <v>7126648.50018348</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16599,10 +16599,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480181</v>
+        <v>111480107</v>
       </c>
       <c r="B143" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16615,34 +16615,42 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526762.5781673936</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R143" t="n">
-        <v>7126655.677579562</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16711,10 +16719,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480117</v>
+        <v>111480065</v>
       </c>
       <c r="B144" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16727,42 +16735,34 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526664.107749017</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R144" t="n">
-        <v>7126869.117634357</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>

--- a/artfynd/A 71914-2021.xlsx
+++ b/artfynd/A 71914-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111481793</v>
+        <v>111477203</v>
       </c>
       <c r="B2" t="n">
-        <v>78612</v>
+        <v>76513</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6464</v>
+        <v>314</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526742.0271302022</v>
+        <v>526589.7304216913</v>
       </c>
       <c r="R2" t="n">
-        <v>7126867.184979456</v>
+        <v>7127368.290746101</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -780,19 +780,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111478260</v>
+        <v>111478257</v>
       </c>
       <c r="B3" t="n">
         <v>96368</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>526746.6216685539</v>
+        <v>526504.6649119424</v>
       </c>
       <c r="R3" t="n">
-        <v>7126889.392351454</v>
+        <v>7127291.938577281</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111477203</v>
+        <v>111475404</v>
       </c>
       <c r="B4" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526589.7304216913</v>
+        <v>526536.8261819695</v>
       </c>
       <c r="R4" t="n">
-        <v>7127368.290746101</v>
+        <v>7127296.56142472</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477268</v>
+        <v>111475418</v>
       </c>
       <c r="B5" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>526783.5980437086</v>
+        <v>526641.5754754087</v>
       </c>
       <c r="R5" t="n">
-        <v>7126741.057903775</v>
+        <v>7126908.041672549</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477264</v>
+        <v>111477197</v>
       </c>
       <c r="B6" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>526756.4007905088</v>
+        <v>526618.6342781226</v>
       </c>
       <c r="R6" t="n">
-        <v>7126765.59805485</v>
+        <v>7127447.634256044</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111481781</v>
+        <v>111477279</v>
       </c>
       <c r="B7" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>526703.4301487049</v>
+        <v>526633.8889021962</v>
       </c>
       <c r="R7" t="n">
-        <v>7126901.622689946</v>
+        <v>7126891.023735311</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111481792</v>
+        <v>111481796</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>526807.5942992838</v>
+        <v>526608.5136703107</v>
       </c>
       <c r="R8" t="n">
-        <v>7126734.31175267</v>
+        <v>7126906.452016207</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111478257</v>
+        <v>111475424</v>
       </c>
       <c r="B9" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,38 +1476,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>526504.6649119424</v>
+        <v>526562.7125770835</v>
       </c>
       <c r="R9" t="n">
-        <v>7127291.938577281</v>
+        <v>7127372.838116477</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111475404</v>
+        <v>111475415</v>
       </c>
       <c r="B10" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>526536.8261819695</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R10" t="n">
-        <v>7127296.56142472</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111475418</v>
+        <v>111475399</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,34 +1704,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>526641.5754754087</v>
+        <v>526448.7861015323</v>
       </c>
       <c r="R11" t="n">
-        <v>7126908.041672549</v>
+        <v>7127211.491299792</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111477199</v>
+        <v>111475406</v>
       </c>
       <c r="B12" t="n">
-        <v>76513</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,41 +1820,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>314</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>526719.7991456056</v>
+        <v>526628.8057909949</v>
       </c>
       <c r="R12" t="n">
-        <v>7126870.904059933</v>
+        <v>7126874.89753825</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1900,22 +1908,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111477269</v>
+        <v>111481780</v>
       </c>
       <c r="B13" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1932,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>526734.8568705021</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R13" t="n">
-        <v>7126891.028866394</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2012,22 +2020,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111477197</v>
+        <v>111477234</v>
       </c>
       <c r="B14" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2048,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>526618.6342781226</v>
+        <v>526638.6946075994</v>
       </c>
       <c r="R14" t="n">
-        <v>7127447.634256044</v>
+        <v>7126888.892006672</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,10 +2144,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477209</v>
+        <v>111481784</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2160,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>526709.7900707464</v>
+        <v>526513.0667874835</v>
       </c>
       <c r="R15" t="n">
-        <v>7126870.817277474</v>
+        <v>7127276.365312753</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2236,22 +2244,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111477263</v>
+        <v>111481795</v>
       </c>
       <c r="B16" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2272,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>526733.557377478</v>
+        <v>526578.1343758366</v>
       </c>
       <c r="R16" t="n">
-        <v>7126840.16255208</v>
+        <v>7126947.046857893</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2348,22 +2356,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477279</v>
+        <v>111481778</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,34 +2384,42 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>526633.8889021962</v>
+        <v>526632.5946496209</v>
       </c>
       <c r="R17" t="n">
-        <v>7126891.023735311</v>
+        <v>7126889.708583741</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2460,22 +2476,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481796</v>
+        <v>111481777</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,34 +2504,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>526608.5136703107</v>
+        <v>526576.6359760575</v>
       </c>
       <c r="R18" t="n">
-        <v>7126906.452016207</v>
+        <v>7127372.958205946</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,7 +2608,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111475424</v>
+        <v>111475425</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2624,10 +2648,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>526562.7125770835</v>
+        <v>526350.4355532593</v>
       </c>
       <c r="R19" t="n">
-        <v>7127372.838116477</v>
+        <v>7127161.102700913</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,7 +2720,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111475415</v>
+        <v>111475417</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2736,10 +2760,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>526334.1646390257</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R20" t="n">
-        <v>7127180.955839636</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2808,10 +2832,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111475412</v>
+        <v>111478258</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,38 +2844,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>526788.4021154585</v>
+        <v>526486.4442992809</v>
       </c>
       <c r="R21" t="n">
-        <v>7126588.959279429</v>
+        <v>7127234.849028585</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2908,22 +2932,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111475399</v>
+        <v>111475423</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,42 +2960,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>526448.7861015323</v>
+        <v>526627.7975810008</v>
       </c>
       <c r="R22" t="n">
-        <v>7127211.491299792</v>
+        <v>7127444.671415905</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3040,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111475406</v>
+        <v>111475402</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3056,21 +3072,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3080,10 +3096,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>526628.8057909949</v>
+        <v>526628.5804176665</v>
       </c>
       <c r="R23" t="n">
-        <v>7126874.89753825</v>
+        <v>7126900.974891847</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3152,10 +3168,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481780</v>
+        <v>111477277</v>
       </c>
       <c r="B24" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3164,25 +3180,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3192,10 +3208,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>526629.4958394679</v>
+        <v>526643.3394980798</v>
       </c>
       <c r="R24" t="n">
-        <v>7126895.766960836</v>
+        <v>7126855.0288987</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3252,22 +3268,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111477234</v>
+        <v>111475411</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3280,37 +3296,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>526638.6946075994</v>
+        <v>526633.8626035146</v>
       </c>
       <c r="R25" t="n">
-        <v>7126888.892006672</v>
+        <v>7126894.066088703</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3364,19 +3380,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111477278</v>
+        <v>111475405</v>
       </c>
       <c r="B26" t="n">
         <v>96368</v>
@@ -3412,17 +3428,17 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>526711.8604537799</v>
+        <v>526402.8306512056</v>
       </c>
       <c r="R26" t="n">
-        <v>7126883.005616191</v>
+        <v>7127140.689653471</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3476,22 +3492,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111477273</v>
+        <v>111475427</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3504,37 +3520,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>526843.7421112995</v>
+        <v>526432.8127084307</v>
       </c>
       <c r="R27" t="n">
-        <v>7126731.583709671</v>
+        <v>7127044.459845332</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3588,22 +3604,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481784</v>
+        <v>111478259</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3612,25 +3628,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3640,13 +3656,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>526513.0667874835</v>
+        <v>526622.093687591</v>
       </c>
       <c r="R28" t="n">
-        <v>7127276.365312753</v>
+        <v>7126946.557083774</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3700,22 +3716,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481795</v>
+        <v>111477148</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>103273</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3724,41 +3740,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>221725</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>526578.1343758366</v>
+        <v>526681.1812848106</v>
       </c>
       <c r="R29" t="n">
-        <v>7126947.046857893</v>
+        <v>7126857.529652008</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3812,22 +3828,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111481790</v>
+        <v>111475395</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3840,37 +3856,45 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>526748.151006726</v>
+        <v>526541.4140344799</v>
       </c>
       <c r="R30" t="n">
-        <v>7126763.35306516</v>
+        <v>7127319.634518873</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3924,22 +3948,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111481778</v>
+        <v>111475401</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3948,49 +3972,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>526632.5946496209</v>
+        <v>526359.6403407991</v>
       </c>
       <c r="R31" t="n">
-        <v>7126889.708583741</v>
+        <v>7127153.358349039</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4044,22 +4060,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111475428</v>
+        <v>111477150</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4072,34 +4088,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>526818.0723325044</v>
+        <v>526575.9457110572</v>
       </c>
       <c r="R32" t="n">
-        <v>7126530.532625454</v>
+        <v>7127352.092021598</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4156,22 +4172,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111477230</v>
+        <v>111475400</v>
       </c>
       <c r="B33" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4180,41 +4196,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>526743.0583307605</v>
+        <v>526334.1646390257</v>
       </c>
       <c r="R33" t="n">
-        <v>7126798.517162403</v>
+        <v>7127180.955839636</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4268,22 +4284,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111475407</v>
+        <v>111481785</v>
       </c>
       <c r="B34" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4292,41 +4308,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>526761.6737779978</v>
+        <v>526629.4958394679</v>
       </c>
       <c r="R34" t="n">
-        <v>7126659.581915028</v>
+        <v>7126895.766960836</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4380,22 +4396,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481797</v>
+        <v>111492224</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,21 +4424,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4432,10 +4448,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>526724.4788811355</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R35" t="n">
-        <v>7126833.129197065</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4492,22 +4508,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111481777</v>
+        <v>111480504</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>78611</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4516,46 +4532,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>526576.6359760575</v>
+        <v>526549.4044071162</v>
       </c>
       <c r="R36" t="n">
-        <v>7127372.958205946</v>
+        <v>7126846.828840361</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4612,22 +4620,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111475425</v>
+        <v>111480389</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4640,37 +4648,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>526350.4355532593</v>
+        <v>526658.5471790246</v>
       </c>
       <c r="R37" t="n">
-        <v>7127161.102700913</v>
+        <v>7126908.188469252</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4724,22 +4732,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111475417</v>
+        <v>111480260</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>95538</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4748,41 +4756,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>221941</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>526628.5804176665</v>
+        <v>526443.6441876995</v>
       </c>
       <c r="R38" t="n">
-        <v>7126900.974891847</v>
+        <v>7127151.470534382</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4836,22 +4844,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111475396</v>
+        <v>111492218</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4864,45 +4872,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>526760.8615308162</v>
+        <v>526596.6363403485</v>
       </c>
       <c r="R39" t="n">
-        <v>7126552.639882971</v>
+        <v>7127072.382200824</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4956,22 +4956,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111475409</v>
+        <v>111492232</v>
       </c>
       <c r="B40" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4980,41 +4980,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>526801.3654488353</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R40" t="n">
-        <v>7126749.905904328</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5068,22 +5068,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111478258</v>
+        <v>111480521</v>
       </c>
       <c r="B41" t="n">
-        <v>96368</v>
+        <v>76495</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5092,25 +5092,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221952</v>
+        <v>6487</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>526486.4442992809</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R41" t="n">
-        <v>7127234.849028585</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5180,22 +5180,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111477246</v>
+        <v>111492234</v>
       </c>
       <c r="B42" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5208,21 +5208,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>526794.8191702637</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R42" t="n">
-        <v>7126802.009519467</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5292,22 +5292,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111477250</v>
+        <v>111492236</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5320,21 +5320,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>526770.2400840909</v>
+        <v>526602.6161355394</v>
       </c>
       <c r="R43" t="n">
-        <v>7126775.715713345</v>
+        <v>7126984.637523879</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5404,19 +5404,19 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111477151</v>
+        <v>111492222</v>
       </c>
       <c r="B44" t="n">
         <v>73696</v>
@@ -5452,17 +5452,17 @@
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>526778.943100647</v>
+        <v>526598.1368079525</v>
       </c>
       <c r="R44" t="n">
-        <v>7126725.803744309</v>
+        <v>7127100.211284383</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5516,22 +5516,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111475423</v>
+        <v>111492235</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5544,37 +5544,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>526627.7975810008</v>
+        <v>526385.5844560881</v>
       </c>
       <c r="R45" t="n">
-        <v>7127444.671415905</v>
+        <v>7127223.552981463</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5628,22 +5628,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111475402</v>
+        <v>111480495</v>
       </c>
       <c r="B46" t="n">
-        <v>78605</v>
+        <v>85715</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5652,41 +5652,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>526628.5804176665</v>
+        <v>526532.2429613075</v>
       </c>
       <c r="R46" t="n">
-        <v>7126900.974891847</v>
+        <v>7127323.466861598</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5740,19 +5740,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111477286</v>
+        <v>111480441</v>
       </c>
       <c r="B47" t="n">
         <v>77515</v>
@@ -5792,10 +5792,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>526791.4164464728</v>
+        <v>526594.1567224554</v>
       </c>
       <c r="R47" t="n">
-        <v>7126742.86457725</v>
+        <v>7126855.473320428</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5852,22 +5852,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111477152</v>
+        <v>111492221</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5880,37 +5880,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>526790.9213834098</v>
+        <v>526603.5760295368</v>
       </c>
       <c r="R48" t="n">
-        <v>7126799.80228779</v>
+        <v>7127125.466399673</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5964,22 +5964,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111477284</v>
+        <v>111492225</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5992,21 +5992,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6016,10 +6016,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>526737.8549399736</v>
+        <v>526609.6312623346</v>
       </c>
       <c r="R49" t="n">
-        <v>7126796.298664714</v>
+        <v>7126978.613118013</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6076,22 +6076,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111477277</v>
+        <v>111492230</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6100,25 +6100,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6128,10 +6128,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>526643.3394980798</v>
+        <v>526575.169212656</v>
       </c>
       <c r="R50" t="n">
-        <v>7126855.0288987</v>
+        <v>7127341.220564325</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6188,22 +6188,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111477149</v>
+        <v>111480527</v>
       </c>
       <c r="B51" t="n">
-        <v>73696</v>
+        <v>76918</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6216,40 +6216,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>526773.3997162007</v>
+        <v>526547.1610996595</v>
       </c>
       <c r="R51" t="n">
-        <v>7126762.703002418</v>
+        <v>7126854.633392128</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6297,29 +6294,28 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111477154</v>
+        <v>111492241</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>89401</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6328,41 +6324,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>1108</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>526784.7834235848</v>
+        <v>526475.7192807253</v>
       </c>
       <c r="R52" t="n">
-        <v>7126804.964935203</v>
+        <v>7127216.937948915</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6416,22 +6412,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111481787</v>
+        <v>111480061</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6444,21 +6440,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6468,10 +6464,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>526745.1073277664</v>
+        <v>526549.2920565202</v>
       </c>
       <c r="R53" t="n">
-        <v>7126863.299787878</v>
+        <v>7126859.867662492</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6528,19 +6524,19 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111475411</v>
+        <v>111480177</v>
       </c>
       <c r="B54" t="n">
         <v>78579</v>
@@ -6576,17 +6572,17 @@
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>526633.8626035146</v>
+        <v>526546.2907408345</v>
       </c>
       <c r="R54" t="n">
-        <v>7126894.066088703</v>
+        <v>7126854.625893313</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6640,22 +6636,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111475405</v>
+        <v>111480025</v>
       </c>
       <c r="B55" t="n">
-        <v>96368</v>
+        <v>76513</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6664,41 +6660,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221952</v>
+        <v>314</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>526402.8306512056</v>
+        <v>526450.6922041279</v>
       </c>
       <c r="R55" t="n">
-        <v>7127140.689653471</v>
+        <v>7127141.534820292</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6752,22 +6748,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111475408</v>
+        <v>111480113</v>
       </c>
       <c r="B56" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6776,41 +6772,49 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>526807.9596872492</v>
+        <v>526531.3727349282</v>
       </c>
       <c r="R56" t="n">
-        <v>7126492.190286946</v>
+        <v>7127323.459366731</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6864,22 +6868,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111477156</v>
+        <v>111480106</v>
       </c>
       <c r="B57" t="n">
-        <v>78611</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6888,41 +6892,49 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>526783.9659439438</v>
+        <v>526452.5306142806</v>
       </c>
       <c r="R57" t="n">
-        <v>7126798.872483394</v>
+        <v>7127231.515399783</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6976,22 +6988,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111477226</v>
+        <v>111480176</v>
       </c>
       <c r="B58" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7004,21 +7016,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7028,10 +7040,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>526776.5518203602</v>
+        <v>526494.5189215972</v>
       </c>
       <c r="R58" t="n">
-        <v>7126750.55952362</v>
+        <v>7127307.931379622</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7088,22 +7100,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111481788</v>
+        <v>111480109</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7116,34 +7128,42 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>526710.6246283256</v>
+        <v>526641.1372953646</v>
       </c>
       <c r="R59" t="n">
-        <v>7126824.750457344</v>
+        <v>7126858.052473077</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7200,22 +7220,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111475427</v>
+        <v>111480175</v>
       </c>
       <c r="B60" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7228,37 +7248,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>526432.8127084307</v>
+        <v>526533.0795019253</v>
       </c>
       <c r="R60" t="n">
-        <v>7127044.459845332</v>
+        <v>7127327.385405498</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7312,22 +7332,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111475430</v>
+        <v>111480110</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7340,37 +7360,45 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>526904.464734747</v>
+        <v>526664.107749017</v>
       </c>
       <c r="R61" t="n">
-        <v>7126755.585814431</v>
+        <v>7126869.117634357</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7424,22 +7452,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111475429</v>
+        <v>111480206</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7448,41 +7476,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>526801.3654488353</v>
+        <v>526454.4890384678</v>
       </c>
       <c r="R62" t="n">
-        <v>7126749.905904328</v>
+        <v>7127155.475193184</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7536,22 +7564,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111475421</v>
+        <v>111480107</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7564,37 +7592,45 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>526790.5782004726</v>
+        <v>526582.5118723252</v>
       </c>
       <c r="R63" t="n">
-        <v>7126588.978197531</v>
+        <v>7126843.202344363</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7648,22 +7684,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111477155</v>
+        <v>111480065</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7676,37 +7712,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>526757.7867624827</v>
+        <v>526618.0915837138</v>
       </c>
       <c r="R64" t="n">
-        <v>7126806.469043032</v>
+        <v>7126855.679999291</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7760,22 +7796,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111478259</v>
+        <v>111481793</v>
       </c>
       <c r="B65" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7788,21 +7824,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7812,13 +7848,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>526622.093687591</v>
+        <v>526742.0271302022</v>
       </c>
       <c r="R65" t="n">
-        <v>7126946.557083774</v>
+        <v>7126867.184979456</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7872,22 +7908,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111477282</v>
+        <v>111478260</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7896,25 +7932,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7924,13 +7960,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>526753.3544461714</v>
+        <v>526746.6216685539</v>
       </c>
       <c r="R66" t="n">
-        <v>7126765.571603379</v>
+        <v>7126889.392351454</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7984,22 +8020,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111477148</v>
+        <v>111477268</v>
       </c>
       <c r="B67" t="n">
-        <v>103273</v>
+        <v>73696</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8008,41 +8044,41 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221725</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>526681.1812848106</v>
+        <v>526783.5980437086</v>
       </c>
       <c r="R67" t="n">
-        <v>7126857.529652008</v>
+        <v>7126741.057903775</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8096,19 +8132,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111477262</v>
+        <v>111477264</v>
       </c>
       <c r="B68" t="n">
         <v>73696</v>
@@ -8148,10 +8184,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>526874.3871010491</v>
+        <v>526756.4007905088</v>
       </c>
       <c r="R68" t="n">
-        <v>7126760.97409881</v>
+        <v>7126765.59805485</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8220,10 +8256,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111481791</v>
+        <v>111481781</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8232,25 +8268,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8260,10 +8296,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>526766.8104247742</v>
+        <v>526703.4301487049</v>
       </c>
       <c r="R69" t="n">
-        <v>7126719.612825709</v>
+        <v>7126901.622689946</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8332,10 +8368,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111481779</v>
+        <v>111481792</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8348,42 +8384,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>526741.1907235509</v>
+        <v>526807.5942992838</v>
       </c>
       <c r="R70" t="n">
-        <v>7126863.265793501</v>
+        <v>7126734.31175267</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8452,10 +8480,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111475398</v>
+        <v>111477199</v>
       </c>
       <c r="B71" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8468,45 +8496,37 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>526795.3655874674</v>
+        <v>526719.7991456056</v>
       </c>
       <c r="R71" t="n">
-        <v>7126589.019822755</v>
+        <v>7126870.904059933</v>
       </c>
       <c r="S71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8560,22 +8580,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111475395</v>
+        <v>111477269</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8588,45 +8608,37 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>526541.4140344799</v>
+        <v>526734.8568705021</v>
       </c>
       <c r="R72" t="n">
-        <v>7127319.634518873</v>
+        <v>7126891.028866394</v>
       </c>
       <c r="S72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8680,22 +8692,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111477153</v>
+        <v>111477209</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8708,37 +8720,37 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>526793.9223398847</v>
+        <v>526709.7900707464</v>
       </c>
       <c r="R73" t="n">
-        <v>7126805.044392107</v>
+        <v>7126870.817277474</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8792,22 +8804,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111481794</v>
+        <v>111477263</v>
       </c>
       <c r="B74" t="n">
-        <v>78612</v>
+        <v>73696</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8816,25 +8828,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8844,10 +8856,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>526759.9373603656</v>
+        <v>526733.557377478</v>
       </c>
       <c r="R74" t="n">
-        <v>7126859.516619125</v>
+        <v>7126840.16255208</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8904,22 +8916,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111475401</v>
+        <v>111475412</v>
       </c>
       <c r="B75" t="n">
-        <v>78605</v>
+        <v>78579</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8928,25 +8940,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8956,10 +8968,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>526359.6403407991</v>
+        <v>526788.4021154585</v>
       </c>
       <c r="R75" t="n">
-        <v>7127153.358349039</v>
+        <v>7126588.959279429</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9028,10 +9040,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111477150</v>
+        <v>111477278</v>
       </c>
       <c r="B76" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9040,41 +9052,41 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>bäckslåtten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>526575.9457110572</v>
+        <v>526711.8604537799</v>
       </c>
       <c r="R76" t="n">
-        <v>7127352.092021598</v>
+        <v>7126883.005616191</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9128,22 +9140,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111475400</v>
+        <v>111477273</v>
       </c>
       <c r="B77" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9152,41 +9164,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>526334.1646390257</v>
+        <v>526843.7421112995</v>
       </c>
       <c r="R77" t="n">
-        <v>7127180.955839636</v>
+        <v>7126731.583709671</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9240,22 +9252,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111475422</v>
+        <v>111481790</v>
       </c>
       <c r="B78" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9268,37 +9280,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>526830.8338072833</v>
+        <v>526748.151006726</v>
       </c>
       <c r="R78" t="n">
-        <v>7126714.5188105</v>
+        <v>7126763.35306516</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9352,22 +9364,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111475420</v>
+        <v>111475428</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9380,21 +9392,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9404,10 +9416,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>526782.4503789117</v>
+        <v>526818.0723325044</v>
       </c>
       <c r="R79" t="n">
-        <v>7126672.803025675</v>
+        <v>7126530.532625454</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9476,10 +9488,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111475419</v>
+        <v>111477230</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9492,37 +9504,37 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Bäckslotten, Jmt</t>
+          <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>526750.3609286405</v>
+        <v>526743.0583307605</v>
       </c>
       <c r="R80" t="n">
-        <v>7126759.460191521</v>
+        <v>7126798.517162403</v>
       </c>
       <c r="S80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9576,22 +9588,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111481785</v>
+        <v>111475407</v>
       </c>
       <c r="B81" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9600,41 +9612,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>526629.4958394679</v>
+        <v>526761.6737779978</v>
       </c>
       <c r="R81" t="n">
-        <v>7126895.766960836</v>
+        <v>7126659.581915028</v>
       </c>
       <c r="S81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9688,22 +9700,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480379</v>
+        <v>111481797</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9712,25 +9724,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9740,10 +9752,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>526799.075599193</v>
+        <v>526724.4788811355</v>
       </c>
       <c r="R82" t="n">
-        <v>7126712.93839974</v>
+        <v>7126833.129197065</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9800,22 +9812,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492224</v>
+        <v>111475396</v>
       </c>
       <c r="B83" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9828,37 +9840,45 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>526596.6363403485</v>
+        <v>526760.8615308162</v>
       </c>
       <c r="R83" t="n">
-        <v>7127072.382200824</v>
+        <v>7126552.639882971</v>
       </c>
       <c r="S83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9912,22 +9932,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480505</v>
+        <v>111475409</v>
       </c>
       <c r="B84" t="n">
-        <v>78611</v>
+        <v>96368</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9940,37 +9960,37 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6463</v>
+        <v>221952</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>526660.4581602761</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R84" t="n">
-        <v>7126838.225198075</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -10024,22 +10044,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480482</v>
+        <v>111477246</v>
       </c>
       <c r="B85" t="n">
-        <v>88899</v>
+        <v>89423</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10052,21 +10072,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3286</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10076,10 +10096,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>526688.4566125805</v>
+        <v>526794.8191702637</v>
       </c>
       <c r="R85" t="n">
-        <v>7126821.515715363</v>
+        <v>7126802.009519467</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10136,22 +10156,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480504</v>
+        <v>111477250</v>
       </c>
       <c r="B86" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10160,20 +10180,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -10188,10 +10208,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>526549.4044071162</v>
+        <v>526770.2400840909</v>
       </c>
       <c r="R86" t="n">
-        <v>7126846.828840361</v>
+        <v>7126775.715713345</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10248,22 +10268,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480328</v>
+        <v>111477151</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10276,37 +10296,37 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>526797.7359805232</v>
+        <v>526778.943100647</v>
       </c>
       <c r="R87" t="n">
-        <v>7126716.838867592</v>
+        <v>7126725.803744309</v>
       </c>
       <c r="S87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10354,29 +10374,28 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480389</v>
+        <v>111477286</v>
       </c>
       <c r="B88" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10389,21 +10408,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10413,10 +10432,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>526658.5471790246</v>
+        <v>526791.4164464728</v>
       </c>
       <c r="R88" t="n">
-        <v>7126908.188469252</v>
+        <v>7126742.86457725</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10473,19 +10492,19 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480289</v>
+        <v>111477152</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -10521,17 +10540,17 @@
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>526772.4066721974</v>
+        <v>526790.9213834098</v>
       </c>
       <c r="R89" t="n">
-        <v>7126676.627914459</v>
+        <v>7126799.80228779</v>
       </c>
       <c r="S89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10585,22 +10604,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480260</v>
+        <v>111477284</v>
       </c>
       <c r="B90" t="n">
-        <v>95538</v>
+        <v>77515</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10609,25 +10628,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10637,10 +10656,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>526443.6441876995</v>
+        <v>526737.8549399736</v>
       </c>
       <c r="R90" t="n">
-        <v>7127151.470534382</v>
+        <v>7126796.298664714</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10697,22 +10716,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492218</v>
+        <v>111477149</v>
       </c>
       <c r="B91" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10725,37 +10744,40 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>526596.6363403485</v>
+        <v>526773.3997162007</v>
       </c>
       <c r="R91" t="n">
-        <v>7127072.382200824</v>
+        <v>7126762.703002418</v>
       </c>
       <c r="S91" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -10803,28 +10825,29 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492238</v>
+        <v>111477154</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10833,41 +10856,41 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>526774.8534470783</v>
+        <v>526784.7834235848</v>
       </c>
       <c r="R92" t="n">
-        <v>7126795.750608556</v>
+        <v>7126804.964935203</v>
       </c>
       <c r="S92" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -10921,22 +10944,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111492232</v>
+        <v>111481787</v>
       </c>
       <c r="B93" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10949,21 +10972,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10973,10 +10996,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>526602.6161355394</v>
+        <v>526745.1073277664</v>
       </c>
       <c r="R93" t="n">
-        <v>7126984.637523879</v>
+        <v>7126863.299787878</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11033,22 +11056,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480333</v>
+        <v>111475408</v>
       </c>
       <c r="B94" t="n">
-        <v>78612</v>
+        <v>96368</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11061,37 +11084,37 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>526734.811617541</v>
+        <v>526807.9596872492</v>
       </c>
       <c r="R94" t="n">
-        <v>7126645.438707692</v>
+        <v>7126492.190286946</v>
       </c>
       <c r="S94" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11145,22 +11168,22 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480521</v>
+        <v>111477156</v>
       </c>
       <c r="B95" t="n">
-        <v>76495</v>
+        <v>78611</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11169,41 +11192,41 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6487</v>
+        <v>6463</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>526547.1610996595</v>
+        <v>526783.9659439438</v>
       </c>
       <c r="R95" t="n">
-        <v>7126854.633392128</v>
+        <v>7126798.872483394</v>
       </c>
       <c r="S95" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11257,22 +11280,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111492233</v>
+        <v>111477226</v>
       </c>
       <c r="B96" t="n">
-        <v>78512</v>
+        <v>73696</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11281,25 +11304,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6456</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11309,10 +11332,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>526789.6416554189</v>
+        <v>526776.5518203602</v>
       </c>
       <c r="R96" t="n">
-        <v>7126746.761226696</v>
+        <v>7126750.55952362</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11369,19 +11392,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111492234</v>
+        <v>111481788</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11421,10 +11444,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>526575.169212656</v>
+        <v>526710.6246283256</v>
       </c>
       <c r="R97" t="n">
-        <v>7127341.220564325</v>
+        <v>7126824.750457344</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11481,22 +11504,22 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111492236</v>
+        <v>111475430</v>
       </c>
       <c r="B98" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11509,37 +11532,37 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>526602.6161355394</v>
+        <v>526904.464734747</v>
       </c>
       <c r="R98" t="n">
-        <v>7126984.637523879</v>
+        <v>7126755.585814431</v>
       </c>
       <c r="S98" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -11593,22 +11616,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111492222</v>
+        <v>111475429</v>
       </c>
       <c r="B99" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11621,37 +11644,37 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>526598.1368079525</v>
+        <v>526801.3654488353</v>
       </c>
       <c r="R99" t="n">
-        <v>7127100.211284383</v>
+        <v>7126749.905904328</v>
       </c>
       <c r="S99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -11705,19 +11728,19 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111492235</v>
+        <v>111475421</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -11753,17 +11776,17 @@
       <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>526385.5844560881</v>
+        <v>526790.5782004726</v>
       </c>
       <c r="R100" t="n">
-        <v>7127223.552981463</v>
+        <v>7126588.978197531</v>
       </c>
       <c r="S100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -11817,22 +11840,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480507</v>
+        <v>111477155</v>
       </c>
       <c r="B101" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11841,20 +11864,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -11865,17 +11888,17 @@
       <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>526894.459077736</v>
+        <v>526757.7867624827</v>
       </c>
       <c r="R101" t="n">
-        <v>7126755.063791552</v>
+        <v>7126806.469043032</v>
       </c>
       <c r="S101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11929,22 +11952,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480495</v>
+        <v>111477282</v>
       </c>
       <c r="B102" t="n">
-        <v>85715</v>
+        <v>78578</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11957,21 +11980,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11981,10 +12004,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>526532.2429613075</v>
+        <v>526753.3544461714</v>
       </c>
       <c r="R102" t="n">
-        <v>7127323.466861598</v>
+        <v>7126765.571603379</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12041,22 +12064,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111492247</v>
+        <v>111477262</v>
       </c>
       <c r="B103" t="n">
-        <v>78467</v>
+        <v>73696</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12065,25 +12088,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6457</v>
+        <v>6440</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12093,10 +12116,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>526777.8204396158</v>
+        <v>526874.3871010491</v>
       </c>
       <c r="R103" t="n">
-        <v>7126804.904414805</v>
+        <v>7126760.97409881</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12153,22 +12176,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480378</v>
+        <v>111481791</v>
       </c>
       <c r="B104" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12177,25 +12200,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12205,10 +12228,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>526749.2830160656</v>
+        <v>526766.8104247742</v>
       </c>
       <c r="R104" t="n">
-        <v>7126783.357779803</v>
+        <v>7126719.612825709</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12265,22 +12288,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480285</v>
+        <v>111481779</v>
       </c>
       <c r="B105" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12293,34 +12316,42 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>526736.9537197551</v>
+        <v>526741.1907235509</v>
       </c>
       <c r="R105" t="n">
-        <v>7126649.369495919</v>
+        <v>7126863.265793501</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12377,22 +12408,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111492226</v>
+        <v>111475398</v>
       </c>
       <c r="B106" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12405,37 +12436,45 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>526770.3722498151</v>
+        <v>526795.3655874674</v>
       </c>
       <c r="R106" t="n">
-        <v>7126760.503332262</v>
+        <v>7126589.019822755</v>
       </c>
       <c r="S106" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -12489,22 +12528,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111480441</v>
+        <v>111477153</v>
       </c>
       <c r="B107" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12517,37 +12556,37 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>526594.1567224554</v>
+        <v>526793.9223398847</v>
       </c>
       <c r="R107" t="n">
-        <v>7126855.473320428</v>
+        <v>7126805.044392107</v>
       </c>
       <c r="S107" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12601,22 +12640,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111492221</v>
+        <v>111481794</v>
       </c>
       <c r="B108" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12625,25 +12664,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12653,10 +12692,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>526603.5760295368</v>
+        <v>526759.9373603656</v>
       </c>
       <c r="R108" t="n">
-        <v>7127125.466399673</v>
+        <v>7126859.516619125</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12713,22 +12752,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Elias Blad, Iris Elmér, Astrid Blomberg, Elvira Klang, Filippa Paperin, Tore Dahlberg, Kai Strömberg, Ivar Anderberg, Melvin Lewin, Signe Propst, Jonathan Frendel</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111492225</v>
+        <v>111475422</v>
       </c>
       <c r="B109" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12741,37 +12780,37 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>526609.6312623346</v>
+        <v>526830.8338072833</v>
       </c>
       <c r="R109" t="n">
-        <v>7126978.613118013</v>
+        <v>7126714.5188105</v>
       </c>
       <c r="S109" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -12825,22 +12864,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111492230</v>
+        <v>111475420</v>
       </c>
       <c r="B110" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12849,41 +12888,41 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>526575.169212656</v>
+        <v>526782.4503789117</v>
       </c>
       <c r="R110" t="n">
-        <v>7127341.220564325</v>
+        <v>7126672.803025675</v>
       </c>
       <c r="S110" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -12937,22 +12976,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111492249</v>
+        <v>111475419</v>
       </c>
       <c r="B111" t="n">
-        <v>89793</v>
+        <v>78578</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12961,41 +13000,41 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4217</v>
+        <v>6458</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Bäckslåtten, Jmt</t>
+          <t>Bäckslotten, Jmt</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>526847.6058643057</v>
+        <v>526750.3609286405</v>
       </c>
       <c r="R111" t="n">
-        <v>7126737.702852693</v>
+        <v>7126759.460191521</v>
       </c>
       <c r="S111" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -13049,22 +13088,22 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111492237</v>
+        <v>111480379</v>
       </c>
       <c r="B112" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13073,25 +13112,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13101,10 +13140,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>526801.6271560494</v>
+        <v>526799.075599193</v>
       </c>
       <c r="R112" t="n">
-        <v>7126819.89004916</v>
+        <v>7126712.93839974</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13161,22 +13200,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111480332</v>
+        <v>111480505</v>
       </c>
       <c r="B113" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13189,21 +13228,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13213,10 +13252,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>526894.459077736</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R113" t="n">
-        <v>7126755.063791552</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13285,10 +13324,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111492240</v>
+        <v>111480482</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>88899</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13297,50 +13336,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>3286</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>526812.9225573848</v>
+        <v>526688.4566125805</v>
       </c>
       <c r="R114" t="n">
-        <v>7126722.187129569</v>
+        <v>7126821.515715363</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13391,29 +13418,28 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111492242</v>
+        <v>111480328</v>
       </c>
       <c r="B115" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13426,21 +13452,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13450,10 +13476,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>526774.0510519799</v>
+        <v>526797.7359805232</v>
       </c>
       <c r="R115" t="n">
-        <v>7126787.919595245</v>
+        <v>7126716.838867592</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13504,28 +13530,29 @@
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111492239</v>
+        <v>111480289</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13534,50 +13561,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>526801.7821608522</v>
+        <v>526772.4066721974</v>
       </c>
       <c r="R116" t="n">
-        <v>7126802.070078265</v>
+        <v>7126676.627914459</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13628,29 +13643,28 @@
       <c r="AE116" t="b">
         <v>0</v>
       </c>
-      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111492231</v>
+        <v>111492238</v>
       </c>
       <c r="B117" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13659,25 +13673,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13687,10 +13701,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>526761.6090650371</v>
+        <v>526774.8534470783</v>
       </c>
       <c r="R117" t="n">
-        <v>7126817.368890626</v>
+        <v>7126795.750608556</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -13759,10 +13773,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111480422</v>
+        <v>111480333</v>
       </c>
       <c r="B118" t="n">
-        <v>89423</v>
+        <v>78612</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13771,25 +13785,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13799,10 +13813,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>526825.2556783153</v>
+        <v>526734.811617541</v>
       </c>
       <c r="R118" t="n">
-        <v>7126705.341951311</v>
+        <v>7126645.438707692</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -13871,10 +13885,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492245</v>
+        <v>111492233</v>
       </c>
       <c r="B119" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13883,25 +13897,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13911,10 +13925,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>526603.415572185</v>
+        <v>526789.6416554189</v>
       </c>
       <c r="R119" t="n">
-        <v>7126841.644113425</v>
+        <v>7126746.761226696</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13983,10 +13997,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492243</v>
+        <v>111480507</v>
       </c>
       <c r="B120" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13995,25 +14009,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14023,10 +14037,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>526790.3722218492</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R120" t="n">
-        <v>7126762.850523639</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14083,22 +14097,22 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111480527</v>
+        <v>111492247</v>
       </c>
       <c r="B121" t="n">
-        <v>76918</v>
+        <v>78467</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14107,25 +14121,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6437</v>
+        <v>6457</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14135,10 +14149,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>526547.1610996595</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R121" t="n">
-        <v>7126854.633392128</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14195,22 +14209,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111492248</v>
+        <v>111480378</v>
       </c>
       <c r="B122" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14219,25 +14233,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14247,10 +14261,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>526777.8204396158</v>
+        <v>526749.2830160656</v>
       </c>
       <c r="R122" t="n">
-        <v>7126804.904414805</v>
+        <v>7126783.357779803</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14307,22 +14321,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111492228</v>
+        <v>111480285</v>
       </c>
       <c r="B123" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14335,21 +14349,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14359,10 +14373,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>526910.4891168335</v>
+        <v>526736.9537197551</v>
       </c>
       <c r="R123" t="n">
-        <v>7126763.462551801</v>
+        <v>7126649.369495919</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14419,22 +14433,22 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111480502</v>
+        <v>111492226</v>
       </c>
       <c r="B124" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14443,25 +14457,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14471,10 +14485,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>526737.8241366684</v>
+        <v>526770.3722498151</v>
       </c>
       <c r="R124" t="n">
-        <v>7126649.377048474</v>
+        <v>7126760.503332262</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14531,22 +14545,22 @@
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111492246</v>
+        <v>111492249</v>
       </c>
       <c r="B125" t="n">
-        <v>77515</v>
+        <v>89793</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14555,25 +14569,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6425</v>
+        <v>4217</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14583,10 +14597,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>526721.4037833994</v>
+        <v>526847.6058643057</v>
       </c>
       <c r="R125" t="n">
-        <v>7126986.969393951</v>
+        <v>7126737.702852693</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14655,10 +14669,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111492241</v>
+        <v>111492237</v>
       </c>
       <c r="B126" t="n">
-        <v>89401</v>
+        <v>78578</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14671,21 +14685,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14695,10 +14709,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>526475.7192807253</v>
+        <v>526801.6271560494</v>
       </c>
       <c r="R126" t="n">
-        <v>7127216.937948915</v>
+        <v>7126819.89004916</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14767,10 +14781,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111480061</v>
+        <v>111480332</v>
       </c>
       <c r="B127" t="n">
-        <v>78107</v>
+        <v>78612</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14779,25 +14793,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6453</v>
+        <v>6464</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14807,10 +14821,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>526549.2920565202</v>
+        <v>526894.459077736</v>
       </c>
       <c r="R127" t="n">
-        <v>7126859.867662492</v>
+        <v>7126755.063791552</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14872,17 +14886,17 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111480180</v>
+        <v>111492240</v>
       </c>
       <c r="B128" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14891,38 +14905,50 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>526736.9612626054</v>
+        <v>526812.9225573848</v>
       </c>
       <c r="R128" t="n">
-        <v>7126648.50018348</v>
+        <v>7126722.187129569</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14973,28 +14999,29 @@
       <c r="AE128" t="b">
         <v>0</v>
       </c>
+      <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="b">
         <v>0</v>
       </c>
       <c r="AT128" t="inlineStr"/>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111480207</v>
+        <v>111492242</v>
       </c>
       <c r="B129" t="n">
-        <v>78512</v>
+        <v>89423</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15003,25 +15030,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15031,10 +15058,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>526894.4742524296</v>
+        <v>526774.0510519799</v>
       </c>
       <c r="R129" t="n">
-        <v>7126753.32522574</v>
+        <v>7126787.919595245</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15091,22 +15118,22 @@
       <c r="AT129" t="inlineStr"/>
       <c r="AW129" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480131</v>
+        <v>111492239</v>
       </c>
       <c r="B130" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15115,38 +15142,50 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>526894.4666650819</v>
+        <v>526801.7821608522</v>
       </c>
       <c r="R130" t="n">
-        <v>7126754.194508768</v>
+        <v>7126802.070078265</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15197,28 +15236,29 @@
       <c r="AE130" t="b">
         <v>0</v>
       </c>
+      <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="b">
         <v>0</v>
       </c>
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480174</v>
+        <v>111492231</v>
       </c>
       <c r="B131" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15227,25 +15267,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15255,10 +15295,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>526762.5781673936</v>
+        <v>526761.6090650371</v>
       </c>
       <c r="R131" t="n">
-        <v>7126655.677579562</v>
+        <v>7126817.368890626</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15315,22 +15355,22 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111480177</v>
+        <v>111480422</v>
       </c>
       <c r="B132" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15343,21 +15383,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15367,10 +15407,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>526546.2907408345</v>
+        <v>526825.2556783153</v>
       </c>
       <c r="R132" t="n">
-        <v>7126854.625893313</v>
+        <v>7126705.341951311</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15432,17 +15472,17 @@
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480025</v>
+        <v>111492245</v>
       </c>
       <c r="B133" t="n">
-        <v>76513</v>
+        <v>77515</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15455,21 +15495,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15479,10 +15519,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>526450.6922041279</v>
+        <v>526603.415572185</v>
       </c>
       <c r="R133" t="n">
-        <v>7127141.534820292</v>
+        <v>7126841.644113425</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15539,22 +15579,22 @@
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111480172</v>
+        <v>111492243</v>
       </c>
       <c r="B134" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15567,21 +15607,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -15591,10 +15631,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>526660.4581602761</v>
+        <v>526790.3722218492</v>
       </c>
       <c r="R134" t="n">
-        <v>7126838.225198075</v>
+        <v>7126762.850523639</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15651,22 +15691,22 @@
       <c r="AT134" t="inlineStr"/>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111480113</v>
+        <v>111492248</v>
       </c>
       <c r="B135" t="n">
-        <v>56398</v>
+        <v>78611</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15675,46 +15715,38 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>526531.3727349282</v>
+        <v>526777.8204396158</v>
       </c>
       <c r="R135" t="n">
-        <v>7127323.459366731</v>
+        <v>7126804.904414805</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15771,22 +15803,22 @@
       <c r="AT135" t="inlineStr"/>
       <c r="AW135" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111480106</v>
+        <v>111492228</v>
       </c>
       <c r="B136" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15799,42 +15831,34 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>526452.5306142806</v>
+        <v>526910.4891168335</v>
       </c>
       <c r="R136" t="n">
-        <v>7127231.515399783</v>
+        <v>7126763.462551801</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15891,22 +15915,22 @@
       <c r="AT136" t="inlineStr"/>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111480176</v>
+        <v>111480502</v>
       </c>
       <c r="B137" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15915,25 +15939,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15943,10 +15967,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>526494.5189215972</v>
+        <v>526737.8241366684</v>
       </c>
       <c r="R137" t="n">
-        <v>7127307.931379622</v>
+        <v>7126649.377048474</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16008,17 +16032,17 @@
       </c>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111480109</v>
+        <v>111492246</v>
       </c>
       <c r="B138" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16031,42 +16055,34 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>526641.1372953646</v>
+        <v>526721.4037833994</v>
       </c>
       <c r="R138" t="n">
-        <v>7126858.052473077</v>
+        <v>7126986.969393951</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16123,19 +16139,19 @@
       <c r="AT138" t="inlineStr"/>
       <c r="AW138" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Karl Soler Kinnerbäck, Filippa Paperin, Jonathan Frendel, Signe Propst, Iris Elmér, Elias Blad, Elicia Olsson, Astrid Blomberg, Ivar Anderberg, Kai Strömberg, Melvin Lewin, Elvira Klang</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111480175</v>
+        <v>111480180</v>
       </c>
       <c r="B139" t="n">
         <v>78579</v>
@@ -16175,10 +16191,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>526533.0795019253</v>
+        <v>526736.9612626054</v>
       </c>
       <c r="R139" t="n">
-        <v>7127327.385405498</v>
+        <v>7126648.50018348</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16247,10 +16263,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111480110</v>
+        <v>111480207</v>
       </c>
       <c r="B140" t="n">
-        <v>56398</v>
+        <v>78512</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16259,46 +16275,38 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>526664.107749017</v>
+        <v>526894.4742524296</v>
       </c>
       <c r="R140" t="n">
-        <v>7126869.117634357</v>
+        <v>7126753.32522574</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16367,10 +16375,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111480206</v>
+        <v>111480131</v>
       </c>
       <c r="B141" t="n">
-        <v>78512</v>
+        <v>56543</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16379,25 +16387,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6456</v>
+        <v>103021</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16407,10 +16415,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>526454.4890384678</v>
+        <v>526894.4666650819</v>
       </c>
       <c r="R141" t="n">
-        <v>7127155.475193184</v>
+        <v>7126754.194508768</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16479,10 +16487,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111480118</v>
+        <v>111480174</v>
       </c>
       <c r="B142" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16495,42 +16503,34 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>526775.4342201974</v>
+        <v>526762.5781673936</v>
       </c>
       <c r="R142" t="n">
-        <v>7126678.827645465</v>
+        <v>7126655.677579562</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16599,10 +16599,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111480107</v>
+        <v>111480172</v>
       </c>
       <c r="B143" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16615,42 +16615,34 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>526582.5118723252</v>
+        <v>526660.4581602761</v>
       </c>
       <c r="R143" t="n">
-        <v>7126843.202344363</v>
+        <v>7126838.225198075</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16719,10 +16711,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111480065</v>
+        <v>111480118</v>
       </c>
       <c r="B144" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16735,34 +16727,42 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Bäckslåtten, Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>526618.0915837138</v>
+        <v>526775.4342201974</v>
       </c>
       <c r="R144" t="n">
-        <v>7126855.679999291</v>
+        <v>7126678.827645465</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
